--- a/奇智数据.xlsx
+++ b/奇智数据.xlsx
@@ -16,12 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431">
   <si>
     <t>蝶恋花</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>柳永《蝶恋花》</t>
     </r>
     <r>
@@ -156,6 +162,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>李白《将进酒》</t>
     </r>
     <r>
@@ -241,6 +253,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>李清照《一剪梅》</t>
     </r>
     <r>
@@ -277,6 +295,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>郑板桥《竹石》</t>
     </r>
     <r>
@@ -331,6 +355,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>林逋《点绛唇</t>
     </r>
     <r>
@@ -406,6 +436,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>韦庄《菩萨蛮</t>
     </r>
     <r>
@@ -543,6 +579,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>李清照《如梦令》01</t>
     </r>
     <r>
@@ -676,6 +718,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>李清照《醉花阴》</t>
     </r>
     <r>
@@ -748,6 +796,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>苏轼《卜算子》</t>
     </r>
     <r>
@@ -802,6 +856,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>欧阳修《生查子</t>
     </r>
     <r>
@@ -913,6 +973,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>李清照《夏日绝句》</t>
     </r>
     <r>
@@ -961,6 +1027,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>苏轼《望江南》</t>
     </r>
     <r>
@@ -1021,6 +1093,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>辛弃疾《破阵子》</t>
     </r>
     <r>
@@ -1075,6 +1153,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>叶嘉莹诗览众山小</t>
     </r>
     <r>
@@ -1213,6 +1297,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>《孔雀东南飞》上</t>
     </r>
     <r>
@@ -1255,6 +1345,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>辛弃疾《摸鱼儿》</t>
     </r>
     <r>
@@ -1310,6 +1406,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>白居易《采莲曲》</t>
     </r>
     <r>
@@ -1365,6 +1467,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>祖咏《终南望余雪》</t>
     </r>
     <r>
@@ -2024,6 +2132,243 @@
   </si>
   <si>
     <t>杜甫《琴台》:http://mp.weixin.qq.com/s/jMfMqEta7SE8mdqTEMT9Qg</t>
+  </si>
+  <si>
+    <t>苏轼</t>
+  </si>
+  <si>
+    <t>车遥遥篇</t>
+  </si>
+  <si>
+    <t>范成大《车遥遥篇》:http://mp.weixin.qq.com/s/8zkOvE1Lq511Ax0vrlJv7A</t>
+  </si>
+  <si>
+    <t>登乐游原</t>
+  </si>
+  <si>
+    <t>李商隐《登乐游原》:http://mp.weixin.qq.com/s/YFDlotdsUFQYflIVK5CJcA</t>
+  </si>
+  <si>
+    <t>生查子</t>
+  </si>
+  <si>
+    <t>牛希济《生查子》:http://mp.weixin.qq.com/s/B2o4IBRoVtqsCiUnwl8pow</t>
+  </si>
+  <si>
+    <t>欧阳修《玉楼春》:http://mp.weixin.qq.com/s/TEFIkR47m7Xjt63deBlBNw</t>
+  </si>
+  <si>
+    <t>沁园春雪</t>
+  </si>
+  <si>
+    <t>《沁园春·雪》:http://mp.weixin.qq.com/s/WCi7VTOiPnEnItQ9VwkaUA</t>
+  </si>
+  <si>
+    <t>沁园春长沙</t>
+  </si>
+  <si>
+    <t>沁园春·长沙:http://mp.weixin.qq.com/s/gEX03B3Dx7B1T2kI5GmgZg</t>
+  </si>
+  <si>
+    <t>卜算子咏梅</t>
+  </si>
+  <si>
+    <t>卜算子·咏梅（待到山花烂漫时）:http://mp.weixin.qq.com/s/R5k1DBsRvCDFEqiSp2s4rQ</t>
+  </si>
+  <si>
+    <t>采桑子重阳</t>
+  </si>
+  <si>
+    <t>采桑子·重阳:http://mp.weixin.qq.com/s/Lb3n1vuiec9ktNrfHwUSuw</t>
+  </si>
+  <si>
+    <t>游蕲水清泉寺</t>
+  </si>
+  <si>
+    <t>苏轼《浣溪沙·游蕲水清泉寺》:http://mp.weixin.qq.com/s/xFcJiZzMJ6PlaUw9gAI9eg</t>
+  </si>
+  <si>
+    <t>饮湖上初晴后雨</t>
+  </si>
+  <si>
+    <t>苏轼《饮湖上初晴后雨》其二:http://mp.weixin.qq.com/s/mg78Im7QU5CdU6zj9jdoqw</t>
+  </si>
+  <si>
+    <t>黄金榜上</t>
+  </si>
+  <si>
+    <t>柳永《鹤冲天·黄金榜上》:http://mp.weixin.qq.com/s/o6Ft3eMG3vYaJ5bELZHoyw</t>
+  </si>
+  <si>
+    <t>浪淘沙北戴河</t>
+  </si>
+  <si>
+    <t>《浪淘沙·北戴河》:http://mp.weixin.qq.com/s/GxIQO-XftoVfHwGES4fnZg</t>
+  </si>
+  <si>
+    <t>题西林壁</t>
+  </si>
+  <si>
+    <t>苏轼《题西林壁》:http://mp.weixin.qq.com/s/3ZnISbkws5qKHlsPCup-ug</t>
+  </si>
+  <si>
+    <t>给彭德怀同志</t>
+  </si>
+  <si>
+    <t>《六言诗·给彭德怀同志》:http://mp.weixin.qq.com/s/Os-RIqQNQjRSfIUbRK3trQ</t>
+  </si>
+  <si>
+    <t>宋之韵</t>
+  </si>
+  <si>
+    <t>《宋之韵》完结全集:http://mp.weixin.qq.com/s/pJT1F0exJcuvP4qB6ivaCw</t>
+  </si>
+  <si>
+    <t>登幽州台歌</t>
+  </si>
+  <si>
+    <t>陈子昂《登幽州台歌》:http://mp.weixin.qq.com/s/Q5KqM2plsxKh5xAlnhuftw</t>
+  </si>
+  <si>
+    <t>呈父亲</t>
+  </si>
+  <si>
+    <t>七绝·呈父亲:http://mp.weixin.qq.com/s/dUpennLSki14spPkWVGKPA</t>
+  </si>
+  <si>
+    <t>相见时难别亦难</t>
+  </si>
+  <si>
+    <t>李商隐《无题·相见时难别亦难》:http://mp.weixin.qq.com/s/gP3J1mrz69TDoJ_IqAYULw</t>
+  </si>
+  <si>
+    <t>咏蛙</t>
+  </si>
+  <si>
+    <t>七绝·咏蛙（主席第一首诗）:http://mp.weixin.qq.com/s/I0SyJvvG6ipbdOaVIQk_aw</t>
+  </si>
+  <si>
+    <t>昨夜星辰昨夜风</t>
+  </si>
+  <si>
+    <t>李商隐《无题·昨夜星辰昨夜风》上:http://mp.weixin.qq.com/s/YUDhVubVp189icpKx-n9MQ
+李商隐《无题·昨夜星辰昨夜风》下:http://mp.weixin.qq.com/s/mVD0ZovIGn0JxlHmZ4Z5lw</t>
+  </si>
+  <si>
+    <t>绮怀</t>
+  </si>
+  <si>
+    <t>黄仲则《绮怀》(十五):http://mp.weixin.qq.com/s/BP-2as4soD9sKGtldNHNbw</t>
+  </si>
+  <si>
+    <t>到韶山</t>
+  </si>
+  <si>
+    <t>七律·到韶山（故园三十二年前）:http://mp.weixin.qq.com/s/tpTksl1rNNbWq9Jge08FUg</t>
+  </si>
+  <si>
+    <t>代悲白头翁</t>
+  </si>
+  <si>
+    <t>刘希夷《代悲白头翁》:http://mp.weixin.qq.com/s/P_LXWjwXtUNDprjLTbCDpw</t>
+  </si>
+  <si>
+    <t>登庐山</t>
+  </si>
+  <si>
+    <t>七律·登庐山（第四十二天）:http://mp.weixin.qq.com/s/uEbiD3BbsedGWB9L0Evi8w</t>
+  </si>
+  <si>
+    <t>读懂诗人才懂诗</t>
+  </si>
+  <si>
+    <t>读懂诗人才懂诗:http://dwz.cn/6s73gd</t>
+  </si>
+  <si>
+    <t>雨中登岳阳楼望君山</t>
+  </si>
+  <si>
+    <t>黄庭坚《雨中登岳阳楼望君山》:http://mp.weixin.qq.com/s/hxQENmm8ZBpAMzTNtS66vA</t>
+  </si>
+  <si>
+    <t>寄黄几复</t>
+  </si>
+  <si>
+    <t>黄庭坚《寄黄几复》:http://mp.weixin.qq.com/s/cZW8k-eN4HgvksMcyBfv0w</t>
+  </si>
+  <si>
+    <t>鹊桥仙</t>
+  </si>
+  <si>
+    <t>秦观《鹊桥仙》:http://mp.weixin.qq.com/s/RkGaWpMMxzBtwUl3icWopg</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>晏殊《浣溪沙》</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:http://mp.weixin.qq.com/s/-w8MiwUqpL-LhL0-47mCpg
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>苏轼《浣溪沙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>游蕲水清泉寺》</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:http://mp.weixin.qq.com/s/xFcJiZzMJ6PlaUw9gAI9eg</t>
+    </r>
+  </si>
+  <si>
+    <t>鹤冲天黄金榜上</t>
+  </si>
+  <si>
+    <t>无题</t>
+  </si>
+  <si>
+    <t>李商隐《无题·相见时难别亦难》:http://mp.weixin.qq.com/s/gP3J1mrz69TDoJ_IqAYULw
+李商隐《无题·昨夜星辰昨夜风》上:http://mp.weixin.qq.com/s/YUDhVubVp189icpKx-n9MQ
+李商隐《无题·昨夜星辰昨夜风》下:http://mp.weixin.qq.com/s/mVD0ZovIGn0JxlHmZ4Z5lw</t>
   </si>
 </sst>
 </file>
@@ -2032,9 +2377,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -2064,8 +2409,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2087,91 +2472,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2194,10 +2495,54 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2222,13 +2567,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2246,25 +2603,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2276,79 +2621,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2366,13 +2651,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2384,13 +2693,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2402,7 +2705,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2456,17 +2801,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2486,21 +2840,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2512,24 +2851,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2553,16 +2874,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2571,137 +2916,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2723,6 +3068,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3066,17 +3418,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C193"/>
+  <dimension ref="A1:C225"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C149" sqref="C149:C193"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="A194" sqref="A194:C225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -3108,7 +3459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" ht="14.25" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -3119,7 +3470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="27" spans="1:3">
+    <row r="4" ht="14.25" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -3152,7 +3503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" ht="14.25" spans="1:3">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -3185,7 +3536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" ht="14.25" spans="1:3">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -3240,7 +3591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" ht="27.75" spans="1:3">
+    <row r="15" ht="14.25" spans="1:3">
       <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
@@ -3284,7 +3635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" ht="14.25" spans="1:3">
       <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
@@ -3295,7 +3646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" ht="27" spans="1:3">
+    <row r="20" ht="14.25" spans="1:3">
       <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
@@ -3361,7 +3712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" ht="27" spans="1:3">
+    <row r="26" ht="14.25" spans="1:3">
       <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
@@ -3405,7 +3756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" ht="27" spans="1:3">
+    <row r="30" ht="14.25" spans="1:3">
       <c r="A30" s="3" t="s">
         <v>58</v>
       </c>
@@ -3416,7 +3767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" ht="27" spans="1:3">
+    <row r="31" ht="14.25" spans="1:3">
       <c r="A31" s="3" t="s">
         <v>60</v>
       </c>
@@ -3427,7 +3778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" ht="27" spans="1:3">
+    <row r="32" ht="14.25" spans="1:3">
       <c r="A32" s="3" t="s">
         <v>62</v>
       </c>
@@ -3449,7 +3800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" ht="27" spans="1:3">
+    <row r="34" ht="14.25" spans="1:3">
       <c r="A34" s="3" t="s">
         <v>66</v>
       </c>
@@ -3526,7 +3877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" ht="14.25" spans="1:3">
       <c r="A41" s="3" t="s">
         <v>79</v>
       </c>
@@ -3625,7 +3976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" ht="27" spans="1:3">
+    <row r="50" ht="14.25" spans="1:3">
       <c r="A50" s="3" t="s">
         <v>97</v>
       </c>
@@ -3636,7 +3987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" ht="27" spans="1:3">
+    <row r="51" ht="26.25" spans="1:3">
       <c r="A51" s="3" t="s">
         <v>99</v>
       </c>
@@ -3680,7 +4031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" ht="14.25" spans="1:3">
       <c r="A55" s="3" t="s">
         <v>106</v>
       </c>
@@ -3702,7 +4053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" ht="14.25" spans="1:3">
       <c r="A57" s="3" t="s">
         <v>110</v>
       </c>
@@ -3713,7 +4064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" ht="14.25" spans="1:3">
       <c r="A58" s="3" t="s">
         <v>112</v>
       </c>
@@ -3768,7 +4119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" ht="27" spans="1:3">
+    <row r="63" ht="14.25" spans="1:3">
       <c r="A63" s="3" t="s">
         <v>122</v>
       </c>
@@ -3801,7 +4152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" ht="14.25" spans="1:3">
       <c r="A66" s="3" t="s">
         <v>128</v>
       </c>
@@ -3845,7 +4196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" ht="14.25" spans="1:3">
       <c r="A70" s="3" t="s">
         <v>136</v>
       </c>
@@ -3966,7 +4317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" ht="14.25" spans="1:3">
       <c r="A81" s="3" t="s">
         <v>157</v>
       </c>
@@ -3977,7 +4328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" ht="27.75" spans="1:3">
+    <row r="82" ht="14.25" spans="1:3">
       <c r="A82" s="3" t="s">
         <v>159</v>
       </c>
@@ -3988,7 +4339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" ht="27" spans="1:3">
+    <row r="83" ht="14.25" spans="1:3">
       <c r="A83" s="3" t="s">
         <v>161</v>
       </c>
@@ -3999,7 +4350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" ht="27.75" spans="1:3">
+    <row r="84" ht="14.25" spans="1:3">
       <c r="A84" s="3" t="s">
         <v>163</v>
       </c>
@@ -4021,7 +4372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" ht="27" spans="1:3">
+    <row r="86" ht="14.25" spans="1:3">
       <c r="A86" s="3" t="s">
         <v>167</v>
       </c>
@@ -4032,7 +4383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" ht="27" spans="1:3">
+    <row r="87" ht="14.25" spans="1:3">
       <c r="A87" s="3" t="s">
         <v>169</v>
       </c>
@@ -4043,7 +4394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" ht="27" spans="1:3">
+    <row r="88" ht="14.25" spans="1:3">
       <c r="A88" s="3" t="s">
         <v>170</v>
       </c>
@@ -4054,7 +4405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" ht="27" spans="1:3">
+    <row r="89" ht="14.25" spans="1:3">
       <c r="A89" s="3" t="s">
         <v>172</v>
       </c>
@@ -4087,7 +4438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" ht="27.75" spans="1:3">
+    <row r="92" ht="14.25" spans="1:3">
       <c r="A92" s="3" t="s">
         <v>178</v>
       </c>
@@ -4098,7 +4449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" ht="27.75" spans="1:3">
+    <row r="93" ht="14.25" spans="1:3">
       <c r="A93" s="3" t="s">
         <v>180</v>
       </c>
@@ -4109,7 +4460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" ht="27.75" spans="1:3">
+    <row r="94" ht="14.25" spans="1:3">
       <c r="A94" s="3" t="s">
         <v>182</v>
       </c>
@@ -5200,6 +5551,358 @@
         <v>370</v>
       </c>
       <c r="C193" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B198" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B200" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="B202" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="C202" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="B203" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="B204" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="C204" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="B205" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="B206" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="B207" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="B208" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="C208" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="B209" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="C210" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="B211" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="C211" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="B212" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="C212" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="B213" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="C213" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" ht="27" spans="1:3">
+      <c r="A214" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="B214" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="C214" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="B215" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="C215" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="B216" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="C216" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="B217" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="C217" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="B218" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="C218" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="B219" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="C219" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="B220" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="C220" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="B221" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="C221" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" ht="14.25" spans="1:3">
+      <c r="A222" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="B222" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="C222" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" ht="27" spans="1:3">
+      <c r="A223" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C223" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="B224" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="C224" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" ht="40.5" spans="1:3">
+      <c r="A225" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B225" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="C225" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5210,7 +5913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -5226,7 +5929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/奇智数据.xlsx
+++ b/奇智数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="19770" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465">
   <si>
     <t>蝶恋花</t>
   </si>
@@ -2369,6 +2369,108 @@
     <t>李商隐《无题·相见时难别亦难》:http://mp.weixin.qq.com/s/gP3J1mrz69TDoJ_IqAYULw
 李商隐《无题·昨夜星辰昨夜风》上:http://mp.weixin.qq.com/s/YUDhVubVp189icpKx-n9MQ
 李商隐《无题·昨夜星辰昨夜风》下:http://mp.weixin.qq.com/s/mVD0ZovIGn0JxlHmZ4Z5lw</t>
+  </si>
+  <si>
+    <t>望洞庭湖赠张丞相</t>
+  </si>
+  <si>
+    <t>孟浩然《望洞庭湖赠张丞相》:http://mp.weixin.qq.com/s/RJKY2Ad67Wl_47j2xFcKtg</t>
+  </si>
+  <si>
+    <t>韩翃《章台柳》:http://mp.weixin.qq.com/s/kEDyLhJDXmv7R6cA0KGNQQ</t>
+  </si>
+  <si>
+    <t>杨柳枝</t>
+  </si>
+  <si>
+    <t>柳氏《杨柳枝》:http://mp.weixin.qq.com/s/DAk4PUgRvVSJg2tvHSasDg</t>
+  </si>
+  <si>
+    <t>咏山泉</t>
+  </si>
+  <si>
+    <t>储光羲《咏山泉》:http://mp.weixin.qq.com/s/ODrodFxhIdIWvAl9H2-0PQ</t>
+  </si>
+  <si>
+    <t>长安古道马迟迟</t>
+  </si>
+  <si>
+    <t>《少年游·长安古道马迟迟》:http://mp.weixin.qq.com/s/ibrwNPMZFP6gC3DLjx1YMQ</t>
+  </si>
+  <si>
+    <t>少年游</t>
+  </si>
+  <si>
+    <t>古从军行</t>
+  </si>
+  <si>
+    <t>李颀《古从军行》:http://mp.weixin.qq.com/s/SsuGpWkrwpoMR1fF3GCxhg</t>
+  </si>
+  <si>
+    <t>芙蓉楼送辛渐</t>
+  </si>
+  <si>
+    <t>王昌龄《芙蓉楼送辛渐》:http://mp.weixin.qq.com/s/PTQ7BmQ08qpoNYCDtN_n1Q</t>
+  </si>
+  <si>
+    <t>凉州词</t>
+  </si>
+  <si>
+    <t>王翰《凉州词》:http://mp.weixin.qq.com/s/s_Zv-W0oC0cznN_q5RtTGg</t>
+  </si>
+  <si>
+    <t>次北固山下</t>
+  </si>
+  <si>
+    <t>王湾《次北固山下》:http://mp.weixin.qq.com/s/s3N1QAuPc542CAdW_yAang</t>
+  </si>
+  <si>
+    <t>终南别业</t>
+  </si>
+  <si>
+    <t>王维《终南别业》:http://mp.weixin.qq.com/s/b3xmxdLNJ3yIjbPkVGVcJw</t>
+  </si>
+  <si>
+    <t>登鹳雀楼</t>
+  </si>
+  <si>
+    <t>王之涣《登鹳雀楼》:http://mp.weixin.qq.com/s/dB7XERoMlur0CFRNVkdIng</t>
+  </si>
+  <si>
+    <t>师说</t>
+  </si>
+  <si>
+    <t>教师节，重温《师说》:http://mp.weixin.qq.com/s/dYt7snsK9aT3pz6HHG5UNg</t>
+  </si>
+  <si>
+    <t>鹧鸪天</t>
+  </si>
+  <si>
+    <t>晏几道《鹧鸪天》:http://mp.weixin.qq.com/s/YS1nwjI2MV4VN5AH8GFKSw</t>
+  </si>
+  <si>
+    <t>节妇吟寄东平李司空师道</t>
+  </si>
+  <si>
+    <t>张籍《节妇吟寄东平李司空师道》:http://mp.weixin.qq.com/s/pf79NWyU_YAMaPdKOTC0ww</t>
+  </si>
+  <si>
+    <t>赠去婢</t>
+  </si>
+  <si>
+    <t>崔郊《赠去婢》:http://mp.weixin.qq.com/s/G7888S1TMQzMbJ1iVdXKWw</t>
+  </si>
+  <si>
+    <t>铜官窑瓷器题诗</t>
+  </si>
+  <si>
+    <t>唐代《铜官窑瓷器题诗》:https://mp.weixin.qq.com/s/2mXHhWta5C5g0nsQPay7wg</t>
+  </si>
+  <si>
+    <t>关雎</t>
+  </si>
+  <si>
+    <t>《诗经》之《国风·周南·关雎》:http://mp.weixin.qq.com/s/a1Ljy5gRiN4D_YtGY2hyTg</t>
   </si>
 </sst>
 </file>
@@ -2377,9 +2479,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -2402,6 +2504,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2409,16 +2526,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2432,47 +2563,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2487,38 +2588,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2532,6 +2611,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2539,8 +2626,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2567,7 +2669,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2579,7 +2759,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2591,13 +2801,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2609,91 +2831,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2705,49 +2849,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2801,41 +2903,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2857,10 +2935,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2876,16 +2952,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2898,16 +2989,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2916,137 +3018,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3076,6 +3178,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3424,10 +3530,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C225"/>
+  <dimension ref="A1:C243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="A194" sqref="A194:C225"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="A226" sqref="A226:C243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -5903,6 +6009,204 @@
         <v>430</v>
       </c>
       <c r="C225" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="B226" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="C226" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="B227" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="C227" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="B228" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="C228" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="B229" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="C229" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="B230" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="C230" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="B231" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="C231" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="B232" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C232" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="B233" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="C233" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="B234" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="C234" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="B235" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="C235" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="B236" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="C236" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="B237" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="C237" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B238" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="C238" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="B239" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="C239" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="B240" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="C240" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="B241" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="C241" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="B242" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="C242" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="B243" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="C243" s="12" t="s">
         <v>2</v>
       </c>
     </row>

--- a/奇智数据.xlsx
+++ b/奇智数据.xlsx
@@ -1687,7 +1687,37 @@
     <t>钗头凤</t>
   </si>
   <si>
-    <t>陆游《钗头凤》:http://dwz.cn/6h0saR </t>
+    <r>
+      <t>陆游《钗头凤》</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:http://dwz.cn/6h0saR
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>唐婉《钗头凤》</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">http://mp.weixin.qq.com/s/qDhJ3O9NqdDIPnopexgCCQ </t>
+    </r>
   </si>
   <si>
     <t>谒金门</t>
@@ -2480,8 +2510,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -2504,9 +2534,23 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2519,17 +2563,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2540,9 +2578,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2550,14 +2587,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2571,9 +2601,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2588,10 +2625,17 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2603,17 +2647,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2628,21 +2672,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2669,127 +2699,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2807,7 +2717,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2819,37 +2831,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2918,6 +2948,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2933,24 +2983,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2962,6 +2994,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2984,19 +3025,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3006,10 +3036,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3018,137 +3048,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3178,10 +3208,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3532,8 +3558,8 @@
   <sheetPr/>
   <dimension ref="A1:C243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="A226" sqref="A226:C243"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="A117" sqref="$A117:$XFD117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -4808,7 +4834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" ht="14.25" spans="1:3">
+    <row r="116" spans="1:3">
       <c r="A116" s="3" t="s">
         <v>221</v>
       </c>
@@ -4819,18 +4845,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" ht="14.25" spans="1:3">
+    <row r="117" ht="27.75" spans="1:3">
       <c r="A117" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="4" t="s">
         <v>224</v>
       </c>
       <c r="C117" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="118" ht="14.25" spans="1:3">
+    <row r="118" spans="1:3">
       <c r="A118" s="3" t="s">
         <v>225</v>
       </c>
@@ -6013,200 +6039,200 @@
       </c>
     </row>
     <row r="226" spans="1:3">
-      <c r="A226" s="11" t="s">
+      <c r="A226" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="B226" s="11" t="s">
+      <c r="B226" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="C226" s="12" t="s">
+      <c r="C226" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:3">
-      <c r="A227" s="11" t="s">
+      <c r="A227" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B227" s="11" t="s">
+      <c r="B227" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="C227" s="12" t="s">
+      <c r="C227" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:3">
-      <c r="A228" s="11" t="s">
+      <c r="A228" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="B228" s="11" t="s">
+      <c r="B228" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="C228" s="12" t="s">
+      <c r="C228" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:3">
-      <c r="A229" s="11" t="s">
+      <c r="A229" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="B229" s="11" t="s">
+      <c r="B229" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="C229" s="12" t="s">
+      <c r="C229" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:3">
-      <c r="A230" s="11" t="s">
+      <c r="A230" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="B230" s="11" t="s">
+      <c r="B230" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="C230" s="12" t="s">
+      <c r="C230" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:3">
-      <c r="A231" s="11" t="s">
+      <c r="A231" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="B231" s="11" t="s">
+      <c r="B231" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="C231" s="12" t="s">
+      <c r="C231" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:3">
-      <c r="A232" s="11" t="s">
+      <c r="A232" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="B232" s="11" t="s">
+      <c r="B232" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="C232" s="12" t="s">
+      <c r="C232" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233" s="11" t="s">
+      <c r="A233" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="B233" s="11" t="s">
+      <c r="B233" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="C233" s="12" t="s">
+      <c r="C233" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:3">
-      <c r="A234" s="11" t="s">
+      <c r="A234" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="B234" s="11" t="s">
+      <c r="B234" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="C234" s="12" t="s">
+      <c r="C234" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:3">
-      <c r="A235" s="11" t="s">
+      <c r="A235" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="B235" s="11" t="s">
+      <c r="B235" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="C235" s="12" t="s">
+      <c r="C235" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:3">
-      <c r="A236" s="11" t="s">
+      <c r="A236" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="B236" s="11" t="s">
+      <c r="B236" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="C236" s="12" t="s">
+      <c r="C236" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:3">
-      <c r="A237" s="11" t="s">
+      <c r="A237" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="B237" s="11" t="s">
+      <c r="B237" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="C237" s="12" t="s">
+      <c r="C237" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:3">
-      <c r="A238" s="11" t="s">
+      <c r="A238" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="B238" s="11" t="s">
+      <c r="B238" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="C238" s="12" t="s">
+      <c r="C238" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:3">
-      <c r="A239" s="11" t="s">
+      <c r="A239" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="B239" s="11" t="s">
+      <c r="B239" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="C239" s="12" t="s">
+      <c r="C239" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:3">
-      <c r="A240" s="11" t="s">
+      <c r="A240" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="B240" s="11" t="s">
+      <c r="B240" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="C240" s="12" t="s">
+      <c r="C240" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:3">
-      <c r="A241" s="11" t="s">
+      <c r="A241" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="B241" s="11" t="s">
+      <c r="B241" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="C241" s="12" t="s">
+      <c r="C241" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:3">
-      <c r="A242" s="11" t="s">
+      <c r="A242" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="B242" s="11" t="s">
+      <c r="B242" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="C242" s="12" t="s">
+      <c r="C242" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:3">
-      <c r="A243" s="11" t="s">
+      <c r="A243" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="B243" s="11" t="s">
+      <c r="B243" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="C243" s="12" t="s">
+      <c r="C243" s="8" t="s">
         <v>2</v>
       </c>
     </row>

--- a/奇智数据.xlsx
+++ b/奇智数据.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474">
   <si>
     <t>蝶恋花</t>
   </si>
@@ -436,12 +436,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF748391"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>韦庄《菩萨蛮</t>
     </r>
     <r>
@@ -488,7 +482,17 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>:http://mp.weixin.qq.com/s/8UO6P9cRJ2BYwRT1Hf_vFg </t>
+      <t xml:space="preserve">:http://mp.weixin.qq.com/s/8UO6P9cRJ2BYwRT1Hf_vFg
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李煜《菩萨蛮》:http://mp.weixin.qq.com/s/grB68fhM03DM15quS_U0pw</t>
     </r>
   </si>
   <si>
@@ -699,7 +703,37 @@
     <t>望月怀远</t>
   </si>
   <si>
-    <t>张九龄《望月怀远》:http://mp.weixin.qq.com/s/JKOEeasFv7ukypGBFUG_cw </t>
+    <r>
+      <t>张九龄《望月怀远》</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:http://mp.weixin.qq.com/s/JKOEeasFv7ukypGBFUG_cw 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张九龄《望月怀远》</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:http://mp.weixin.qq.com/s/eHAf_Cj_3u0AE8YiZuzpKw</t>
+    </r>
   </si>
   <si>
     <t>酒泉子</t>
@@ -1093,12 +1127,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF748391"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>辛弃疾《破阵子》</t>
     </r>
     <r>
@@ -1127,7 +1155,17 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>:http://mp.weixin.qq.com/s/1wrYLrNkk0Xi1z1uRWIQXw </t>
+      <t xml:space="preserve">:http://mp.weixin.qq.com/s/1wrYLrNkk0Xi1z1uRWIQXw
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李煜《破阵子》:http://mp.weixin.qq.com/s/0tuZ1ILXDvxAUY-PQaktYg</t>
     </r>
   </si>
   <si>
@@ -1278,7 +1316,56 @@
     <t>燕歌行</t>
   </si>
   <si>
-    <t>曹丕《燕歌行》:http://mp.weixin.qq.com/s/4dW_3iJz-YR6qRLg2oRxaw </t>
+    <r>
+      <t>曹丕《燕歌行》</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:http://mp.weixin.qq.com/s/4dW_3iJz-YR6qRLg2oRxaw
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高适《燕歌行》上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:http://mp.weixin.qq.com/s/P_9uDmP6n94MN-zHX8vf1Q
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高适《燕歌行》下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:http://mp.weixin.qq.com/s/56ZHEWqsiVuUuJtil2qZ6A</t>
+    </r>
   </si>
   <si>
     <t>问刘十九</t>
@@ -1688,6 +1775,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>陆游《钗头凤》</t>
     </r>
     <r>
@@ -2501,6 +2594,33 @@
   </si>
   <si>
     <t>《诗经》之《国风·周南·关雎》:http://mp.weixin.qq.com/s/a1Ljy5gRiN4D_YtGY2hyTg</t>
+  </si>
+  <si>
+    <t>李煜《玉楼春·晚妆初了明肌雪》:http://mp.weixin.qq.com/s/mGHyBs5T9h1oE5w2IJCcdw</t>
+  </si>
+  <si>
+    <t>梦游天姥吟留别</t>
+  </si>
+  <si>
+    <t>高中-《梦游天姥吟留别》:http://mp.weixin.qq.com/s/8lYidlnuUIxTMs6DZzj52w</t>
+  </si>
+  <si>
+    <t>挽词</t>
+  </si>
+  <si>
+    <t>李煜《挽词》:http://mp.weixin.qq.com/s/GB_AB-OqJmIbAsh1NkmBzg</t>
+  </si>
+  <si>
+    <t>蜀道难</t>
+  </si>
+  <si>
+    <t>高中-蜀道难:https://mp.weixin.qq.com/s/kcFwHqpWCoJE6tXk5OgRog</t>
+  </si>
+  <si>
+    <t>静夜思</t>
+  </si>
+  <si>
+    <t>李白《静夜思》:http://mp.weixin.qq.com/s/ckXDnIz94WQm3WLUfTN1_g</t>
   </si>
 </sst>
 </file>
@@ -2509,9 +2629,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -2534,18 +2654,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2557,7 +2670,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2571,15 +2705,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2601,9 +2737,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2617,52 +2776,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2673,6 +2786,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2699,7 +2819,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2711,13 +2915,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2729,67 +2987,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2801,85 +2999,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2934,6 +3054,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -2968,17 +3103,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2998,15 +3136,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3021,25 +3150,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3048,133 +3168,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3556,10 +3676,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C243"/>
+  <dimension ref="A1:C249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="A117" sqref="$A117:$XFD117"/>
+    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="B225" sqref="B225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -3745,7 +3865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:3">
+    <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
@@ -3756,7 +3876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" ht="27.75" spans="1:3">
+    <row r="18" ht="40.5" spans="1:3">
       <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
@@ -3767,7 +3887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:3">
+    <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
@@ -3965,18 +4085,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" ht="14.25" spans="1:3">
+    <row r="37" ht="27.75" spans="1:3">
       <c r="A37" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C37" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="38" ht="14.25" spans="1:3">
+    <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
         <v>73</v>
       </c>
@@ -4218,7 +4338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" ht="14.25" spans="1:3">
+    <row r="60" spans="1:3">
       <c r="A60" s="3" t="s">
         <v>116</v>
       </c>
@@ -4229,7 +4349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" ht="27.75" spans="1:3">
+    <row r="61" ht="40.5" spans="1:3">
       <c r="A61" s="3" t="s">
         <v>118</v>
       </c>
@@ -4240,7 +4360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" ht="14.25" spans="1:3">
+    <row r="62" spans="1:3">
       <c r="A62" s="3" t="s">
         <v>120</v>
       </c>
@@ -4295,7 +4415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" ht="14.25" spans="1:3">
+    <row r="67" spans="1:3">
       <c r="A67" s="3" t="s">
         <v>130</v>
       </c>
@@ -4306,18 +4426,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" ht="14.25" spans="1:3">
+    <row r="68" ht="41.25" spans="1:3">
       <c r="A68" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C68" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="69" ht="14.25" spans="1:3">
+    <row r="69" spans="1:3">
       <c r="A69" s="3" t="s">
         <v>134</v>
       </c>
@@ -4834,7 +4954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" ht="14.25" spans="1:3">
       <c r="A116" s="3" t="s">
         <v>221</v>
       </c>
@@ -4856,7 +4976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" ht="14.25" spans="1:3">
       <c r="A118" s="3" t="s">
         <v>225</v>
       </c>
@@ -6233,6 +6353,66 @@
         <v>464</v>
       </c>
       <c r="C243" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="9"/>
+      <c r="B244" s="9"/>
+      <c r="C244" s="8"/>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B245" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="C245" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="B246" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="C246" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="B247" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="C247" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="B248" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="C248" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="B249" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="C249" s="8" t="s">
         <v>2</v>
       </c>
     </row>

--- a/奇智数据.xlsx
+++ b/奇智数据.xlsx
@@ -436,6 +436,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>韦庄《菩萨蛮</t>
     </r>
     <r>
@@ -704,6 +710,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>张九龄《望月怀远》</t>
     </r>
     <r>
@@ -1127,6 +1139,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>辛弃疾《破阵子》</t>
     </r>
     <r>
@@ -1317,6 +1335,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>曹丕《燕歌行》</t>
     </r>
     <r>
@@ -2628,10 +2652,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -2654,23 +2678,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2690,24 +2700,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2721,9 +2730,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2746,6 +2754,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -2753,6 +2769,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2769,14 +2794,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2785,7 +2802,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2793,6 +2810,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2819,7 +2843,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2831,19 +2867,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2855,37 +2909,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2903,49 +2933,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2963,19 +2969,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2987,19 +3017,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3054,6 +3078,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -3068,17 +3107,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3094,29 +3133,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3136,17 +3155,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3156,10 +3180,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3168,7 +3192,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3177,124 +3201,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3678,8 +3702,8 @@
   <sheetPr/>
   <dimension ref="A1:C249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="B225" sqref="B225"/>
+    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
+      <selection activeCell="B249" sqref="B249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -3865,7 +3889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" ht="14.25" spans="1:3">
       <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
@@ -3887,7 +3911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" ht="14.25" spans="1:3">
       <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
@@ -4096,7 +4120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" ht="14.25" spans="1:3">
       <c r="A38" s="3" t="s">
         <v>73</v>
       </c>
@@ -4338,7 +4362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" ht="14.25" spans="1:3">
       <c r="A60" s="3" t="s">
         <v>116</v>
       </c>
@@ -4360,7 +4384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" ht="14.25" spans="1:3">
       <c r="A62" s="3" t="s">
         <v>120</v>
       </c>
@@ -4415,7 +4439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" ht="14.25" spans="1:3">
       <c r="A67" s="3" t="s">
         <v>130</v>
       </c>
@@ -4437,7 +4461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" ht="14.25" spans="1:3">
       <c r="A69" s="3" t="s">
         <v>134</v>
       </c>

--- a/奇智数据.xlsx
+++ b/奇智数据.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542">
   <si>
     <t>蝶恋花</t>
   </si>
@@ -641,12 +641,6 @@
   </si>
   <si>
     <t>李白《行路难》:http://mp.weixin.qq.com/s/RKM0KTgSSL2zONEOEwRGtg </t>
-  </si>
-  <si>
-    <t>登金陵凤凰台</t>
-  </si>
-  <si>
-    <t>李白《登金陵凤凰台》:http://mp.weixin.qq.com/s/To8uiABoZCf0BQNfeATE0w </t>
   </si>
   <si>
     <t>赤壁</t>
@@ -1492,12 +1486,6 @@
     <t>辛弃疾《丑奴儿》:http://mp.weixin.qq.com/s/AMXZKGtkF5u_d8SAgyXhgg </t>
   </si>
   <si>
-    <t>定风波</t>
-  </si>
-  <si>
-    <t>苏轼《定风波》:http://mp.weixin.qq.com/s/6fmNTQOYTMVlGFQHg3lWOw </t>
-  </si>
-  <si>
     <t>江上吟</t>
   </si>
   <si>
@@ -1777,16 +1765,10 @@
     <t>李白《北风行》:http://dwz.cn/6h1efI </t>
   </si>
   <si>
-    <t>晚妆初了明肌雪</t>
+    <t>玉楼春晚妆初了明肌雪</t>
   </si>
   <si>
     <t>李煜《玉楼春·晚妆初了明肌雪》:http://dwz.cn/6h1eWl </t>
-  </si>
-  <si>
-    <t>玉楼春</t>
-  </si>
-  <si>
-    <t>玉楼春晚妆初了明肌雪</t>
   </si>
   <si>
     <t>酬乐天扬州初逢席上见赠</t>
@@ -2053,136 +2035,873 @@
     <t>《诗经·国风·秦风·蒹葭》:http://mp.weixin.qq.com/s/6N-RUPdnaacAbjehd5oATg</t>
   </si>
   <si>
+    <t>虞美人</t>
+  </si>
+  <si>
+    <t>李煜《虞美人》:https://mp.weixin.qq.com/s/LKOIZSUPJdIZGlsD0QIiTw</t>
+  </si>
+  <si>
+    <t>乙卯正月二十日夜记梦</t>
+  </si>
+  <si>
+    <t>苏轼《江城子·乙卯正月二十日夜记梦》:https://mp.weixin.qq.com/s/7Jb-XLeAXkFvGGEtnz8h8g</t>
+  </si>
+  <si>
+    <t>桃花溪</t>
+  </si>
+  <si>
+    <t>张旭《桃花溪》:http://mp.weixin.qq.com/s/fsfvzKe3UiCda5S-1TCNWw</t>
+  </si>
+  <si>
+    <t>昨夜雨疏风骤</t>
+  </si>
+  <si>
+    <t>李清照《如梦令·昨夜雨疏风骤》:http://mp.weixin.qq.com/s/_y7g-ZY-894_kcWbpJcR_A</t>
+  </si>
+  <si>
+    <t>我住长江头</t>
+  </si>
+  <si>
+    <t>《卜算子·我住长江头》:http://mp.weixin.qq.com/s/WQllLm8dyoyNtC1WenxyRQ</t>
+  </si>
+  <si>
+    <t>题都城南庄</t>
+  </si>
+  <si>
+    <t>崔护《题都城南庄》:http://mp.weixin.qq.com/s/Oo2v8x4x0lORNcaWu8FwDA</t>
+  </si>
+  <si>
+    <t>息夫人</t>
+  </si>
+  <si>
+    <t>王维《息夫人》:http://mp.weixin.qq.com/s/0NIHgUBkOD2KIM0YXciAOA</t>
+  </si>
+  <si>
+    <t>和晋陵陆丞早春游望</t>
+  </si>
+  <si>
+    <t>杜审言《和晋陵陆丞早春游望》:http://mp.weixin.qq.com/s/yRRW0JwxGDF7l24344pxlQ</t>
+  </si>
+  <si>
+    <t>离思</t>
+  </si>
+  <si>
+    <t>元稹《离思（其四）》:http://mp.weixin.qq.com/s/-eoXezYSPVprWHTXOP2DEA</t>
+  </si>
+  <si>
+    <t>江南逢李龟年</t>
+  </si>
+  <si>
+    <t>杜甫《江南逢李龟年》:http://mp.weixin.qq.com/s/CAhXo7HDG0-MvwCzOVK-FQ</t>
+  </si>
+  <si>
+    <t>泛海</t>
+  </si>
+  <si>
+    <t>王阳明《泛海》:http://mp.weixin.qq.com/s/QE38MXMcwIdVsM5vSzhCyQ</t>
+  </si>
+  <si>
+    <t>相思</t>
+  </si>
+  <si>
+    <t>王维《相思》:http://mp.weixin.qq.com/s/aoZyAnFE0bdREnLj9KwR9g</t>
+  </si>
+  <si>
+    <t>出塞</t>
+  </si>
+  <si>
+    <t>王昌龄《出塞》:http://mp.weixin.qq.com/s/3bxBzcqOnzOAY8PidfjC-Q</t>
+  </si>
+  <si>
+    <t>客至</t>
+  </si>
+  <si>
+    <t>杜甫《客至》:http://mp.weixin.qq.com/s/iiL4qJ_C9cxHVGFqCyb1GA</t>
+  </si>
+  <si>
+    <t>阙题</t>
+  </si>
+  <si>
+    <t>刘眘虚《阙题》:http://mp.weixin.qq.com/s/kL8l8rYD5_eB_e_DkkidiQ</t>
+  </si>
+  <si>
+    <t>春思</t>
+  </si>
+  <si>
+    <t>李白《春思》:http://mp.weixin.qq.com/s/ChZJVGngvoGQh2eAKfagKw</t>
+  </si>
+  <si>
+    <t>正月十五夜</t>
+  </si>
+  <si>
+    <t>苏味道《正月十五夜》:http://mp.weixin.qq.com/s/goNOlv_XM8QLbHcv-Bo_Qw</t>
+  </si>
+  <si>
+    <t>子衿</t>
+  </si>
+  <si>
+    <t>《诗经·郑风·子衿》:http://mp.weixin.qq.com/s/RUcNM1D7k_A-C1AQExBKXA</t>
+  </si>
+  <si>
+    <t>春日忆李白</t>
+  </si>
+  <si>
+    <t>春日忆李白（杜甫）:http://mp.weixin.qq.com/s/m0P_HgYsShlPXZa_WCq-Lg</t>
+  </si>
+  <si>
+    <t>苏东坡</t>
+  </si>
+  <si>
+    <t>《苏东坡》1-6全集:http://mp.weixin.qq.com/s/OutiygRqYmZlyBDz6FRneQ</t>
+  </si>
+  <si>
+    <t>李白</t>
+  </si>
+  <si>
+    <t>讲诉李白的一辈子全集:http://mp.weixin.qq.com/s/f6ZIFvPfmynfGkBoL26PDQ</t>
+  </si>
+  <si>
+    <t>秋风词</t>
+  </si>
+  <si>
+    <t>李白《三五七言/秋风词》:http://mp.weixin.qq.com/s/FE-NZBLunsF9CystzDtd1g</t>
+  </si>
+  <si>
+    <t>三五七言</t>
+  </si>
+  <si>
+    <t>怨情</t>
+  </si>
+  <si>
+    <t>李白《怨情》:http://mp.weixin.qq.com/s/je5l6oXHolcoBs9LHQceqQ</t>
+  </si>
+  <si>
+    <t>蜀先主庙</t>
+  </si>
+  <si>
+    <t>刘禹锡《蜀先主庙》:http://mp.weixin.qq.com/s/Htwqd6O1xhMLG8MdQemhgw</t>
+  </si>
+  <si>
+    <t>石鱼湖上醉歌</t>
+  </si>
+  <si>
+    <t>元结《石鱼湖上醉歌》:http://mp.weixin.qq.com/s/wNVc6hjVNJY1L68F7D0xVQ</t>
+  </si>
+  <si>
+    <t>戏为六绝句</t>
+  </si>
+  <si>
+    <t>杜甫《戏为六绝句(其二)》:http://mp.weixin.qq.com/s/3FQUQ9JTfrixp2r6oEGylw</t>
+  </si>
+  <si>
+    <t>独不见</t>
+  </si>
+  <si>
+    <t>沈佺期《独不见》:http://mp.weixin.qq.com/s/ryRKDyJATdSnJtXDRrGzAw</t>
+  </si>
+  <si>
+    <t>杜甫</t>
+  </si>
+  <si>
+    <t>讲诉唐诗的故事之杜甫全集:http://mp.weixin.qq.com/s/OemNzTOMh2-nS72XSW9Vlw</t>
+  </si>
+  <si>
+    <t>唐之韵</t>
+  </si>
+  <si>
+    <t>《唐之韵》合集:http://mp.weixin.qq.com/s/FTfVSM-kt3oQJvIxy-QGLQ</t>
+  </si>
+  <si>
+    <t>竹林七贤</t>
+  </si>
+  <si>
+    <t>讲诉竹林七贤全集:http://mp.weixin.qq.com/s/UU-2KdMkXSyXo_TV67p7Iw</t>
+  </si>
+  <si>
+    <t>蝉</t>
+  </si>
+  <si>
+    <t>虞世南《蝉》:http://mp.weixin.qq.com/s/fGVTH5pll6QGZD-YSdFzNQ
+李商隐《蝉》:http://mp.weixin.qq.com/s/9MSq4ly70iiaGnZcqVRjpw</t>
+  </si>
+  <si>
+    <t>马嵬</t>
+  </si>
+  <si>
+    <t>李商隐《马嵬》:http://mp.weixin.qq.com/s/V5Gh4BqG5T4mtDULaUG55A</t>
+  </si>
+  <si>
+    <t>佳人曲</t>
+  </si>
+  <si>
+    <t>李延年《佳人曲》:http://mp.weixin.qq.com/s/jEBwz7c6MmYlfkwziAcQDg</t>
+  </si>
+  <si>
+    <t>绿衣</t>
+  </si>
+  <si>
+    <t>诗经·邶风·绿衣:http://mp.weixin.qq.com/s/NlMlaI5iE8FxeFs2fUNQxA</t>
+  </si>
+  <si>
+    <t>琴台</t>
+  </si>
+  <si>
+    <t>杜甫《琴台》:http://mp.weixin.qq.com/s/jMfMqEta7SE8mdqTEMT9Qg</t>
+  </si>
+  <si>
+    <t>苏轼</t>
+  </si>
+  <si>
+    <t>车遥遥篇</t>
+  </si>
+  <si>
+    <t>范成大《车遥遥篇》:http://mp.weixin.qq.com/s/8zkOvE1Lq511Ax0vrlJv7A</t>
+  </si>
+  <si>
+    <t>登乐游原</t>
+  </si>
+  <si>
+    <t>李商隐《登乐游原》:http://mp.weixin.qq.com/s/YFDlotdsUFQYflIVK5CJcA</t>
+  </si>
+  <si>
+    <t>生查子</t>
+  </si>
+  <si>
+    <t>牛希济《生查子》:http://mp.weixin.qq.com/s/B2o4IBRoVtqsCiUnwl8pow</t>
+  </si>
+  <si>
+    <t>玉楼春</t>
+  </si>
+  <si>
+    <t>欧阳修《玉楼春》:http://mp.weixin.qq.com/s/TEFIkR47m7Xjt63deBlBNw</t>
+  </si>
+  <si>
+    <t>沁园春雪</t>
+  </si>
+  <si>
+    <t>《沁园春·雪》:http://mp.weixin.qq.com/s/WCi7VTOiPnEnItQ9VwkaUA</t>
+  </si>
+  <si>
+    <t>沁园春长沙</t>
+  </si>
+  <si>
+    <t>沁园春·长沙:http://mp.weixin.qq.com/s/gEX03B3Dx7B1T2kI5GmgZg</t>
+  </si>
+  <si>
+    <t>卜算子咏梅</t>
+  </si>
+  <si>
+    <t>卜算子·咏梅（待到山花烂漫时）:http://mp.weixin.qq.com/s/R5k1DBsRvCDFEqiSp2s4rQ</t>
+  </si>
+  <si>
+    <t>采桑子重阳</t>
+  </si>
+  <si>
+    <t>采桑子·重阳:http://mp.weixin.qq.com/s/Lb3n1vuiec9ktNrfHwUSuw</t>
+  </si>
+  <si>
+    <t>游蕲水清泉寺</t>
+  </si>
+  <si>
+    <t>苏轼《浣溪沙·游蕲水清泉寺》:http://mp.weixin.qq.com/s/xFcJiZzMJ6PlaUw9gAI9eg</t>
+  </si>
+  <si>
+    <t>饮湖上初晴后雨</t>
+  </si>
+  <si>
+    <t>苏轼《饮湖上初晴后雨》其二:http://mp.weixin.qq.com/s/mg78Im7QU5CdU6zj9jdoqw</t>
+  </si>
+  <si>
+    <t>黄金榜上</t>
+  </si>
+  <si>
+    <t>柳永《鹤冲天·黄金榜上》:http://mp.weixin.qq.com/s/o6Ft3eMG3vYaJ5bELZHoyw</t>
+  </si>
+  <si>
+    <t>浪淘沙北戴河</t>
+  </si>
+  <si>
+    <t>《浪淘沙·北戴河》:http://mp.weixin.qq.com/s/GxIQO-XftoVfHwGES4fnZg</t>
+  </si>
+  <si>
+    <t>题西林壁</t>
+  </si>
+  <si>
+    <t>苏轼《题西林壁》:http://mp.weixin.qq.com/s/3ZnISbkws5qKHlsPCup-ug</t>
+  </si>
+  <si>
+    <t>给彭德怀同志</t>
+  </si>
+  <si>
+    <t>《六言诗·给彭德怀同志》:http://mp.weixin.qq.com/s/Os-RIqQNQjRSfIUbRK3trQ</t>
+  </si>
+  <si>
+    <t>宋之韵</t>
+  </si>
+  <si>
+    <t>《宋之韵》完结全集:http://mp.weixin.qq.com/s/pJT1F0exJcuvP4qB6ivaCw</t>
+  </si>
+  <si>
+    <t>登幽州台歌</t>
+  </si>
+  <si>
+    <t>陈子昂《登幽州台歌》:http://mp.weixin.qq.com/s/Q5KqM2plsxKh5xAlnhuftw</t>
+  </si>
+  <si>
+    <t>呈父亲</t>
+  </si>
+  <si>
+    <t>七绝·呈父亲:http://mp.weixin.qq.com/s/dUpennLSki14spPkWVGKPA</t>
+  </si>
+  <si>
+    <t>相见时难别亦难</t>
+  </si>
+  <si>
+    <t>李商隐《无题·相见时难别亦难》:http://mp.weixin.qq.com/s/gP3J1mrz69TDoJ_IqAYULw</t>
+  </si>
+  <si>
+    <t>咏蛙</t>
+  </si>
+  <si>
+    <t>七绝·咏蛙（主席第一首诗）:http://mp.weixin.qq.com/s/I0SyJvvG6ipbdOaVIQk_aw</t>
+  </si>
+  <si>
+    <t>昨夜星辰昨夜风</t>
+  </si>
+  <si>
+    <t>李商隐《无题·昨夜星辰昨夜风》上:http://mp.weixin.qq.com/s/YUDhVubVp189icpKx-n9MQ
+李商隐《无题·昨夜星辰昨夜风》下:http://mp.weixin.qq.com/s/mVD0ZovIGn0JxlHmZ4Z5lw</t>
+  </si>
+  <si>
+    <t>绮怀</t>
+  </si>
+  <si>
+    <t>黄仲则《绮怀》(十五):http://mp.weixin.qq.com/s/BP-2as4soD9sKGtldNHNbw</t>
+  </si>
+  <si>
+    <t>到韶山</t>
+  </si>
+  <si>
+    <t>七律·到韶山（故园三十二年前）:http://mp.weixin.qq.com/s/tpTksl1rNNbWq9Jge08FUg</t>
+  </si>
+  <si>
+    <t>代悲白头翁</t>
+  </si>
+  <si>
+    <t>刘希夷《代悲白头翁》:http://mp.weixin.qq.com/s/P_LXWjwXtUNDprjLTbCDpw</t>
+  </si>
+  <si>
+    <t>登庐山</t>
+  </si>
+  <si>
+    <t>七律·登庐山（第四十二天）:http://mp.weixin.qq.com/s/uEbiD3BbsedGWB9L0Evi8w</t>
+  </si>
+  <si>
+    <t>读懂诗人才懂诗</t>
+  </si>
+  <si>
+    <t>读懂诗人才懂诗:http://dwz.cn/6s73gd</t>
+  </si>
+  <si>
+    <t>雨中登岳阳楼望君山</t>
+  </si>
+  <si>
+    <t>黄庭坚《雨中登岳阳楼望君山》:http://mp.weixin.qq.com/s/hxQENmm8ZBpAMzTNtS66vA</t>
+  </si>
+  <si>
+    <t>寄黄几复</t>
+  </si>
+  <si>
+    <t>黄庭坚《寄黄几复》:http://mp.weixin.qq.com/s/cZW8k-eN4HgvksMcyBfv0w</t>
+  </si>
+  <si>
+    <t>鹊桥仙</t>
+  </si>
+  <si>
+    <t>秦观《鹊桥仙》:http://mp.weixin.qq.com/s/RkGaWpMMxzBtwUl3icWopg</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>晏殊《浣溪沙》</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:http://mp.weixin.qq.com/s/-w8MiwUqpL-LhL0-47mCpg
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>苏轼《浣溪沙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>游蕲水清泉寺》</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:http://mp.weixin.qq.com/s/xFcJiZzMJ6PlaUw9gAI9eg</t>
+    </r>
+  </si>
+  <si>
+    <t>鹤冲天黄金榜上</t>
+  </si>
+  <si>
+    <t>望洞庭湖赠张丞相</t>
+  </si>
+  <si>
+    <t>孟浩然《望洞庭湖赠张丞相》:http://mp.weixin.qq.com/s/RJKY2Ad67Wl_47j2xFcKtg</t>
+  </si>
+  <si>
+    <t>韩翃《章台柳》:http://mp.weixin.qq.com/s/kEDyLhJDXmv7R6cA0KGNQQ</t>
+  </si>
+  <si>
+    <t>杨柳枝</t>
+  </si>
+  <si>
+    <t>柳氏《杨柳枝》:http://mp.weixin.qq.com/s/DAk4PUgRvVSJg2tvHSasDg</t>
+  </si>
+  <si>
+    <t>咏山泉</t>
+  </si>
+  <si>
+    <t>储光羲《咏山泉》:http://mp.weixin.qq.com/s/ODrodFxhIdIWvAl9H2-0PQ</t>
+  </si>
+  <si>
+    <t>长安古道马迟迟</t>
+  </si>
+  <si>
+    <t>《少年游·长安古道马迟迟》:http://mp.weixin.qq.com/s/ibrwNPMZFP6gC3DLjx1YMQ</t>
+  </si>
+  <si>
+    <t>少年游</t>
+  </si>
+  <si>
+    <t>古从军行</t>
+  </si>
+  <si>
+    <t>李颀《古从军行》:http://mp.weixin.qq.com/s/SsuGpWkrwpoMR1fF3GCxhg</t>
+  </si>
+  <si>
+    <t>芙蓉楼送辛渐</t>
+  </si>
+  <si>
+    <t>王昌龄《芙蓉楼送辛渐》:http://mp.weixin.qq.com/s/PTQ7BmQ08qpoNYCDtN_n1Q</t>
+  </si>
+  <si>
+    <t>凉州词</t>
+  </si>
+  <si>
+    <t>王翰《凉州词》:http://mp.weixin.qq.com/s/s_Zv-W0oC0cznN_q5RtTGg</t>
+  </si>
+  <si>
+    <t>次北固山下</t>
+  </si>
+  <si>
+    <t>王湾《次北固山下》:http://mp.weixin.qq.com/s/s3N1QAuPc542CAdW_yAang</t>
+  </si>
+  <si>
+    <t>终南别业</t>
+  </si>
+  <si>
+    <t>王维《终南别业》:http://mp.weixin.qq.com/s/b3xmxdLNJ3yIjbPkVGVcJw</t>
+  </si>
+  <si>
+    <t>登鹳雀楼</t>
+  </si>
+  <si>
+    <t>王之涣《登鹳雀楼》:http://mp.weixin.qq.com/s/dB7XERoMlur0CFRNVkdIng</t>
+  </si>
+  <si>
+    <t>师说</t>
+  </si>
+  <si>
+    <t>教师节，重温《师说》:http://mp.weixin.qq.com/s/dYt7snsK9aT3pz6HHG5UNg</t>
+  </si>
+  <si>
+    <t>节妇吟寄东平李司空师道</t>
+  </si>
+  <si>
+    <t>张籍《节妇吟寄东平李司空师道》:http://mp.weixin.qq.com/s/pf79NWyU_YAMaPdKOTC0ww</t>
+  </si>
+  <si>
+    <t>赠去婢</t>
+  </si>
+  <si>
+    <t>崔郊《赠去婢》:http://mp.weixin.qq.com/s/G7888S1TMQzMbJ1iVdXKWw</t>
+  </si>
+  <si>
+    <t>铜官窑瓷器题诗</t>
+  </si>
+  <si>
+    <t>唐代《铜官窑瓷器题诗》:https://mp.weixin.qq.com/s/2mXHhWta5C5g0nsQPay7wg</t>
+  </si>
+  <si>
+    <t>关雎</t>
+  </si>
+  <si>
+    <t>《诗经》之《国风·周南·关雎》:http://mp.weixin.qq.com/s/a1Ljy5gRiN4D_YtGY2hyTg</t>
+  </si>
+  <si>
+    <t>李煜《玉楼春·晚妆初了明肌雪》:http://mp.weixin.qq.com/s/mGHyBs5T9h1oE5w2IJCcdw</t>
+  </si>
+  <si>
+    <t>梦游天姥吟留别</t>
+  </si>
+  <si>
+    <t>高中-《梦游天姥吟留别》:http://mp.weixin.qq.com/s/8lYidlnuUIxTMs6DZzj52w</t>
+  </si>
+  <si>
+    <t>蜀道难</t>
+  </si>
+  <si>
+    <t>高中-蜀道难:https://mp.weixin.qq.com/s/kcFwHqpWCoJE6tXk5OgRog</t>
+  </si>
+  <si>
+    <t>静夜思</t>
+  </si>
+  <si>
+    <t>李白《静夜思》:http://mp.weixin.qq.com/s/ckXDnIz94WQm3WLUfTN1_g</t>
+  </si>
+  <si>
+    <t>鹧鸪天</t>
+  </si>
+  <si>
+    <t>晏几道《鹧鸪天》:http://mp.weixin.qq.com/s/YS1nwjI2MV4VN5AH8GFKSw
+辛弃疾《鹧鸪天(壮岁旌旗拥万夫)》:http://mp.weixin.qq.com/s/z5PM6LUgnz559oJdAHigow</t>
+  </si>
+  <si>
+    <t>壮岁旌旗拥万夫</t>
+  </si>
+  <si>
+    <t>辛弃疾《鹧鸪天(壮岁旌旗拥万夫)》:http://mp.weixin.qq.com/s/z5PM6LUgnz559oJdAHigow</t>
+  </si>
+  <si>
+    <t>陋室铭</t>
+  </si>
+  <si>
+    <t>初中-刘禹锡《陋室铭》:http://mp.weixin.qq.com/s/nY84F9DOkENMHu_o6MaDhA</t>
+  </si>
+  <si>
+    <t>画</t>
+  </si>
+  <si>
+    <t>小学-王维《画》:http://mp.weixin.qq.com/s/gai7USzlYFkL-Riw12_cZg</t>
+  </si>
+  <si>
+    <t>九月九日忆山东兄弟</t>
+  </si>
+  <si>
+    <t>小学-王维《九月九日忆山东兄弟》:http://mp.weixin.qq.com/s/grLm-r-DhmnfaGI_fKWu0A</t>
+  </si>
+  <si>
+    <t>夜雨寄北</t>
+  </si>
+  <si>
+    <t>李商隐《夜雨寄北》:https://mp.weixin.qq.com/s/ArQmqwVU8H-s73Lq32s9hQ</t>
+  </si>
+  <si>
+    <t>无题</t>
+  </si>
+  <si>
+    <t>李商隐《无题·相见时难别亦难》:http://mp.weixin.qq.com/s/gP3J1mrz69TDoJ_IqAYULw
+李商隐《无题·昨夜星辰昨夜风》上:http://mp.weixin.qq.com/s/YUDhVubVp189icpKx-n9MQ
+李商隐《无题·昨夜星辰昨夜风》下:http://mp.weixin.qq.com/s/mVD0ZovIGn0JxlHmZ4Z5lw
+李商隐《无题·重帏深下莫愁堂》:https://mp.weixin.qq.com/s/uMtYsJtLG1_FCwLQY8BKbg
+李商隐《无题·飒飒东风》:http://mp.weixin.qq.com/s/C39tiic_m1vbGjLbjUkxyg
+李商隐《无题·八岁偷照镜》:http://mp.weixin.qq.com/s/K72A8w9J23EUi4mlmxpBbw</t>
+  </si>
+  <si>
+    <t>重帏深下莫愁堂</t>
+  </si>
+  <si>
+    <t>李商隐《无题·重帏深下莫愁堂》:https://mp.weixin.qq.com/s/uMtYsJtLG1_FCwLQY8BKbg</t>
+  </si>
+  <si>
+    <t>夜书所见</t>
+  </si>
+  <si>
+    <t>小学-叶绍翁《夜书所见》:http://mp.weixin.qq.com/s/oNczFWeoQbEMQQj9Z6o9Sw</t>
+  </si>
+  <si>
+    <t>飒飒东风</t>
+  </si>
+  <si>
+    <t>李商隐《无题·飒飒东风》:http://mp.weixin.qq.com/s/C39tiic_m1vbGjLbjUkxyg</t>
+  </si>
+  <si>
+    <t>春晓</t>
+  </si>
+  <si>
+    <t>小学-孟浩然《春晓》:http://mp.weixin.qq.com/s/cINN_kZ94Fvkw2OKSo-KEA</t>
+  </si>
+  <si>
+    <t>八岁偷照镜</t>
+  </si>
+  <si>
+    <t>李商隐《无题·八岁偷照镜》:http://mp.weixin.qq.com/s/K72A8w9J23EUi4mlmxpBbw</t>
+  </si>
+  <si>
+    <t>寻隐者不遇</t>
+  </si>
+  <si>
+    <t>小学-贾岛《寻隐者不遇》:http://mp.weixin.qq.com/s/PheCmoleI98nlEIJl7uPNw</t>
+  </si>
+  <si>
+    <t>锦瑟</t>
+  </si>
+  <si>
+    <t>李商隐《锦瑟》上:http://mp.weixin.qq.com/s/RVkx_IwY2Q8Em5w3MaabhQ
+李商隐《锦瑟》下:http://mp.weixin.qq.com/s/sEG4LXFf_wmiNd02igs6eg</t>
+  </si>
+  <si>
+    <t>鹿柴</t>
+  </si>
+  <si>
+    <t>小学-王维《鹿柴》:http://mp.weixin.qq.com/s/Vv7KxQOGCmHZtCPYoOLPvQ</t>
+  </si>
+  <si>
+    <t>词牌格律</t>
+  </si>
+  <si>
+    <t>词牌格律大全:http://mp.weixin.qq.com/s/pE2pyHkjEt9PXLicvZ5HwQ</t>
+  </si>
+  <si>
+    <t>采葛</t>
+  </si>
+  <si>
+    <t>《诗经·国风·王风·采葛》:https://mp.weixin.qq.com/s/A0tRuXZEWhBLlCeRH8bOzA</t>
+  </si>
+  <si>
+    <t>早发白帝城</t>
+  </si>
+  <si>
+    <t>小学-李白《早发白帝城》:http://mp.weixin.qq.com/s/x4yjjkRauL3kZoi2K6DUHQ</t>
+  </si>
+  <si>
+    <t>静女</t>
+  </si>
+  <si>
+    <t>《诗经·邶风·静女》:http://mp.weixin.qq.com/s/NIwEcKMCri-4FrkIyygGYA</t>
+  </si>
+  <si>
+    <t>秋兴八首</t>
+  </si>
+  <si>
+    <t>杜甫《秋兴八首》其一:http://mp.weixin.qq.com/s/dWZXIajLrruk4tg4v-aM1A</t>
+  </si>
+  <si>
+    <t>风</t>
+  </si>
+  <si>
+    <t>小学-李峤《风》:http://mp.weixin.qq.com/s/upPgfMpltY8m7Z5hvcBZfQ</t>
+  </si>
+  <si>
+    <t>晚妆初了明肌雪</t>
+  </si>
+  <si>
+    <r>
+      <t>李煜《玉楼春</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>晚妆初了明肌雪》</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:http://dwz.cn/6h1eWl
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李煜《玉楼春</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>晚妆初了明肌雪》</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:http://mp.weixin.qq.com/s/mGHyBs5T9h1oE5w2IJCcdw</t>
+    </r>
+  </si>
+  <si>
+    <t>挽词</t>
+  </si>
+  <si>
+    <t>李煜《挽词》:http://mp.weixin.qq.com/s/GB_AB-OqJmIbAsh1NkmBzg</t>
+  </si>
+  <si>
+    <t>别董大</t>
+  </si>
+  <si>
+    <t>小学-高适《别董大》:http://mp.weixin.qq.com/s/KJH4lITrvJcYRklsOlmF5w</t>
+  </si>
+  <si>
+    <t>菊花</t>
+  </si>
+  <si>
+    <t>小学-元稹《菊花》:http://mp.weixin.qq.com/s/ZWinYn7ksdFkey6B1WiJvQ</t>
+  </si>
+  <si>
+    <t>滕王阁序</t>
+  </si>
+  <si>
+    <t>高中-王勃《滕王阁序》:http://mp.weixin.qq.com/s/MWBv8IMCDlRucDpzs0SJSA</t>
+  </si>
+  <si>
+    <t>咏鹅</t>
+  </si>
+  <si>
+    <t>小学-骆宾王《咏鹅》:https://mp.weixin.qq.com/s/0t30w-cl8krxxwt_8mWI9A</t>
+  </si>
+  <si>
+    <t>水龙吟</t>
+  </si>
+  <si>
+    <t>辛弃疾《水龙吟·登建康赏心亭》:https://mp.weixin.qq.com/s/V7Uid4kyXb-26p1yLBkJJQ</t>
+  </si>
+  <si>
+    <t>登建康赏心亭</t>
+  </si>
+  <si>
+    <t>鹿鸣</t>
+  </si>
+  <si>
+    <t>《诗经·鹿鸣》:http://mp.weixin.qq.com/s/HT2f5XgXKVgjjc_8riMgNQ</t>
+  </si>
+  <si>
+    <t>游山西村</t>
+  </si>
+  <si>
+    <t>陆游《游山西村》:https://mp.weixin.qq.com/s/F7m5O5OxsA6gtmHkhAnzQA</t>
+  </si>
+  <si>
+    <t>登金陵凤凰台</t>
+  </si>
+  <si>
+    <r>
+      <t>李白《登金陵凤凰台》</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:http://mp.weixin.qq.com/s/To8uiABoZCf0BQNfeATE0w
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李白《登金陵凤凰台》</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:http://mp.weixin.qq.com/s/cwOZ60h3qH09lmCtUGxDvw</t>
+    </r>
+  </si>
+  <si>
     <t>黄鹤楼</t>
   </si>
   <si>
-    <t>崔颢《黄鹤楼》:http://mp.weixin.qq.com/s/ksSXwqGdYtFj5p33JQb5ow</t>
-  </si>
-  <si>
-    <t>虞美人</t>
-  </si>
-  <si>
-    <t>李煜《虞美人》:https://mp.weixin.qq.com/s/LKOIZSUPJdIZGlsD0QIiTw</t>
-  </si>
-  <si>
-    <t>乙卯正月二十日夜记梦</t>
-  </si>
-  <si>
-    <t>苏轼《江城子·乙卯正月二十日夜记梦》:https://mp.weixin.qq.com/s/7Jb-XLeAXkFvGGEtnz8h8g</t>
-  </si>
-  <si>
-    <t>桃花溪</t>
-  </si>
-  <si>
-    <t>张旭《桃花溪》:http://mp.weixin.qq.com/s/fsfvzKe3UiCda5S-1TCNWw</t>
-  </si>
-  <si>
-    <t>昨夜雨疏风骤</t>
-  </si>
-  <si>
-    <t>李清照《如梦令·昨夜雨疏风骤》:http://mp.weixin.qq.com/s/_y7g-ZY-894_kcWbpJcR_A</t>
-  </si>
-  <si>
-    <t>我住长江头</t>
-  </si>
-  <si>
-    <t>《卜算子·我住长江头》:http://mp.weixin.qq.com/s/WQllLm8dyoyNtC1WenxyRQ</t>
-  </si>
-  <si>
-    <t>题都城南庄</t>
-  </si>
-  <si>
-    <t>崔护《题都城南庄》:http://mp.weixin.qq.com/s/Oo2v8x4x0lORNcaWu8FwDA</t>
-  </si>
-  <si>
-    <t>息夫人</t>
-  </si>
-  <si>
-    <t>王维《息夫人》:http://mp.weixin.qq.com/s/0NIHgUBkOD2KIM0YXciAOA</t>
-  </si>
-  <si>
-    <t>和晋陵陆丞早春游望</t>
-  </si>
-  <si>
-    <t>杜审言《和晋陵陆丞早春游望》:http://mp.weixin.qq.com/s/yRRW0JwxGDF7l24344pxlQ</t>
-  </si>
-  <si>
-    <t>离思</t>
-  </si>
-  <si>
-    <t>元稹《离思（其四）》:http://mp.weixin.qq.com/s/-eoXezYSPVprWHTXOP2DEA</t>
-  </si>
-  <si>
-    <t>江南逢李龟年</t>
-  </si>
-  <si>
-    <t>杜甫《江南逢李龟年》:http://mp.weixin.qq.com/s/CAhXo7HDG0-MvwCzOVK-FQ</t>
-  </si>
-  <si>
-    <t>泛海</t>
-  </si>
-  <si>
-    <t>王阳明《泛海》:http://mp.weixin.qq.com/s/QE38MXMcwIdVsM5vSzhCyQ</t>
-  </si>
-  <si>
-    <t>相思</t>
-  </si>
-  <si>
-    <t>王维《相思》:http://mp.weixin.qq.com/s/aoZyAnFE0bdREnLj9KwR9g</t>
-  </si>
-  <si>
-    <t>出塞</t>
-  </si>
-  <si>
-    <t>王昌龄《出塞》:http://mp.weixin.qq.com/s/3bxBzcqOnzOAY8PidfjC-Q</t>
-  </si>
-  <si>
-    <t>客至</t>
-  </si>
-  <si>
-    <t>杜甫《客至》:http://mp.weixin.qq.com/s/iiL4qJ_C9cxHVGFqCyb1GA</t>
-  </si>
-  <si>
-    <t>阙题</t>
-  </si>
-  <si>
-    <t>刘眘虚《阙题》:http://mp.weixin.qq.com/s/kL8l8rYD5_eB_e_DkkidiQ</t>
-  </si>
-  <si>
-    <t>春思</t>
-  </si>
-  <si>
-    <t>李白《春思》:http://mp.weixin.qq.com/s/ChZJVGngvoGQh2eAKfagKw</t>
-  </si>
-  <si>
-    <t>正月十五夜</t>
-  </si>
-  <si>
-    <t>苏味道《正月十五夜》:http://mp.weixin.qq.com/s/goNOlv_XM8QLbHcv-Bo_Qw</t>
-  </si>
-  <si>
-    <t>子衿</t>
-  </si>
-  <si>
-    <t>《诗经·郑风·子衿》:http://mp.weixin.qq.com/s/RUcNM1D7k_A-C1AQExBKXA</t>
-  </si>
-  <si>
-    <t>春日忆李白</t>
-  </si>
-  <si>
-    <t>春日忆李白（杜甫）:http://mp.weixin.qq.com/s/m0P_HgYsShlPXZa_WCq-Lg</t>
-  </si>
-  <si>
-    <t>苏东坡</t>
-  </si>
-  <si>
-    <t>《苏东坡》1-6全集:http://mp.weixin.qq.com/s/OutiygRqYmZlyBDz6FRneQ</t>
-  </si>
-  <si>
-    <t>李白</t>
-  </si>
-  <si>
-    <t>讲诉李白的一辈子全集:http://mp.weixin.qq.com/s/f6ZIFvPfmynfGkBoL26PDQ</t>
+    <t>崔颢《黄鹤楼》:http://mp.weixin.qq.com/s/ksSXwqGdYtFj5p33JQb5ow
+崔颢《黄鹤楼》:http://mp.weixin.qq.com/s/zJpKRsaP_CsZ-gDFU4QsVg</t>
+  </si>
+  <si>
+    <t>白雪歌送武判官归京</t>
+  </si>
+  <si>
+    <t>岑参《白雪歌送武判官归京》（上）:http://mp.weixin.qq.com/s/iUvNybbqseUPVI-6mHB-bQ
+岑参《白雪歌送武判官归京》（下）:https://mp.weixin.qq.com/s/oM5SSVMkhaNJcWkizY_f2g</t>
   </si>
   <si>
     <t>春江花月夜</t>
@@ -2190,274 +2909,21 @@
   <si>
     <t>张若虚《春江花月夜》(上):http://mp.weixin.qq.com/s/nK26oDlJFiJ6nvvuGEakhg
 张若虚《春江花月夜》(中):https://mp.weixin.qq.com/s/UCj7iQcG6qFls8alDJOJTA
-张若虚《春江花月夜》(下):http://mp.weixin.qq.com/s/-a9dIL9fkvMFoqCFaOZE_A</t>
-  </si>
-  <si>
-    <t>秋风词</t>
-  </si>
-  <si>
-    <t>李白《三五七言/秋风词》:http://mp.weixin.qq.com/s/FE-NZBLunsF9CystzDtd1g</t>
-  </si>
-  <si>
-    <t>三五七言</t>
-  </si>
-  <si>
-    <t>怨情</t>
-  </si>
-  <si>
-    <t>李白《怨情》:http://mp.weixin.qq.com/s/je5l6oXHolcoBs9LHQceqQ</t>
-  </si>
-  <si>
-    <t>蜀先主庙</t>
-  </si>
-  <si>
-    <t>刘禹锡《蜀先主庙》:http://mp.weixin.qq.com/s/Htwqd6O1xhMLG8MdQemhgw</t>
-  </si>
-  <si>
-    <t>石鱼湖上醉歌</t>
-  </si>
-  <si>
-    <t>元结《石鱼湖上醉歌》:http://mp.weixin.qq.com/s/wNVc6hjVNJY1L68F7D0xVQ</t>
-  </si>
-  <si>
-    <t>戏为六绝句</t>
-  </si>
-  <si>
-    <t>杜甫《戏为六绝句(其二)》:http://mp.weixin.qq.com/s/3FQUQ9JTfrixp2r6oEGylw</t>
-  </si>
-  <si>
-    <t>独不见</t>
-  </si>
-  <si>
-    <t>沈佺期《独不见》:http://mp.weixin.qq.com/s/ryRKDyJATdSnJtXDRrGzAw</t>
-  </si>
-  <si>
-    <t>杜甫</t>
-  </si>
-  <si>
-    <t>讲诉唐诗的故事之杜甫全集:http://mp.weixin.qq.com/s/OemNzTOMh2-nS72XSW9Vlw</t>
-  </si>
-  <si>
-    <t>唐之韵</t>
-  </si>
-  <si>
-    <t>《唐之韵》合集:http://mp.weixin.qq.com/s/FTfVSM-kt3oQJvIxy-QGLQ</t>
-  </si>
-  <si>
-    <t>竹林七贤</t>
-  </si>
-  <si>
-    <t>讲诉竹林七贤全集:http://mp.weixin.qq.com/s/UU-2KdMkXSyXo_TV67p7Iw</t>
-  </si>
-  <si>
-    <t>蝉</t>
-  </si>
-  <si>
-    <t>虞世南《蝉》:http://mp.weixin.qq.com/s/fGVTH5pll6QGZD-YSdFzNQ
-李商隐《蝉》:http://mp.weixin.qq.com/s/9MSq4ly70iiaGnZcqVRjpw</t>
-  </si>
-  <si>
-    <t>马嵬</t>
-  </si>
-  <si>
-    <t>李商隐《马嵬》:http://mp.weixin.qq.com/s/V5Gh4BqG5T4mtDULaUG55A</t>
-  </si>
-  <si>
-    <t>佳人曲</t>
-  </si>
-  <si>
-    <t>李延年《佳人曲》:http://mp.weixin.qq.com/s/jEBwz7c6MmYlfkwziAcQDg</t>
-  </si>
-  <si>
-    <t>绿衣</t>
-  </si>
-  <si>
-    <t>诗经·邶风·绿衣:http://mp.weixin.qq.com/s/NlMlaI5iE8FxeFs2fUNQxA</t>
-  </si>
-  <si>
-    <t>琴台</t>
-  </si>
-  <si>
-    <t>杜甫《琴台》:http://mp.weixin.qq.com/s/jMfMqEta7SE8mdqTEMT9Qg</t>
-  </si>
-  <si>
-    <t>苏轼</t>
-  </si>
-  <si>
-    <t>车遥遥篇</t>
-  </si>
-  <si>
-    <t>范成大《车遥遥篇》:http://mp.weixin.qq.com/s/8zkOvE1Lq511Ax0vrlJv7A</t>
-  </si>
-  <si>
-    <t>登乐游原</t>
-  </si>
-  <si>
-    <t>李商隐《登乐游原》:http://mp.weixin.qq.com/s/YFDlotdsUFQYflIVK5CJcA</t>
-  </si>
-  <si>
-    <t>生查子</t>
-  </si>
-  <si>
-    <t>牛希济《生查子》:http://mp.weixin.qq.com/s/B2o4IBRoVtqsCiUnwl8pow</t>
-  </si>
-  <si>
-    <t>欧阳修《玉楼春》:http://mp.weixin.qq.com/s/TEFIkR47m7Xjt63deBlBNw</t>
-  </si>
-  <si>
-    <t>沁园春雪</t>
-  </si>
-  <si>
-    <t>《沁园春·雪》:http://mp.weixin.qq.com/s/WCi7VTOiPnEnItQ9VwkaUA</t>
-  </si>
-  <si>
-    <t>沁园春长沙</t>
-  </si>
-  <si>
-    <t>沁园春·长沙:http://mp.weixin.qq.com/s/gEX03B3Dx7B1T2kI5GmgZg</t>
-  </si>
-  <si>
-    <t>卜算子咏梅</t>
-  </si>
-  <si>
-    <t>卜算子·咏梅（待到山花烂漫时）:http://mp.weixin.qq.com/s/R5k1DBsRvCDFEqiSp2s4rQ</t>
-  </si>
-  <si>
-    <t>采桑子重阳</t>
-  </si>
-  <si>
-    <t>采桑子·重阳:http://mp.weixin.qq.com/s/Lb3n1vuiec9ktNrfHwUSuw</t>
-  </si>
-  <si>
-    <t>游蕲水清泉寺</t>
-  </si>
-  <si>
-    <t>苏轼《浣溪沙·游蕲水清泉寺》:http://mp.weixin.qq.com/s/xFcJiZzMJ6PlaUw9gAI9eg</t>
-  </si>
-  <si>
-    <t>饮湖上初晴后雨</t>
-  </si>
-  <si>
-    <t>苏轼《饮湖上初晴后雨》其二:http://mp.weixin.qq.com/s/mg78Im7QU5CdU6zj9jdoqw</t>
-  </si>
-  <si>
-    <t>黄金榜上</t>
-  </si>
-  <si>
-    <t>柳永《鹤冲天·黄金榜上》:http://mp.weixin.qq.com/s/o6Ft3eMG3vYaJ5bELZHoyw</t>
-  </si>
-  <si>
-    <t>浪淘沙北戴河</t>
-  </si>
-  <si>
-    <t>《浪淘沙·北戴河》:http://mp.weixin.qq.com/s/GxIQO-XftoVfHwGES4fnZg</t>
-  </si>
-  <si>
-    <t>题西林壁</t>
-  </si>
-  <si>
-    <t>苏轼《题西林壁》:http://mp.weixin.qq.com/s/3ZnISbkws5qKHlsPCup-ug</t>
-  </si>
-  <si>
-    <t>给彭德怀同志</t>
-  </si>
-  <si>
-    <t>《六言诗·给彭德怀同志》:http://mp.weixin.qq.com/s/Os-RIqQNQjRSfIUbRK3trQ</t>
-  </si>
-  <si>
-    <t>宋之韵</t>
-  </si>
-  <si>
-    <t>《宋之韵》完结全集:http://mp.weixin.qq.com/s/pJT1F0exJcuvP4qB6ivaCw</t>
-  </si>
-  <si>
-    <t>登幽州台歌</t>
-  </si>
-  <si>
-    <t>陈子昂《登幽州台歌》:http://mp.weixin.qq.com/s/Q5KqM2plsxKh5xAlnhuftw</t>
-  </si>
-  <si>
-    <t>呈父亲</t>
-  </si>
-  <si>
-    <t>七绝·呈父亲:http://mp.weixin.qq.com/s/dUpennLSki14spPkWVGKPA</t>
-  </si>
-  <si>
-    <t>相见时难别亦难</t>
-  </si>
-  <si>
-    <t>李商隐《无题·相见时难别亦难》:http://mp.weixin.qq.com/s/gP3J1mrz69TDoJ_IqAYULw</t>
-  </si>
-  <si>
-    <t>咏蛙</t>
-  </si>
-  <si>
-    <t>七绝·咏蛙（主席第一首诗）:http://mp.weixin.qq.com/s/I0SyJvvG6ipbdOaVIQk_aw</t>
-  </si>
-  <si>
-    <t>昨夜星辰昨夜风</t>
-  </si>
-  <si>
-    <t>李商隐《无题·昨夜星辰昨夜风》上:http://mp.weixin.qq.com/s/YUDhVubVp189icpKx-n9MQ
-李商隐《无题·昨夜星辰昨夜风》下:http://mp.weixin.qq.com/s/mVD0ZovIGn0JxlHmZ4Z5lw</t>
-  </si>
-  <si>
-    <t>绮怀</t>
-  </si>
-  <si>
-    <t>黄仲则《绮怀》(十五):http://mp.weixin.qq.com/s/BP-2as4soD9sKGtldNHNbw</t>
-  </si>
-  <si>
-    <t>到韶山</t>
-  </si>
-  <si>
-    <t>七律·到韶山（故园三十二年前）:http://mp.weixin.qq.com/s/tpTksl1rNNbWq9Jge08FUg</t>
-  </si>
-  <si>
-    <t>代悲白头翁</t>
-  </si>
-  <si>
-    <t>刘希夷《代悲白头翁》:http://mp.weixin.qq.com/s/P_LXWjwXtUNDprjLTbCDpw</t>
-  </si>
-  <si>
-    <t>登庐山</t>
-  </si>
-  <si>
-    <t>七律·登庐山（第四十二天）:http://mp.weixin.qq.com/s/uEbiD3BbsedGWB9L0Evi8w</t>
-  </si>
-  <si>
-    <t>读懂诗人才懂诗</t>
-  </si>
-  <si>
-    <t>读懂诗人才懂诗:http://dwz.cn/6s73gd</t>
-  </si>
-  <si>
-    <t>雨中登岳阳楼望君山</t>
-  </si>
-  <si>
-    <t>黄庭坚《雨中登岳阳楼望君山》:http://mp.weixin.qq.com/s/hxQENmm8ZBpAMzTNtS66vA</t>
-  </si>
-  <si>
-    <t>寄黄几复</t>
-  </si>
-  <si>
-    <t>黄庭坚《寄黄几复》:http://mp.weixin.qq.com/s/cZW8k-eN4HgvksMcyBfv0w</t>
-  </si>
-  <si>
-    <t>鹊桥仙</t>
-  </si>
-  <si>
-    <t>秦观《鹊桥仙》:http://mp.weixin.qq.com/s/RkGaWpMMxzBtwUl3icWopg</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF748391"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>晏殊《浣溪沙》</t>
+张若虚《春江花月夜》(下):http://mp.weixin.qq.com/s/-a9dIL9fkvMFoqCFaOZE_A
+张若虚《春江花月夜》:http://mp.weixin.qq.com/s/Lu4IlJF9cCzKW-PQdaCxUQ</t>
+  </si>
+  <si>
+    <t>南海归赠王定国侍人寓娘</t>
+  </si>
+  <si>
+    <t>苏轼《定风波·南海归赠王定国侍人寓娘》:https://mp.weixin.qq.com/s/52J8iDIkkSkydyY148qEcQ</t>
+  </si>
+  <si>
+    <t>定风波</t>
+  </si>
+  <si>
+    <r>
+      <t>苏轼《定风波》</t>
     </r>
     <r>
       <rPr>
@@ -2466,7 +2932,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">:http://mp.weixin.qq.com/s/-w8MiwUqpL-LhL0-47mCpg
+      <t xml:space="preserve">:http://mp.weixin.qq.com/s/6fmNTQOYTMVlGFQHg3lWOw
 </t>
     </r>
     <r>
@@ -2476,7 +2942,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>苏轼《浣溪沙</t>
+      <t>苏轼《定风波</t>
     </r>
     <r>
       <rPr>
@@ -2494,7 +2960,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>游蕲水清泉寺》</t>
+      <t>南海归赠王定国侍人寓娘》</t>
     </r>
     <r>
       <rPr>
@@ -2503,148 +2969,40 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>:http://mp.weixin.qq.com/s/xFcJiZzMJ6PlaUw9gAI9eg</t>
-    </r>
-  </si>
-  <si>
-    <t>鹤冲天黄金榜上</t>
-  </si>
-  <si>
-    <t>无题</t>
-  </si>
-  <si>
-    <t>李商隐《无题·相见时难别亦难》:http://mp.weixin.qq.com/s/gP3J1mrz69TDoJ_IqAYULw
-李商隐《无题·昨夜星辰昨夜风》上:http://mp.weixin.qq.com/s/YUDhVubVp189icpKx-n9MQ
-李商隐《无题·昨夜星辰昨夜风》下:http://mp.weixin.qq.com/s/mVD0ZovIGn0JxlHmZ4Z5lw</t>
-  </si>
-  <si>
-    <t>望洞庭湖赠张丞相</t>
-  </si>
-  <si>
-    <t>孟浩然《望洞庭湖赠张丞相》:http://mp.weixin.qq.com/s/RJKY2Ad67Wl_47j2xFcKtg</t>
-  </si>
-  <si>
-    <t>韩翃《章台柳》:http://mp.weixin.qq.com/s/kEDyLhJDXmv7R6cA0KGNQQ</t>
-  </si>
-  <si>
-    <t>杨柳枝</t>
-  </si>
-  <si>
-    <t>柳氏《杨柳枝》:http://mp.weixin.qq.com/s/DAk4PUgRvVSJg2tvHSasDg</t>
-  </si>
-  <si>
-    <t>咏山泉</t>
-  </si>
-  <si>
-    <t>储光羲《咏山泉》:http://mp.weixin.qq.com/s/ODrodFxhIdIWvAl9H2-0PQ</t>
-  </si>
-  <si>
-    <t>长安古道马迟迟</t>
-  </si>
-  <si>
-    <t>《少年游·长安古道马迟迟》:http://mp.weixin.qq.com/s/ibrwNPMZFP6gC3DLjx1YMQ</t>
-  </si>
-  <si>
-    <t>少年游</t>
-  </si>
-  <si>
-    <t>古从军行</t>
-  </si>
-  <si>
-    <t>李颀《古从军行》:http://mp.weixin.qq.com/s/SsuGpWkrwpoMR1fF3GCxhg</t>
-  </si>
-  <si>
-    <t>芙蓉楼送辛渐</t>
-  </si>
-  <si>
-    <t>王昌龄《芙蓉楼送辛渐》:http://mp.weixin.qq.com/s/PTQ7BmQ08qpoNYCDtN_n1Q</t>
-  </si>
-  <si>
-    <t>凉州词</t>
-  </si>
-  <si>
-    <t>王翰《凉州词》:http://mp.weixin.qq.com/s/s_Zv-W0oC0cznN_q5RtTGg</t>
-  </si>
-  <si>
-    <t>次北固山下</t>
-  </si>
-  <si>
-    <t>王湾《次北固山下》:http://mp.weixin.qq.com/s/s3N1QAuPc542CAdW_yAang</t>
-  </si>
-  <si>
-    <t>终南别业</t>
-  </si>
-  <si>
-    <t>王维《终南别业》:http://mp.weixin.qq.com/s/b3xmxdLNJ3yIjbPkVGVcJw</t>
-  </si>
-  <si>
-    <t>登鹳雀楼</t>
-  </si>
-  <si>
-    <t>王之涣《登鹳雀楼》:http://mp.weixin.qq.com/s/dB7XERoMlur0CFRNVkdIng</t>
-  </si>
-  <si>
-    <t>师说</t>
-  </si>
-  <si>
-    <t>教师节，重温《师说》:http://mp.weixin.qq.com/s/dYt7snsK9aT3pz6HHG5UNg</t>
-  </si>
-  <si>
-    <t>鹧鸪天</t>
-  </si>
-  <si>
-    <t>晏几道《鹧鸪天》:http://mp.weixin.qq.com/s/YS1nwjI2MV4VN5AH8GFKSw</t>
-  </si>
-  <si>
-    <t>节妇吟寄东平李司空师道</t>
-  </si>
-  <si>
-    <t>张籍《节妇吟寄东平李司空师道》:http://mp.weixin.qq.com/s/pf79NWyU_YAMaPdKOTC0ww</t>
-  </si>
-  <si>
-    <t>赠去婢</t>
-  </si>
-  <si>
-    <t>崔郊《赠去婢》:http://mp.weixin.qq.com/s/G7888S1TMQzMbJ1iVdXKWw</t>
-  </si>
-  <si>
-    <t>铜官窑瓷器题诗</t>
-  </si>
-  <si>
-    <t>唐代《铜官窑瓷器题诗》:https://mp.weixin.qq.com/s/2mXHhWta5C5g0nsQPay7wg</t>
-  </si>
-  <si>
-    <t>关雎</t>
-  </si>
-  <si>
-    <t>《诗经》之《国风·周南·关雎》:http://mp.weixin.qq.com/s/a1Ljy5gRiN4D_YtGY2hyTg</t>
-  </si>
-  <si>
-    <t>李煜《玉楼春·晚妆初了明肌雪》:http://mp.weixin.qq.com/s/mGHyBs5T9h1oE5w2IJCcdw</t>
-  </si>
-  <si>
-    <t>梦游天姥吟留别</t>
-  </si>
-  <si>
-    <t>高中-《梦游天姥吟留别》:http://mp.weixin.qq.com/s/8lYidlnuUIxTMs6DZzj52w</t>
-  </si>
-  <si>
-    <t>挽词</t>
-  </si>
-  <si>
-    <t>李煜《挽词》:http://mp.weixin.qq.com/s/GB_AB-OqJmIbAsh1NkmBzg</t>
-  </si>
-  <si>
-    <t>蜀道难</t>
-  </si>
-  <si>
-    <t>高中-蜀道难:https://mp.weixin.qq.com/s/kcFwHqpWCoJE6tXk5OgRog</t>
-  </si>
-  <si>
-    <t>静夜思</t>
-  </si>
-  <si>
-    <t>李白《静夜思》:http://mp.weixin.qq.com/s/ckXDnIz94WQm3WLUfTN1_g</t>
+      <t>:https://mp.weixin.qq.com/s/52J8iDIkkSkydyY148qEcQ</t>
+    </r>
+  </si>
+  <si>
+    <t>桃叶渡歌</t>
+  </si>
+  <si>
+    <t>王献之《桃叶渡歌》:http://mp.weixin.qq.com/s/7HIIcJeFKR8Qcn2Sd5MrmQ</t>
+  </si>
+  <si>
+    <t>感怀</t>
+  </si>
+  <si>
+    <t>彭玉麟《感怀》其一:http://mp.weixin.qq.com/s/FrVAiqeQwmJhqGX_dte5wA</t>
+  </si>
+  <si>
+    <t>梅花百韵</t>
+  </si>
+  <si>
+    <t>彭玉麟《梅花百韵》其一:https://mp.weixin.qq.com/s/MR8kBmq4e9_HJI7tEwNb9Q</t>
+  </si>
+  <si>
+    <t>子夜吴歌</t>
+  </si>
+  <si>
+    <t>李白《子夜吴歌•春歌》:http://mp.weixin.qq.com/s/n6vaSJpDbQ6zznI0NK73mA
+李白《子夜吴歌.夏歌》:http://mp.weixin.qq.com/s/R7sMBo2ttA-Lt-D0o7yf6Q
+李白《子夜吴歌•秋歌》:http://mp.weixin.qq.com/s/Ncw4qmeQQ25jidoi2lgLQQ</t>
+  </si>
+  <si>
+    <t>韩愈</t>
+  </si>
+  <si>
+    <t>【唐宋八大家】之韩愈全集:http://mp.weixin.qq.com/s/ehHYkt40H08FnU5V7jiOEQ</t>
   </si>
 </sst>
 </file>
@@ -2653,9 +3011,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -2687,13 +3045,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2702,14 +3053,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2722,11 +3066,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2754,14 +3128,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -2777,7 +3143,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2786,13 +3151,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2843,7 +3201,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2855,7 +3219,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2867,25 +3237,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2903,31 +3261,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2945,19 +3291,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2975,7 +3339,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2987,13 +3357,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3011,19 +3381,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3078,6 +3436,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -3088,21 +3476,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3140,21 +3513,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -3180,10 +3538,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3192,16 +3550,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3213,16 +3571,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3231,98 +3583,104 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3351,6 +3709,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3700,10 +4061,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C249"/>
+  <dimension ref="A1:C288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
-      <selection activeCell="B249" sqref="B249"/>
+    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="B281" sqref="B281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -4076,7 +4437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" ht="14.25" spans="1:3">
+    <row r="34" ht="27" spans="1:3">
       <c r="A34" s="3" t="s">
         <v>66</v>
       </c>
@@ -4092,28 +4453,28 @@
         <v>68</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" ht="27.75" spans="1:3">
+      <c r="A36" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" ht="27" spans="1:3">
-      <c r="A36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="C36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="37" ht="27.75" spans="1:3">
+    <row r="37" ht="14.25" spans="1:3">
       <c r="A37" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C37" t="s">
@@ -4131,22 +4492,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" ht="14.25" spans="1:3">
+    <row r="39" ht="27.75" spans="1:3">
       <c r="A39" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="40" ht="27.75" spans="1:3">
+    <row r="40" ht="14.25" spans="1:3">
       <c r="A40" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C40" t="s">
@@ -4208,11 +4569,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" ht="14.25" spans="1:3">
+    <row r="46" ht="27.75" spans="1:3">
       <c r="A46" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="4" t="s">
         <v>90</v>
       </c>
       <c r="C46" t="s">
@@ -4230,11 +4591,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" ht="27.75" spans="1:3">
+    <row r="48" ht="14.25" spans="1:3">
       <c r="A48" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C48" t="s">
@@ -4252,23 +4613,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" ht="14.25" spans="1:3">
+    <row r="50" ht="26.25" spans="1:3">
       <c r="A50" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25" spans="1:3">
+      <c r="A51" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C50" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" ht="26.25" spans="1:3">
-      <c r="A51" s="3" t="s">
+      <c r="B51" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -4307,22 +4668,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" ht="14.25" spans="1:3">
+    <row r="55" ht="27.75" spans="1:3">
       <c r="A55" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="56" ht="27.75" spans="1:3">
+    <row r="56" ht="14.25" spans="1:3">
       <c r="A56" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C56" t="s">
@@ -4340,44 +4701,44 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" ht="14.25" spans="1:3">
+    <row r="58" ht="27.75" spans="1:3">
       <c r="A58" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="4" t="s">
         <v>113</v>
       </c>
       <c r="C58" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="59" ht="27.75" spans="1:3">
+    <row r="59" ht="14.25" spans="1:3">
       <c r="A59" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C59" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="60" ht="14.25" spans="1:3">
+    <row r="60" ht="40.5" spans="1:3">
       <c r="A60" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C60" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="61" ht="40.5" spans="1:3">
+    <row r="61" ht="14.25" spans="1:3">
       <c r="A61" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C61" t="s">
@@ -4406,22 +4767,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" ht="14.25" spans="1:3">
+    <row r="64" ht="27.75" spans="1:3">
       <c r="A64" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C64" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="65" ht="27.75" spans="1:3">
+    <row r="65" ht="14.25" spans="1:3">
       <c r="A65" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="3" t="s">
         <v>127</v>
       </c>
       <c r="C65" t="s">
@@ -4439,22 +4800,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" ht="14.25" spans="1:3">
+    <row r="67" ht="41.25" spans="1:3">
       <c r="A67" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C67" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="68" ht="41.25" spans="1:3">
+    <row r="68" ht="14.25" spans="1:3">
       <c r="A68" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="3" t="s">
         <v>133</v>
       </c>
       <c r="C68" t="s">
@@ -4472,44 +4833,44 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" ht="14.25" spans="1:3">
+    <row r="70" ht="27.75" spans="1:3">
       <c r="A70" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="4" t="s">
         <v>137</v>
       </c>
       <c r="C70" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="71" ht="27.75" spans="1:3">
+    <row r="71" ht="14.25" spans="1:3">
       <c r="A71" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="3" t="s">
         <v>139</v>
       </c>
       <c r="C71" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="72" ht="14.25" spans="1:3">
+    <row r="72" ht="39.75" spans="1:3">
       <c r="A72" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="4" t="s">
         <v>141</v>
       </c>
       <c r="C72" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="73" ht="39.75" spans="1:3">
+    <row r="73" ht="14.25" spans="1:3">
       <c r="A73" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="3" t="s">
         <v>143</v>
       </c>
       <c r="C73" t="s">
@@ -4543,18 +4904,18 @@
         <v>148</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" ht="41.25" spans="1:3">
+      <c r="A77" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C76" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" ht="14.25" spans="1:3">
-      <c r="A77" s="3" t="s">
+      <c r="B77" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="C77" t="s">
         <v>2</v>
@@ -4562,20 +4923,20 @@
     </row>
     <row r="78" ht="14.25" spans="1:3">
       <c r="A78" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="C78" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="79" ht="41.25" spans="1:3">
+    <row r="79" ht="14.25" spans="1:3">
       <c r="A79" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C79" t="s">
@@ -4586,7 +4947,7 @@
       <c r="A80" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="3" t="s">
         <v>156</v>
       </c>
       <c r="C80" t="s">
@@ -4642,7 +5003,7 @@
         <v>165</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C85" t="s">
         <v>2</v>
@@ -4650,10 +5011,10 @@
     </row>
     <row r="86" ht="14.25" spans="1:3">
       <c r="A86" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="C86" t="s">
         <v>2</v>
@@ -4661,10 +5022,10 @@
     </row>
     <row r="87" ht="14.25" spans="1:3">
       <c r="A87" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="C87" t="s">
         <v>2</v>
@@ -4719,7 +5080,7 @@
         <v>178</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C92" t="s">
         <v>2</v>
@@ -4727,10 +5088,10 @@
     </row>
     <row r="93" ht="14.25" spans="1:3">
       <c r="A93" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="C93" t="s">
         <v>2</v>
@@ -4738,10 +5099,10 @@
     </row>
     <row r="94" ht="14.25" spans="1:3">
       <c r="A94" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="C94" t="s">
         <v>2</v>
@@ -4785,7 +5146,7 @@
         <v>189</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C98" t="s">
         <v>2</v>
@@ -4793,10 +5154,10 @@
     </row>
     <row r="99" ht="14.25" spans="1:3">
       <c r="A99" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="C99" t="s">
         <v>2</v>
@@ -4804,10 +5165,10 @@
     </row>
     <row r="100" ht="14.25" spans="1:3">
       <c r="A100" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C100" t="s">
         <v>2</v>
@@ -4815,10 +5176,10 @@
     </row>
     <row r="101" ht="14.25" spans="1:3">
       <c r="A101" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="C101" t="s">
         <v>2</v>
@@ -4826,10 +5187,10 @@
     </row>
     <row r="102" ht="14.25" spans="1:3">
       <c r="A102" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B102" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="C102" t="s">
         <v>2</v>
@@ -4945,11 +5306,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" ht="14.25" spans="1:3">
+    <row r="113" ht="27.75" spans="1:3">
       <c r="A113" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="4" t="s">
         <v>218</v>
       </c>
       <c r="C113" t="s">
@@ -4961,7 +5322,7 @@
         <v>219</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C114" t="s">
         <v>2</v>
@@ -4969,10 +5330,10 @@
     </row>
     <row r="115" ht="14.25" spans="1:3">
       <c r="A115" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B115" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>218</v>
       </c>
       <c r="C115" t="s">
         <v>2</v>
@@ -4980,99 +5341,93 @@
     </row>
     <row r="116" ht="14.25" spans="1:3">
       <c r="A116" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C116" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="117" ht="27.75" spans="1:3">
+    <row r="117" ht="14.25" spans="1:3">
       <c r="A117" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B117" s="4" t="s">
         <v>224</v>
       </c>
+      <c r="B117" s="3" t="s">
+        <v>225</v>
+      </c>
       <c r="C117" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="118" ht="14.25" spans="1:3">
-      <c r="A118" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B118" s="3" t="s">
+      <c r="A118" s="5" t="s">
         <v>226</v>
       </c>
+      <c r="B118" s="5" t="s">
+        <v>227</v>
+      </c>
       <c r="C118" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="119" ht="14.25" spans="1:3">
-      <c r="A119" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>226</v>
+      <c r="A119" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="C119" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="120" ht="14.25" spans="1:3">
-      <c r="A120" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>229</v>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>230</v>
+      </c>
+      <c r="B120" t="s">
+        <v>231</v>
       </c>
       <c r="C120" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="121" ht="14.25" spans="1:3">
-      <c r="A121" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>231</v>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>232</v>
+      </c>
+      <c r="B121" t="s">
+        <v>233</v>
       </c>
       <c r="C121" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="122" ht="14.25" spans="1:3">
-      <c r="A122" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>233</v>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>234</v>
+      </c>
+      <c r="B122" t="s">
+        <v>235</v>
       </c>
       <c r="C122" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="123" ht="14.25" spans="1:3">
-      <c r="A123" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>235</v>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>236</v>
+      </c>
+      <c r="B123" t="s">
+        <v>237</v>
       </c>
       <c r="C123" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
-      <c r="A124" t="s">
-        <v>236</v>
-      </c>
-      <c r="B124" t="s">
-        <v>237</v>
-      </c>
+    <row r="124" spans="3:3">
       <c r="C124" t="s">
         <v>2</v>
       </c>
@@ -5110,17 +5465,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="3:3">
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>244</v>
+      </c>
+      <c r="B128" t="s">
+        <v>245</v>
+      </c>
       <c r="C128" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B129" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C129" t="s">
         <v>2</v>
@@ -5128,10 +5489,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B130" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C130" t="s">
         <v>2</v>
@@ -5139,10 +5500,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B131" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C131" t="s">
         <v>2</v>
@@ -5150,10 +5511,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B132" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C132" t="s">
         <v>2</v>
@@ -5161,10 +5522,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B133" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C133" t="s">
         <v>2</v>
@@ -5172,10 +5533,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B134" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C134" t="s">
         <v>2</v>
@@ -5183,10 +5544,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B135" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C135" t="s">
         <v>2</v>
@@ -5194,21 +5555,21 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B136" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C136" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" ht="27" spans="1:3">
       <c r="A137" t="s">
-        <v>260</v>
-      </c>
-      <c r="B137" t="s">
-        <v>261</v>
+        <v>262</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>263</v>
       </c>
       <c r="C137" t="s">
         <v>2</v>
@@ -5216,10 +5577,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B138" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C138" t="s">
         <v>2</v>
@@ -5227,10 +5588,10 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B139" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C139" t="s">
         <v>2</v>
@@ -5238,21 +5599,21 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B140" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C140" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="141" ht="27" spans="1:3">
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>268</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
+      </c>
+      <c r="B141" t="s">
+        <v>271</v>
       </c>
       <c r="C141" t="s">
         <v>2</v>
@@ -5260,20 +5621,20 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>270</v>
+        <v>50</v>
       </c>
       <c r="B142" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C142" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" ht="27" spans="1:3">
       <c r="A143" t="s">
-        <v>272</v>
-      </c>
-      <c r="B143" t="s">
+        <v>98</v>
+      </c>
+      <c r="B143" s="7" t="s">
         <v>273</v>
       </c>
       <c r="C143" t="s">
@@ -5304,32 +5665,32 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>52</v>
+        <v>278</v>
       </c>
       <c r="B146" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C146" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="147" ht="27" spans="1:3">
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>100</v>
-      </c>
-      <c r="B147" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
+      </c>
+      <c r="B147" t="s">
+        <v>281</v>
       </c>
       <c r="C147" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" ht="27" spans="1:3">
       <c r="A148" t="s">
-        <v>280</v>
-      </c>
-      <c r="B148" t="s">
-        <v>281</v>
+        <v>282</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>283</v>
       </c>
       <c r="C148" t="s">
         <v>2</v>
@@ -5337,10 +5698,10 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B149" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C149" t="s">
         <v>2</v>
@@ -5348,10 +5709,10 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B150" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C150" t="s">
         <v>2</v>
@@ -5359,23 +5720,12 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B151" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C151" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" ht="27" spans="1:3">
-      <c r="A152" t="s">
-        <v>288</v>
-      </c>
-      <c r="B152" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C152" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5610,23 +5960,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
-      <c r="A174" t="s">
-        <v>332</v>
-      </c>
-      <c r="B174" t="s">
-        <v>333</v>
-      </c>
-      <c r="C174" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B175" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C175" t="s">
         <v>2</v>
@@ -5634,10 +5973,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B176" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C176" t="s">
         <v>2</v>
@@ -5645,21 +5984,21 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
+        <v>335</v>
+      </c>
+      <c r="B177" t="s">
+        <v>336</v>
+      </c>
+      <c r="C177" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>337</v>
+      </c>
+      <c r="B178" t="s">
         <v>338</v>
-      </c>
-      <c r="B177" t="s">
-        <v>339</v>
-      </c>
-      <c r="C177" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="178" ht="40.5" spans="1:3">
-      <c r="A178" t="s">
-        <v>340</v>
-      </c>
-      <c r="B178" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="C178" t="s">
         <v>2</v>
@@ -5667,10 +6006,10 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B179" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C179" t="s">
         <v>2</v>
@@ -5678,10 +6017,10 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B180" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C180" t="s">
         <v>2</v>
@@ -5689,10 +6028,10 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B181" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C181" t="s">
         <v>2</v>
@@ -5700,10 +6039,10 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B182" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C182" t="s">
         <v>2</v>
@@ -5711,10 +6050,10 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B183" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C183" t="s">
         <v>2</v>
@@ -5722,21 +6061,21 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
+        <v>349</v>
+      </c>
+      <c r="B184" t="s">
+        <v>350</v>
+      </c>
+      <c r="C184" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" ht="27" spans="1:3">
+      <c r="A185" t="s">
         <v>351</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B185" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="C184" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" t="s">
-        <v>353</v>
-      </c>
-      <c r="B185" t="s">
-        <v>354</v>
       </c>
       <c r="C185" t="s">
         <v>2</v>
@@ -5744,10 +6083,10 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B186" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C186" t="s">
         <v>2</v>
@@ -5755,10 +6094,10 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B187" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C187" t="s">
         <v>2</v>
@@ -5766,76 +6105,76 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
+        <v>357</v>
+      </c>
+      <c r="B188" t="s">
+        <v>358</v>
+      </c>
+      <c r="C188" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
         <v>359</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B189" t="s">
         <v>360</v>
       </c>
-      <c r="C188" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="189" ht="27" spans="1:3">
-      <c r="A189" t="s">
+      <c r="C189" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="B189" s="7" t="s">
+      <c r="B190" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="C189" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" t="s">
+      <c r="B191" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="B190" t="s">
+      <c r="C191" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="C190" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" t="s">
+      <c r="B192" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="B191" t="s">
+      <c r="C192" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="C191" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" t="s">
+      <c r="B193" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="B192" t="s">
+      <c r="C193" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="C192" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" t="s">
+      <c r="B194" s="9" t="s">
         <v>369</v>
-      </c>
-      <c r="B193" t="s">
-        <v>370</v>
-      </c>
-      <c r="C193" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="B194" s="8" t="s">
-        <v>337</v>
       </c>
       <c r="C194" s="8" t="s">
         <v>2</v>
@@ -5843,10 +6182,10 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C195" s="8" t="s">
         <v>2</v>
@@ -5854,10 +6193,10 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C196" s="8" t="s">
         <v>2</v>
@@ -5865,10 +6204,10 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C197" s="8" t="s">
         <v>2</v>
@@ -5876,10 +6215,10 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="9" t="s">
-        <v>219</v>
+        <v>376</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C198" s="8" t="s">
         <v>2</v>
@@ -5887,10 +6226,10 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="B199" s="9" t="s">
         <v>379</v>
-      </c>
-      <c r="B199" s="9" t="s">
-        <v>380</v>
       </c>
       <c r="C199" s="8" t="s">
         <v>2</v>
@@ -5898,10 +6237,10 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="B200" s="9" t="s">
         <v>381</v>
-      </c>
-      <c r="B200" s="9" t="s">
-        <v>382</v>
       </c>
       <c r="C200" s="8" t="s">
         <v>2</v>
@@ -5909,10 +6248,10 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="B201" s="9" t="s">
         <v>383</v>
-      </c>
-      <c r="B201" s="9" t="s">
-        <v>384</v>
       </c>
       <c r="C201" s="8" t="s">
         <v>2</v>
@@ -5920,10 +6259,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="B202" s="9" t="s">
         <v>385</v>
-      </c>
-      <c r="B202" s="9" t="s">
-        <v>386</v>
       </c>
       <c r="C202" s="8" t="s">
         <v>2</v>
@@ -5931,10 +6270,10 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="B203" s="9" t="s">
         <v>387</v>
-      </c>
-      <c r="B203" s="9" t="s">
-        <v>388</v>
       </c>
       <c r="C203" s="8" t="s">
         <v>2</v>
@@ -5942,10 +6281,10 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="B204" s="9" t="s">
         <v>389</v>
-      </c>
-      <c r="B204" s="9" t="s">
-        <v>390</v>
       </c>
       <c r="C204" s="8" t="s">
         <v>2</v>
@@ -5953,10 +6292,10 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="B205" s="9" t="s">
         <v>391</v>
-      </c>
-      <c r="B205" s="9" t="s">
-        <v>392</v>
       </c>
       <c r="C205" s="8" t="s">
         <v>2</v>
@@ -5964,10 +6303,10 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="B206" s="9" t="s">
         <v>393</v>
-      </c>
-      <c r="B206" s="9" t="s">
-        <v>394</v>
       </c>
       <c r="C206" s="8" t="s">
         <v>2</v>
@@ -5975,10 +6314,10 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="B207" s="9" t="s">
         <v>395</v>
-      </c>
-      <c r="B207" s="9" t="s">
-        <v>396</v>
       </c>
       <c r="C207" s="8" t="s">
         <v>2</v>
@@ -5986,10 +6325,10 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="B208" s="9" t="s">
         <v>397</v>
-      </c>
-      <c r="B208" s="9" t="s">
-        <v>398</v>
       </c>
       <c r="C208" s="8" t="s">
         <v>2</v>
@@ -5997,21 +6336,21 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B209" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="B209" s="9" t="s">
+      <c r="C209" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" ht="27" spans="1:3">
+      <c r="A210" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="C209" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="A210" s="9" t="s">
+      <c r="B210" s="10" t="s">
         <v>401</v>
-      </c>
-      <c r="B210" s="9" t="s">
-        <v>402</v>
       </c>
       <c r="C210" s="8" t="s">
         <v>2</v>
@@ -6019,10 +6358,10 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="B211" s="9" t="s">
         <v>403</v>
-      </c>
-      <c r="B211" s="9" t="s">
-        <v>404</v>
       </c>
       <c r="C211" s="8" t="s">
         <v>2</v>
@@ -6030,10 +6369,10 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="B212" s="9" t="s">
         <v>405</v>
-      </c>
-      <c r="B212" s="9" t="s">
-        <v>406</v>
       </c>
       <c r="C212" s="8" t="s">
         <v>2</v>
@@ -6041,21 +6380,21 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="B213" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="B213" s="9" t="s">
+      <c r="C213" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="C213" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="214" ht="27" spans="1:3">
-      <c r="A214" s="9" t="s">
+      <c r="B214" s="9" t="s">
         <v>409</v>
-      </c>
-      <c r="B214" s="10" t="s">
-        <v>410</v>
       </c>
       <c r="C214" s="8" t="s">
         <v>2</v>
@@ -6063,10 +6402,10 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="B215" s="9" t="s">
         <v>411</v>
-      </c>
-      <c r="B215" s="9" t="s">
-        <v>412</v>
       </c>
       <c r="C215" s="8" t="s">
         <v>2</v>
@@ -6074,10 +6413,10 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="B216" s="9" t="s">
         <v>413</v>
-      </c>
-      <c r="B216" s="9" t="s">
-        <v>414</v>
       </c>
       <c r="C216" s="8" t="s">
         <v>2</v>
@@ -6085,32 +6424,32 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="B217" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="B217" s="9" t="s">
+      <c r="C217" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" ht="14.25" spans="1:3">
+      <c r="A218" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="C217" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
-      <c r="A218" s="9" t="s">
+      <c r="B218" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="B218" s="9" t="s">
+      <c r="C218" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" ht="27" spans="1:3">
+      <c r="A219" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B219" s="4" t="s">
         <v>418</v>
-      </c>
-      <c r="C218" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
-      <c r="A219" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="B219" s="9" t="s">
-        <v>420</v>
       </c>
       <c r="C219" s="8" t="s">
         <v>2</v>
@@ -6118,43 +6457,32 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="B220" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="C220" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="B222" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B220" s="9" t="s">
+      <c r="C222" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B223" s="9" t="s">
         <v>422</v>
-      </c>
-      <c r="C220" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
-      <c r="A221" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="B221" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="C221" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="222" ht="14.25" spans="1:3">
-      <c r="A222" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="B222" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="C222" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="223" ht="27" spans="1:3">
-      <c r="A223" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B223" s="4" t="s">
-        <v>427</v>
       </c>
       <c r="C223" s="8" t="s">
         <v>2</v>
@@ -6162,21 +6490,21 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="9" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>392</v>
+        <v>424</v>
       </c>
       <c r="C224" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="225" ht="40.5" spans="1:3">
+    <row r="225" spans="1:3">
       <c r="A225" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="B225" s="10" t="s">
-        <v>430</v>
+        <v>425</v>
+      </c>
+      <c r="B225" s="9" t="s">
+        <v>426</v>
       </c>
       <c r="C225" s="8" t="s">
         <v>2</v>
@@ -6184,10 +6512,10 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="9" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C226" s="8" t="s">
         <v>2</v>
@@ -6195,10 +6523,10 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="9" t="s">
-        <v>244</v>
+        <v>429</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C227" s="8" t="s">
         <v>2</v>
@@ -6206,10 +6534,10 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="9" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C228" s="8" t="s">
         <v>2</v>
@@ -6217,10 +6545,10 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="9" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C229" s="8" t="s">
         <v>2</v>
@@ -6228,10 +6556,10 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="9" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C230" s="8" t="s">
         <v>2</v>
@@ -6239,10 +6567,10 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="9" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C231" s="8" t="s">
         <v>2</v>
@@ -6250,10 +6578,10 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="9" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C232" s="8" t="s">
         <v>2</v>
@@ -6261,10 +6589,10 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="9" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C233" s="8" t="s">
         <v>2</v>
@@ -6272,10 +6600,10 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="9" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C234" s="8" t="s">
         <v>2</v>
@@ -6283,10 +6611,10 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="9" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C235" s="8" t="s">
         <v>2</v>
@@ -6294,10 +6622,10 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="9" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B236" s="9" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C236" s="8" t="s">
         <v>2</v>
@@ -6305,10 +6633,10 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="9" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C237" s="8" t="s">
         <v>2</v>
@@ -6316,32 +6644,26 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="9" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C238" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:3">
-      <c r="A239" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="B239" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="C239" s="8" t="s">
-        <v>2</v>
-      </c>
+      <c r="A239" s="9"/>
+      <c r="B239" s="9"/>
+      <c r="C239" s="8"/>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="9" t="s">
-        <v>457</v>
+        <v>368</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C240" s="8" t="s">
         <v>2</v>
@@ -6349,10 +6671,10 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="9" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C241" s="8" t="s">
         <v>2</v>
@@ -6360,10 +6682,10 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="9" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C242" s="8" t="s">
         <v>2</v>
@@ -6371,72 +6693,496 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="B243" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="C243" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" ht="27" spans="1:3">
+      <c r="A245" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B245" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="C245" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" t="s">
+        <v>461</v>
+      </c>
+      <c r="B246" t="s">
+        <v>462</v>
+      </c>
+      <c r="C246" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" t="s">
         <v>463</v>
       </c>
-      <c r="B243" s="9" t="s">
+      <c r="B247" t="s">
         <v>464</v>
       </c>
-      <c r="C243" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3">
-      <c r="A244" s="9"/>
-      <c r="B244" s="9"/>
-      <c r="C244" s="8"/>
-    </row>
-    <row r="245" spans="1:3">
-      <c r="A245" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="B245" s="9" t="s">
+      <c r="C247" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" t="s">
         <v>465</v>
       </c>
-      <c r="C245" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3">
-      <c r="A246" s="9" t="s">
+      <c r="B248" t="s">
         <v>466</v>
       </c>
-      <c r="B246" s="9" t="s">
+      <c r="C248" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" t="s">
         <v>467</v>
       </c>
-      <c r="C246" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3">
-      <c r="A247" s="9" t="s">
+      <c r="B249" t="s">
         <v>468</v>
       </c>
-      <c r="B247" s="9" t="s">
+      <c r="C249" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
         <v>469</v>
       </c>
-      <c r="C247" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3">
-      <c r="A248" s="9" t="s">
+      <c r="B250" t="s">
         <v>470</v>
       </c>
-      <c r="B248" s="9" t="s">
+      <c r="C250" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" ht="81" spans="1:3">
+      <c r="A251" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="C248" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3">
-      <c r="A249" s="9" t="s">
+      <c r="B251" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="B249" s="9" t="s">
+      <c r="C251" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
         <v>473</v>
       </c>
-      <c r="C249" s="8" t="s">
+      <c r="B252" t="s">
+        <v>474</v>
+      </c>
+      <c r="C252" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="s">
+        <v>475</v>
+      </c>
+      <c r="B253" t="s">
+        <v>476</v>
+      </c>
+      <c r="C253" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="s">
+        <v>477</v>
+      </c>
+      <c r="B254" t="s">
+        <v>478</v>
+      </c>
+      <c r="C254" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
+        <v>479</v>
+      </c>
+      <c r="B255" t="s">
+        <v>480</v>
+      </c>
+      <c r="C255" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" t="s">
+        <v>481</v>
+      </c>
+      <c r="B256" t="s">
+        <v>482</v>
+      </c>
+      <c r="C256" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" t="s">
+        <v>483</v>
+      </c>
+      <c r="B257" t="s">
+        <v>484</v>
+      </c>
+      <c r="C257" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" ht="27" spans="1:3">
+      <c r="A258" t="s">
+        <v>485</v>
+      </c>
+      <c r="B258" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="C258" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" t="s">
+        <v>487</v>
+      </c>
+      <c r="B259" t="s">
+        <v>488</v>
+      </c>
+      <c r="C259" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" t="s">
+        <v>489</v>
+      </c>
+      <c r="B260" t="s">
+        <v>490</v>
+      </c>
+      <c r="C260" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" t="s">
+        <v>491</v>
+      </c>
+      <c r="B261" t="s">
+        <v>492</v>
+      </c>
+      <c r="C261" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" t="s">
+        <v>493</v>
+      </c>
+      <c r="B262" t="s">
+        <v>494</v>
+      </c>
+      <c r="C262" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" t="s">
+        <v>495</v>
+      </c>
+      <c r="B263" t="s">
+        <v>496</v>
+      </c>
+      <c r="C263" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" t="s">
+        <v>497</v>
+      </c>
+      <c r="B264" t="s">
+        <v>498</v>
+      </c>
+      <c r="C264" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" t="s">
+        <v>499</v>
+      </c>
+      <c r="B265" t="s">
+        <v>500</v>
+      </c>
+      <c r="C265" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" ht="14.25" spans="1:3">
+      <c r="A266" t="s">
+        <v>453</v>
+      </c>
+      <c r="B266" t="s">
+        <v>454</v>
+      </c>
+      <c r="C266" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" ht="27.75" spans="1:3">
+      <c r="A267" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="C267" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" ht="27" spans="1:3">
+      <c r="A268" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="C268" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="B269" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="C269" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" t="s">
+        <v>505</v>
+      </c>
+      <c r="B270" t="s">
+        <v>506</v>
+      </c>
+      <c r="C270" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" t="s">
+        <v>507</v>
+      </c>
+      <c r="B271" t="s">
+        <v>508</v>
+      </c>
+      <c r="C271" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" t="s">
+        <v>509</v>
+      </c>
+      <c r="B272" t="s">
+        <v>510</v>
+      </c>
+      <c r="C272" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" t="s">
+        <v>511</v>
+      </c>
+      <c r="B273" t="s">
+        <v>512</v>
+      </c>
+      <c r="C273" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" customFormat="1" spans="1:3">
+      <c r="A274" t="s">
+        <v>513</v>
+      </c>
+      <c r="B274" t="s">
+        <v>514</v>
+      </c>
+      <c r="C274" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" t="s">
+        <v>515</v>
+      </c>
+      <c r="B275" t="s">
+        <v>514</v>
+      </c>
+      <c r="C275" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" t="s">
+        <v>516</v>
+      </c>
+      <c r="B276" t="s">
+        <v>517</v>
+      </c>
+      <c r="C276" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" t="s">
+        <v>518</v>
+      </c>
+      <c r="B277" t="s">
+        <v>519</v>
+      </c>
+      <c r="C277" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" ht="27" spans="1:3">
+      <c r="A278" t="s">
+        <v>520</v>
+      </c>
+      <c r="B278" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="C278" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" ht="27" spans="1:3">
+      <c r="A279" t="s">
+        <v>522</v>
+      </c>
+      <c r="B279" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="C279" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" ht="27" spans="1:3">
+      <c r="A280" t="s">
+        <v>524</v>
+      </c>
+      <c r="B280" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="C280" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" ht="54" spans="1:3">
+      <c r="A281" t="s">
+        <v>526</v>
+      </c>
+      <c r="B281" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="C281" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" customFormat="1" spans="1:3">
+      <c r="A282" t="s">
+        <v>528</v>
+      </c>
+      <c r="B282" t="s">
+        <v>529</v>
+      </c>
+      <c r="C282" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" t="s">
+        <v>530</v>
+      </c>
+      <c r="B283" t="s">
+        <v>531</v>
+      </c>
+      <c r="C283" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" t="s">
+        <v>532</v>
+      </c>
+      <c r="B284" t="s">
+        <v>533</v>
+      </c>
+      <c r="C284" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" t="s">
+        <v>534</v>
+      </c>
+      <c r="B285" t="s">
+        <v>535</v>
+      </c>
+      <c r="C285" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" t="s">
+        <v>536</v>
+      </c>
+      <c r="B286" t="s">
+        <v>537</v>
+      </c>
+      <c r="C286" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" ht="40.5" spans="1:3">
+      <c r="A287" t="s">
+        <v>538</v>
+      </c>
+      <c r="B287" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="C287" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" t="s">
+        <v>540</v>
+      </c>
+      <c r="B288" t="s">
+        <v>541</v>
+      </c>
+      <c r="C288" s="8" t="s">
         <v>2</v>
       </c>
     </row>

--- a/奇智数据.xlsx
+++ b/奇智数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="7950"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544">
   <si>
     <t>蝶恋花</t>
   </si>
@@ -1874,6 +1874,41 @@
   </si>
   <si>
     <t>贺知章《回乡偶书》:https://mp.weixin.qq.com/s/9XlqnPSRueRast5-wQPiwg</t>
+  </si>
+  <si>
+    <t>南歌子</t>
+  </si>
+  <si>
+    <r>
+      <t>苏轼《南歌子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>游赏》</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:https://mp.weixin.qq.com/s/20ZMZOzi1TcslSCuhl9uEw </t>
+    </r>
   </si>
   <si>
     <t>章台柳</t>
@@ -2735,6 +2770,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>李煜《玉楼春</t>
     </r>
     <r>
@@ -2858,6 +2899,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>李白《登金陵凤凰台》</t>
     </r>
     <r>
@@ -2923,6 +2969,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>苏轼《定风波》</t>
     </r>
     <r>
@@ -3036,14 +3087,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -3052,15 +3095,38 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3088,19 +3154,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3119,30 +3185,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -3151,6 +3202,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -3168,13 +3226,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3201,7 +3252,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3213,7 +3294,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3225,31 +3360,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3261,19 +3372,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3291,43 +3390,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3340,24 +3409,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3381,7 +3432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3435,6 +3486,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3465,21 +3549,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3491,24 +3560,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3538,10 +3589,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3550,138 +3601,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3709,9 +3761,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -4063,8 +4112,8 @@
   <sheetPr/>
   <dimension ref="A1:C288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="B281" sqref="B281"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="A124" sqref="$A124:$XFD124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -4075,10 +4124,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="95.25" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -4086,10 +4135,10 @@
       </c>
     </row>
     <row r="2" ht="41.25" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
@@ -4097,10 +4146,10 @@
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
@@ -4108,10 +4157,10 @@
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
@@ -4119,10 +4168,10 @@
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
@@ -4130,10 +4179,10 @@
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
@@ -4141,10 +4190,10 @@
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C7" t="s">
@@ -4152,10 +4201,10 @@
       </c>
     </row>
     <row r="8" ht="27.75" spans="1:3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C8" t="s">
@@ -4163,10 +4212,10 @@
       </c>
     </row>
     <row r="9" ht="27.75" spans="1:3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C9" t="s">
@@ -4174,10 +4223,10 @@
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C10" t="s">
@@ -4185,10 +4234,10 @@
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C11" t="s">
@@ -4196,10 +4245,10 @@
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C12" t="s">
@@ -4207,10 +4256,10 @@
       </c>
     </row>
     <row r="13" ht="27.75" spans="1:3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C13" t="s">
@@ -4218,10 +4267,10 @@
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C14" t="s">
@@ -4229,10 +4278,10 @@
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C15" t="s">
@@ -4240,10 +4289,10 @@
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C16" t="s">
@@ -4251,10 +4300,10 @@
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C17" t="s">
@@ -4262,10 +4311,10 @@
       </c>
     </row>
     <row r="18" ht="40.5" spans="1:3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C18" t="s">
@@ -4273,10 +4322,10 @@
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C19" t="s">
@@ -4284,10 +4333,10 @@
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C20" t="s">
@@ -4295,10 +4344,10 @@
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C21" t="s">
@@ -4306,10 +4355,10 @@
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C22" t="s">
@@ -4317,10 +4366,10 @@
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C23" t="s">
@@ -4328,10 +4377,10 @@
       </c>
     </row>
     <row r="24" ht="40.5" spans="1:3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C24" t="s">
@@ -4339,10 +4388,10 @@
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C25" t="s">
@@ -4350,10 +4399,10 @@
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:3">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C26" t="s">
@@ -4361,10 +4410,10 @@
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C27" t="s">
@@ -4372,10 +4421,10 @@
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C28" t="s">
@@ -4383,10 +4432,10 @@
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C29" t="s">
@@ -4394,10 +4443,10 @@
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:3">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C30" t="s">
@@ -4405,10 +4454,10 @@
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C31" t="s">
@@ -4416,10 +4465,10 @@
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:3">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C32" t="s">
@@ -4427,10 +4476,10 @@
       </c>
     </row>
     <row r="33" ht="14.25" spans="1:3">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C33" t="s">
@@ -4438,10 +4487,10 @@
       </c>
     </row>
     <row r="34" ht="27" spans="1:3">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C34" t="s">
@@ -4449,10 +4498,10 @@
       </c>
     </row>
     <row r="35" ht="27" spans="1:3">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C35" t="s">
@@ -4460,10 +4509,10 @@
       </c>
     </row>
     <row r="36" ht="27.75" spans="1:3">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C36" t="s">
@@ -4471,10 +4520,10 @@
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:3">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C37" t="s">
@@ -4482,10 +4531,10 @@
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:3">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C38" t="s">
@@ -4493,10 +4542,10 @@
       </c>
     </row>
     <row r="39" ht="27.75" spans="1:3">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="5" t="s">
         <v>76</v>
       </c>
       <c r="C39" t="s">
@@ -4504,10 +4553,10 @@
       </c>
     </row>
     <row r="40" ht="14.25" spans="1:3">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C40" t="s">
@@ -4515,10 +4564,10 @@
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:3">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="4" t="s">
         <v>80</v>
       </c>
       <c r="C41" t="s">
@@ -4526,10 +4575,10 @@
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:3">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C42" t="s">
@@ -4537,10 +4586,10 @@
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:3">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C43" t="s">
@@ -4548,10 +4597,10 @@
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:3">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C44" t="s">
@@ -4559,10 +4608,10 @@
       </c>
     </row>
     <row r="45" ht="14.25" spans="1:3">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C45" t="s">
@@ -4570,10 +4619,10 @@
       </c>
     </row>
     <row r="46" ht="27.75" spans="1:3">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C46" t="s">
@@ -4581,10 +4630,10 @@
       </c>
     </row>
     <row r="47" ht="27.75" spans="1:3">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="5" t="s">
         <v>92</v>
       </c>
       <c r="C47" t="s">
@@ -4592,10 +4641,10 @@
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:3">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="4" t="s">
         <v>94</v>
       </c>
       <c r="C48" t="s">
@@ -4603,10 +4652,10 @@
       </c>
     </row>
     <row r="49" ht="14.25" spans="1:3">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C49" t="s">
@@ -4614,10 +4663,10 @@
       </c>
     </row>
     <row r="50" ht="26.25" spans="1:3">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C50" t="s">
@@ -4625,10 +4674,10 @@
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:3">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="4" t="s">
         <v>99</v>
       </c>
       <c r="C51" t="s">
@@ -4636,10 +4685,10 @@
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:3">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="4" t="s">
         <v>101</v>
       </c>
       <c r="C52" t="s">
@@ -4647,10 +4696,10 @@
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:3">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C53" t="s">
@@ -4658,10 +4707,10 @@
       </c>
     </row>
     <row r="54" ht="14.25" spans="1:3">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C54" t="s">
@@ -4669,10 +4718,10 @@
       </c>
     </row>
     <row r="55" ht="27.75" spans="1:3">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="5" t="s">
         <v>107</v>
       </c>
       <c r="C55" t="s">
@@ -4680,10 +4729,10 @@
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:3">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C56" t="s">
@@ -4691,10 +4740,10 @@
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:3">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C57" t="s">
@@ -4702,10 +4751,10 @@
       </c>
     </row>
     <row r="58" ht="27.75" spans="1:3">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="5" t="s">
         <v>113</v>
       </c>
       <c r="C58" t="s">
@@ -4713,10 +4762,10 @@
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:3">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C59" t="s">
@@ -4724,10 +4773,10 @@
       </c>
     </row>
     <row r="60" ht="40.5" spans="1:3">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C60" t="s">
@@ -4735,10 +4784,10 @@
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:3">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C61" t="s">
@@ -4746,10 +4795,10 @@
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:3">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C62" t="s">
@@ -4757,10 +4806,10 @@
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:3">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="4" t="s">
         <v>123</v>
       </c>
       <c r="C63" t="s">
@@ -4768,10 +4817,10 @@
       </c>
     </row>
     <row r="64" ht="27.75" spans="1:3">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="5" t="s">
         <v>125</v>
       </c>
       <c r="C64" t="s">
@@ -4779,10 +4828,10 @@
       </c>
     </row>
     <row r="65" ht="14.25" spans="1:3">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C65" t="s">
@@ -4790,10 +4839,10 @@
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:3">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="4" t="s">
         <v>129</v>
       </c>
       <c r="C66" t="s">
@@ -4801,10 +4850,10 @@
       </c>
     </row>
     <row r="67" ht="41.25" spans="1:3">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="5" t="s">
         <v>131</v>
       </c>
       <c r="C67" t="s">
@@ -4812,10 +4861,10 @@
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:3">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C68" t="s">
@@ -4823,10 +4872,10 @@
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:3">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C69" t="s">
@@ -4834,10 +4883,10 @@
       </c>
     </row>
     <row r="70" ht="27.75" spans="1:3">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="5" t="s">
         <v>137</v>
       </c>
       <c r="C70" t="s">
@@ -4845,10 +4894,10 @@
       </c>
     </row>
     <row r="71" ht="14.25" spans="1:3">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="4" t="s">
         <v>139</v>
       </c>
       <c r="C71" t="s">
@@ -4856,10 +4905,10 @@
       </c>
     </row>
     <row r="72" ht="39.75" spans="1:3">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="5" t="s">
         <v>141</v>
       </c>
       <c r="C72" t="s">
@@ -4867,10 +4916,10 @@
       </c>
     </row>
     <row r="73" ht="14.25" spans="1:3">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="4" t="s">
         <v>143</v>
       </c>
       <c r="C73" t="s">
@@ -4878,10 +4927,10 @@
       </c>
     </row>
     <row r="74" ht="14.25" spans="1:3">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="4" t="s">
         <v>145</v>
       </c>
       <c r="C74" t="s">
@@ -4889,10 +4938,10 @@
       </c>
     </row>
     <row r="75" ht="14.25" spans="1:3">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="4" t="s">
         <v>147</v>
       </c>
       <c r="C75" t="s">
@@ -4900,10 +4949,10 @@
       </c>
     </row>
     <row r="76" ht="14.25" spans="1:3">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="4" t="s">
         <v>147</v>
       </c>
       <c r="C76" t="s">
@@ -4911,10 +4960,10 @@
       </c>
     </row>
     <row r="77" ht="41.25" spans="1:3">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="5" t="s">
         <v>150</v>
       </c>
       <c r="C77" t="s">
@@ -4922,10 +4971,10 @@
       </c>
     </row>
     <row r="78" ht="14.25" spans="1:3">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="5" t="s">
         <v>152</v>
       </c>
       <c r="C78" t="s">
@@ -4933,10 +4982,10 @@
       </c>
     </row>
     <row r="79" ht="14.25" spans="1:3">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="4" t="s">
         <v>154</v>
       </c>
       <c r="C79" t="s">
@@ -4944,10 +4993,10 @@
       </c>
     </row>
     <row r="80" ht="14.25" spans="1:3">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="4" t="s">
         <v>156</v>
       </c>
       <c r="C80" t="s">
@@ -4955,10 +5004,10 @@
       </c>
     </row>
     <row r="81" ht="14.25" spans="1:3">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="4" t="s">
         <v>158</v>
       </c>
       <c r="C81" t="s">
@@ -4966,10 +5015,10 @@
       </c>
     </row>
     <row r="82" ht="14.25" spans="1:3">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="4" t="s">
         <v>160</v>
       </c>
       <c r="C82" t="s">
@@ -4977,10 +5026,10 @@
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:3">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="4" t="s">
         <v>162</v>
       </c>
       <c r="C83" t="s">
@@ -4988,10 +5037,10 @@
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:3">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C84" t="s">
@@ -4999,10 +5048,10 @@
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:3">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C85" t="s">
@@ -5010,10 +5059,10 @@
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:3">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C86" t="s">
@@ -5021,10 +5070,10 @@
       </c>
     </row>
     <row r="87" ht="14.25" spans="1:3">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="4" t="s">
         <v>169</v>
       </c>
       <c r="C87" t="s">
@@ -5032,10 +5081,10 @@
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:3">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="4" t="s">
         <v>171</v>
       </c>
       <c r="C88" t="s">
@@ -5043,10 +5092,10 @@
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:3">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="4" t="s">
         <v>173</v>
       </c>
       <c r="C89" t="s">
@@ -5054,10 +5103,10 @@
       </c>
     </row>
     <row r="90" ht="14.25" spans="1:3">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="4" t="s">
         <v>175</v>
       </c>
       <c r="C90" t="s">
@@ -5065,10 +5114,10 @@
       </c>
     </row>
     <row r="91" ht="14.25" spans="1:3">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="4" t="s">
         <v>177</v>
       </c>
       <c r="C91" t="s">
@@ -5076,10 +5125,10 @@
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:3">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="4" t="s">
         <v>177</v>
       </c>
       <c r="C92" t="s">
@@ -5087,10 +5136,10 @@
       </c>
     </row>
     <row r="93" ht="14.25" spans="1:3">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C93" t="s">
@@ -5098,10 +5147,10 @@
       </c>
     </row>
     <row r="94" ht="14.25" spans="1:3">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C94" t="s">
@@ -5109,10 +5158,10 @@
       </c>
     </row>
     <row r="95" ht="14.25" spans="1:3">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="4" t="s">
         <v>184</v>
       </c>
       <c r="C95" t="s">
@@ -5120,10 +5169,10 @@
       </c>
     </row>
     <row r="96" ht="14.25" spans="1:3">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="4" t="s">
         <v>186</v>
       </c>
       <c r="C96" t="s">
@@ -5131,10 +5180,10 @@
       </c>
     </row>
     <row r="97" ht="14.25" spans="1:3">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="4" t="s">
         <v>188</v>
       </c>
       <c r="C97" t="s">
@@ -5142,10 +5191,10 @@
       </c>
     </row>
     <row r="98" ht="14.25" spans="1:3">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="4" t="s">
         <v>188</v>
       </c>
       <c r="C98" t="s">
@@ -5153,10 +5202,10 @@
       </c>
     </row>
     <row r="99" ht="14.25" spans="1:3">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="4" t="s">
         <v>191</v>
       </c>
       <c r="C99" t="s">
@@ -5164,10 +5213,10 @@
       </c>
     </row>
     <row r="100" ht="14.25" spans="1:3">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="4" t="s">
         <v>191</v>
       </c>
       <c r="C100" t="s">
@@ -5175,10 +5224,10 @@
       </c>
     </row>
     <row r="101" ht="14.25" spans="1:3">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="4" t="s">
         <v>194</v>
       </c>
       <c r="C101" t="s">
@@ -5186,10 +5235,10 @@
       </c>
     </row>
     <row r="102" ht="14.25" spans="1:3">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="4" t="s">
         <v>196</v>
       </c>
       <c r="C102" t="s">
@@ -5197,10 +5246,10 @@
       </c>
     </row>
     <row r="103" ht="14.25" spans="1:3">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="4" t="s">
         <v>198</v>
       </c>
       <c r="C103" t="s">
@@ -5208,10 +5257,10 @@
       </c>
     </row>
     <row r="104" ht="14.25" spans="1:3">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="4" t="s">
         <v>200</v>
       </c>
       <c r="C104" t="s">
@@ -5219,10 +5268,10 @@
       </c>
     </row>
     <row r="105" ht="14.25" spans="1:3">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="4" t="s">
         <v>202</v>
       </c>
       <c r="C105" t="s">
@@ -5230,10 +5279,10 @@
       </c>
     </row>
     <row r="106" ht="14.25" spans="1:3">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="4" t="s">
         <v>204</v>
       </c>
       <c r="C106" t="s">
@@ -5241,10 +5290,10 @@
       </c>
     </row>
     <row r="107" ht="14.25" spans="1:3">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="4" t="s">
         <v>206</v>
       </c>
       <c r="C107" t="s">
@@ -5252,10 +5301,10 @@
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:3">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="4" t="s">
         <v>208</v>
       </c>
       <c r="C108" t="s">
@@ -5263,10 +5312,10 @@
       </c>
     </row>
     <row r="109" ht="14.25" spans="1:3">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="4" t="s">
         <v>210</v>
       </c>
       <c r="C109" t="s">
@@ -5274,10 +5323,10 @@
       </c>
     </row>
     <row r="110" ht="14.25" spans="1:3">
-      <c r="A110" s="3" t="s">
+      <c r="A110" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="4" t="s">
         <v>212</v>
       </c>
       <c r="C110" t="s">
@@ -5285,10 +5334,10 @@
       </c>
     </row>
     <row r="111" ht="14.25" spans="1:3">
-      <c r="A111" s="3" t="s">
+      <c r="A111" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="4" t="s">
         <v>214</v>
       </c>
       <c r="C111" t="s">
@@ -5296,10 +5345,10 @@
       </c>
     </row>
     <row r="112" ht="14.25" spans="1:3">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="4" t="s">
         <v>216</v>
       </c>
       <c r="C112" t="s">
@@ -5307,10 +5356,10 @@
       </c>
     </row>
     <row r="113" ht="27.75" spans="1:3">
-      <c r="A113" s="3" t="s">
+      <c r="A113" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B113" s="5" t="s">
         <v>218</v>
       </c>
       <c r="C113" t="s">
@@ -5318,10 +5367,10 @@
       </c>
     </row>
     <row r="114" ht="14.25" spans="1:3">
-      <c r="A114" s="3" t="s">
+      <c r="A114" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="4" t="s">
         <v>220</v>
       </c>
       <c r="C114" t="s">
@@ -5329,10 +5378,10 @@
       </c>
     </row>
     <row r="115" ht="14.25" spans="1:3">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="4" t="s">
         <v>220</v>
       </c>
       <c r="C115" t="s">
@@ -5340,10 +5389,10 @@
       </c>
     </row>
     <row r="116" ht="14.25" spans="1:3">
-      <c r="A116" s="3" t="s">
+      <c r="A116" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="4" t="s">
         <v>223</v>
       </c>
       <c r="C116" t="s">
@@ -5351,10 +5400,10 @@
       </c>
     </row>
     <row r="117" ht="14.25" spans="1:3">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="4" t="s">
         <v>225</v>
       </c>
       <c r="C117" t="s">
@@ -5362,10 +5411,10 @@
       </c>
     </row>
     <row r="118" ht="14.25" spans="1:3">
-      <c r="A118" s="5" t="s">
+      <c r="A118" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="6" t="s">
         <v>227</v>
       </c>
       <c r="C118" t="s">
@@ -5373,10 +5422,10 @@
       </c>
     </row>
     <row r="119" ht="14.25" spans="1:3">
-      <c r="A119" s="6" t="s">
+      <c r="A119" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B119" s="7" t="s">
         <v>229</v>
       </c>
       <c r="C119" t="s">
@@ -5427,17 +5476,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="3:3">
-      <c r="C124" t="s">
+    <row r="124" s="1" customFormat="1" spans="1:3">
+      <c r="A124" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B125" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C125" t="s">
         <v>2</v>
@@ -5445,10 +5500,10 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B126" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C126" t="s">
         <v>2</v>
@@ -5456,10 +5511,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B127" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C127" t="s">
         <v>2</v>
@@ -5467,10 +5522,10 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B128" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C128" t="s">
         <v>2</v>
@@ -5478,10 +5533,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B129" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C129" t="s">
         <v>2</v>
@@ -5489,10 +5544,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B130" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C130" t="s">
         <v>2</v>
@@ -5500,10 +5555,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B131" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C131" t="s">
         <v>2</v>
@@ -5511,10 +5566,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B132" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C132" t="s">
         <v>2</v>
@@ -5522,10 +5577,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B133" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C133" t="s">
         <v>2</v>
@@ -5533,10 +5588,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B134" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C134" t="s">
         <v>2</v>
@@ -5544,10 +5599,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B135" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C135" t="s">
         <v>2</v>
@@ -5555,10 +5610,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B136" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C136" t="s">
         <v>2</v>
@@ -5566,10 +5621,10 @@
     </row>
     <row r="137" ht="27" spans="1:3">
       <c r="A137" t="s">
-        <v>262</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>265</v>
       </c>
       <c r="C137" t="s">
         <v>2</v>
@@ -5577,10 +5632,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B138" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C138" t="s">
         <v>2</v>
@@ -5588,10 +5643,10 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B139" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C139" t="s">
         <v>2</v>
@@ -5599,10 +5654,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B140" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C140" t="s">
         <v>2</v>
@@ -5610,10 +5665,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B141" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C141" t="s">
         <v>2</v>
@@ -5624,7 +5679,7 @@
         <v>50</v>
       </c>
       <c r="B142" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C142" t="s">
         <v>2</v>
@@ -5634,8 +5689,8 @@
       <c r="A143" t="s">
         <v>98</v>
       </c>
-      <c r="B143" s="7" t="s">
-        <v>273</v>
+      <c r="B143" s="8" t="s">
+        <v>275</v>
       </c>
       <c r="C143" t="s">
         <v>2</v>
@@ -5643,10 +5698,10 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B144" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C144" t="s">
         <v>2</v>
@@ -5654,10 +5709,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B145" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C145" t="s">
         <v>2</v>
@@ -5665,10 +5720,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B146" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C146" t="s">
         <v>2</v>
@@ -5676,10 +5731,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B147" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C147" t="s">
         <v>2</v>
@@ -5687,10 +5742,10 @@
     </row>
     <row r="148" ht="27" spans="1:3">
       <c r="A148" t="s">
-        <v>282</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>285</v>
       </c>
       <c r="C148" t="s">
         <v>2</v>
@@ -5698,10 +5753,10 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B149" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C149" t="s">
         <v>2</v>
@@ -5709,10 +5764,10 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B150" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C150" t="s">
         <v>2</v>
@@ -5720,10 +5775,10 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B151" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C151" t="s">
         <v>2</v>
@@ -5731,10 +5786,10 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B153" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C153" t="s">
         <v>2</v>
@@ -5742,10 +5797,10 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B154" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C154" t="s">
         <v>2</v>
@@ -5753,10 +5808,10 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B155" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C155" t="s">
         <v>2</v>
@@ -5764,10 +5819,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B156" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C156" t="s">
         <v>2</v>
@@ -5775,10 +5830,10 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B157" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C157" t="s">
         <v>2</v>
@@ -5786,10 +5841,10 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B158" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C158" t="s">
         <v>2</v>
@@ -5797,10 +5852,10 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B159" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C159" t="s">
         <v>2</v>
@@ -5808,10 +5863,10 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B160" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C160" t="s">
         <v>2</v>
@@ -5819,10 +5874,10 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B161" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C161" t="s">
         <v>2</v>
@@ -5830,10 +5885,10 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B162" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C162" t="s">
         <v>2</v>
@@ -5841,10 +5896,10 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B163" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C163" t="s">
         <v>2</v>
@@ -5852,10 +5907,10 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B164" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C164" t="s">
         <v>2</v>
@@ -5863,10 +5918,10 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B165" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C165" t="s">
         <v>2</v>
@@ -5874,10 +5929,10 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B166" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C166" t="s">
         <v>2</v>
@@ -5885,10 +5940,10 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B167" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C167" t="s">
         <v>2</v>
@@ -5896,10 +5951,10 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B168" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C168" t="s">
         <v>2</v>
@@ -5907,10 +5962,10 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B169" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C169" t="s">
         <v>2</v>
@@ -5918,10 +5973,10 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B170" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C170" t="s">
         <v>2</v>
@@ -5929,10 +5984,10 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B171" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C171" t="s">
         <v>2</v>
@@ -5940,10 +5995,10 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B172" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C172" t="s">
         <v>2</v>
@@ -5951,10 +6006,10 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B173" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C173" t="s">
         <v>2</v>
@@ -5962,10 +6017,10 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B175" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C175" t="s">
         <v>2</v>
@@ -5973,10 +6028,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B176" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C176" t="s">
         <v>2</v>
@@ -5984,10 +6039,10 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B177" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C177" t="s">
         <v>2</v>
@@ -5995,10 +6050,10 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B178" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C178" t="s">
         <v>2</v>
@@ -6006,10 +6061,10 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B179" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C179" t="s">
         <v>2</v>
@@ -6017,10 +6072,10 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B180" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C180" t="s">
         <v>2</v>
@@ -6028,10 +6083,10 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B181" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C181" t="s">
         <v>2</v>
@@ -6039,10 +6094,10 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B182" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C182" t="s">
         <v>2</v>
@@ -6050,10 +6105,10 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B183" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C183" t="s">
         <v>2</v>
@@ -6061,10 +6116,10 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B184" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C184" t="s">
         <v>2</v>
@@ -6072,10 +6127,10 @@
     </row>
     <row r="185" ht="27" spans="1:3">
       <c r="A185" t="s">
-        <v>351</v>
-      </c>
-      <c r="B185" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>354</v>
       </c>
       <c r="C185" t="s">
         <v>2</v>
@@ -6083,10 +6138,10 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B186" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C186" t="s">
         <v>2</v>
@@ -6094,10 +6149,10 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B187" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C187" t="s">
         <v>2</v>
@@ -6105,10 +6160,10 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B188" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C188" t="s">
         <v>2</v>
@@ -6116,1073 +6171,1073 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B189" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C189" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="B190" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="C190" s="8" t="s">
+      <c r="A190" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C190" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="B191" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="C191" s="8" t="s">
+      <c r="A191" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="B191" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C191" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="B192" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="C192" s="8" t="s">
+      <c r="A192" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="B192" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="C192" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="B193" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="C193" s="8" t="s">
+      <c r="A193" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="B193" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="C193" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="B194" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="C194" s="8" t="s">
+      <c r="A194" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="B194" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="C194" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" s="9" t="s">
+      <c r="A195" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="B195" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="C195" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="B196" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="C196" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="B197" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="C197" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="B198" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="C198" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="B199" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="C199" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="B200" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="C200" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="B201" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="C201" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="B202" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="C202" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="B203" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="C203" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="B204" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="C204" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="B205" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="C205" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="B206" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="C206" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="B207" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="C207" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="B208" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="C208" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="B209" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="C209" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" ht="27" spans="1:3">
+      <c r="A210" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="B210" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="C210" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="B211" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="C211" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="B212" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="C212" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="B213" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="C213" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B214" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="C214" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="B215" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="C215" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="B216" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="C216" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B217" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="C217" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" ht="14.25" spans="1:3">
+      <c r="A218" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="B218" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="C218" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" ht="27" spans="1:3">
+      <c r="A219" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C219" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="B220" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="C220" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="B222" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="C222" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B223" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="C223" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="B224" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="C224" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="B225" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="C225" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="B226" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="C226" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="B227" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="C227" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="B228" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="C228" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="B229" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="C229" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="B230" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="C230" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="B231" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="C231" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="B232" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="C232" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="B233" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="C233" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="B234" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="C234" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="B235" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="C235" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="B236" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="C236" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="B237" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="C237" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="B238" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="C238" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="10"/>
+      <c r="B239" s="10"/>
+      <c r="C239" s="9"/>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="B195" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="C195" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="B196" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="C196" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="B197" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="C197" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="B198" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="C198" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="B199" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="C199" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="B200" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="C200" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="B201" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="C201" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="B202" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="C202" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="B203" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="C203" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="A204" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="B204" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="C204" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="B205" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="C205" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="B206" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C206" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="A207" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="B207" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="C207" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
-      <c r="A208" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="B208" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="C208" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="B209" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="C209" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="210" ht="27" spans="1:3">
-      <c r="A210" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="B210" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="C210" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
-      <c r="A211" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="B211" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="C211" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="A212" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="B212" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="C212" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
-      <c r="A213" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="B213" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="C213" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="A214" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="B214" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="C214" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
-      <c r="A215" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="B215" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="C215" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
-      <c r="A216" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="B216" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="C216" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="A217" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="B217" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="C217" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="218" ht="14.25" spans="1:3">
-      <c r="A218" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="B218" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="C218" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="219" ht="27" spans="1:3">
-      <c r="A219" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B219" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="C219" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
-      <c r="A220" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="B220" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="C220" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
-      <c r="A222" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="B222" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="C222" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
-      <c r="A223" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="B223" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="C223" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
-      <c r="A224" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="B224" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="C224" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
-      <c r="A225" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="B225" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="C225" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
-      <c r="A226" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="B226" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="C226" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
-      <c r="A227" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="B227" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="C227" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
-      <c r="A228" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="B228" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="C228" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
-      <c r="A229" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="B229" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="C229" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
-      <c r="A230" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="B230" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="C230" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
-      <c r="A231" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="B231" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="C231" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
-      <c r="A232" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="B232" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="C232" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
-      <c r="A233" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="B233" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="C233" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
-      <c r="A234" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="B234" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="C234" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
-      <c r="A235" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="B235" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="C235" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
-      <c r="A236" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="B236" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="C236" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
-      <c r="A237" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="B237" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="C237" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
-      <c r="A238" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="B238" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="C238" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
-      <c r="A239" s="9"/>
-      <c r="B239" s="9"/>
-      <c r="C239" s="8"/>
-    </row>
-    <row r="240" spans="1:3">
-      <c r="A240" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="B240" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="C240" s="8" t="s">
+      <c r="B240" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="C240" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:3">
-      <c r="A241" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="B241" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="C241" s="8" t="s">
+      <c r="A241" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="B241" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="C241" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:3">
-      <c r="A242" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="B242" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="C242" s="8" t="s">
+      <c r="A242" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="B242" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="C242" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:3">
-      <c r="A243" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="B243" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="C243" s="8" t="s">
+      <c r="A243" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="B243" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="C243" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="245" ht="27" spans="1:3">
-      <c r="A245" s="9" t="s">
-        <v>459</v>
-      </c>
-      <c r="B245" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="C245" s="8" t="s">
+      <c r="A245" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="B245" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="C245" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B246" t="s">
-        <v>462</v>
-      </c>
-      <c r="C246" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="C246" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B247" t="s">
-        <v>464</v>
-      </c>
-      <c r="C247" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="C247" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B248" t="s">
-        <v>466</v>
-      </c>
-      <c r="C248" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="C248" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B249" t="s">
-        <v>468</v>
-      </c>
-      <c r="C249" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="C249" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B250" t="s">
-        <v>470</v>
-      </c>
-      <c r="C250" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="C250" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="251" ht="81" spans="1:3">
-      <c r="A251" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="B251" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="C251" s="8" t="s">
+      <c r="A251" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="B251" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="C251" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B252" t="s">
-        <v>474</v>
-      </c>
-      <c r="C252" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="C252" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B253" t="s">
-        <v>476</v>
-      </c>
-      <c r="C253" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="C253" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B254" t="s">
-        <v>478</v>
-      </c>
-      <c r="C254" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="C254" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B255" t="s">
-        <v>480</v>
-      </c>
-      <c r="C255" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="C255" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B256" t="s">
-        <v>482</v>
-      </c>
-      <c r="C256" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="C256" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B257" t="s">
-        <v>484</v>
-      </c>
-      <c r="C257" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="C257" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="258" ht="27" spans="1:3">
       <c r="A258" t="s">
-        <v>485</v>
-      </c>
-      <c r="B258" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="C258" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="B258" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="C258" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B259" t="s">
-        <v>488</v>
-      </c>
-      <c r="C259" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="C259" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B260" t="s">
-        <v>490</v>
-      </c>
-      <c r="C260" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="C260" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B261" t="s">
-        <v>492</v>
-      </c>
-      <c r="C261" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="C261" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B262" t="s">
-        <v>494</v>
-      </c>
-      <c r="C262" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="C262" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B263" t="s">
-        <v>496</v>
-      </c>
-      <c r="C263" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C263" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B264" t="s">
-        <v>498</v>
-      </c>
-      <c r="C264" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="C264" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B265" t="s">
-        <v>500</v>
-      </c>
-      <c r="C265" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="C265" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="266" ht="14.25" spans="1:3">
       <c r="A266" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B266" t="s">
-        <v>454</v>
-      </c>
-      <c r="C266" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="C266" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="267" ht="27.75" spans="1:3">
-      <c r="A267" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="B267" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="C267" s="8" t="s">
+      <c r="A267" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="C267" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="268" ht="27" spans="1:3">
-      <c r="A268" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="B268" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="C268" s="8" t="s">
+      <c r="A268" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="C268" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:3">
-      <c r="A269" s="9" t="s">
-        <v>503</v>
-      </c>
-      <c r="B269" s="9" t="s">
-        <v>504</v>
-      </c>
-      <c r="C269" s="8" t="s">
+      <c r="A269" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="B269" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="C269" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B270" t="s">
-        <v>506</v>
-      </c>
-      <c r="C270" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C270" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B271" t="s">
-        <v>508</v>
-      </c>
-      <c r="C271" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="C271" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B272" t="s">
-        <v>510</v>
-      </c>
-      <c r="C272" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="C272" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B273" t="s">
-        <v>512</v>
-      </c>
-      <c r="C273" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="C273" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="274" customFormat="1" spans="1:3">
       <c r="A274" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B274" t="s">
-        <v>514</v>
-      </c>
-      <c r="C274" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="C274" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B275" t="s">
-        <v>514</v>
-      </c>
-      <c r="C275" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="C275" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B276" t="s">
-        <v>517</v>
-      </c>
-      <c r="C276" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="C276" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B277" t="s">
-        <v>519</v>
-      </c>
-      <c r="C277" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="C277" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="278" ht="27" spans="1:3">
       <c r="A278" t="s">
-        <v>520</v>
-      </c>
-      <c r="B278" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="C278" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="B278" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="C278" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="279" ht="27" spans="1:3">
       <c r="A279" t="s">
-        <v>522</v>
-      </c>
-      <c r="B279" s="11" t="s">
-        <v>523</v>
-      </c>
-      <c r="C279" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="B279" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="C279" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="280" ht="27" spans="1:3">
       <c r="A280" t="s">
-        <v>524</v>
-      </c>
-      <c r="B280" s="11" t="s">
-        <v>525</v>
-      </c>
-      <c r="C280" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="B280" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="C280" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="281" ht="54" spans="1:3">
       <c r="A281" t="s">
-        <v>526</v>
-      </c>
-      <c r="B281" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="C281" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="B281" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="C281" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="282" customFormat="1" spans="1:3">
       <c r="A282" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B282" t="s">
-        <v>529</v>
-      </c>
-      <c r="C282" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="C282" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B283" t="s">
-        <v>531</v>
-      </c>
-      <c r="C283" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="C283" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B284" t="s">
-        <v>533</v>
-      </c>
-      <c r="C284" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="C284" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B285" t="s">
-        <v>535</v>
-      </c>
-      <c r="C285" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="C285" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B286" t="s">
-        <v>537</v>
-      </c>
-      <c r="C286" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="C286" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="287" ht="40.5" spans="1:3">
       <c r="A287" t="s">
-        <v>538</v>
-      </c>
-      <c r="B287" s="11" t="s">
-        <v>539</v>
-      </c>
-      <c r="C287" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="B287" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="C287" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B288" t="s">
-        <v>541</v>
-      </c>
-      <c r="C288" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="C288" s="9" t="s">
         <v>2</v>
       </c>
     </row>

--- a/奇智数据.xlsx
+++ b/奇智数据.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552">
   <si>
     <t>蝶恋花</t>
   </si>
@@ -508,12 +508,6 @@
     <t>范仲淹『渔家傲』:http://mp.weixin.qq.com/s/W-5ycSAlpRuXA4z567YEvA </t>
   </si>
   <si>
-    <t>奉和贾至舍人早朝大明宫</t>
-  </si>
-  <si>
-    <t>杜甫《奉和贾至舍人早朝大明宫》:http://mp.weixin.qq.com/s/tjtTVyNPEk2sEhUwsSHwmw </t>
-  </si>
-  <si>
     <t>燕燕</t>
   </si>
   <si>
@@ -571,12 +565,6 @@
       </rPr>
       <t>:http://mp.weixin.qq.com/s/vTX9KKDWEk9_NDhPjbxF5A </t>
     </r>
-  </si>
-  <si>
-    <t>临江仙</t>
-  </si>
-  <si>
-    <t>晏几道《临江仙》:http://mp.weixin.qq.com/s/4HnhhMl8oJax6iaj047FIA </t>
   </si>
   <si>
     <t>春宿左省</t>
@@ -1735,12 +1723,6 @@
     <t>卢仝《七碗茶歌》:http://dwz.cn/6h0DW4 </t>
   </si>
   <si>
-    <t>采薇</t>
-  </si>
-  <si>
-    <t>《诗经·小雅·采薇》:http://dwz.cn/6h0DW4 </t>
-  </si>
-  <si>
     <t>从军行</t>
   </si>
   <si>
@@ -1880,6 +1862,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>苏轼《南歌子</t>
     </r>
     <r>
@@ -2045,13 +2032,6 @@
     <t>《摸鱼儿·雁丘词》:http://mp.weixin.qq.com/s/tZWJmM0sn13udZ2PFw0M4g</t>
   </si>
   <si>
-    <t>长干行</t>
-  </si>
-  <si>
-    <t>崔颢《长干行》:http://mp.weixin.qq.com/s/LlRvS7eWMZH2YGAUAbT2zw
-李白《长干行》:http://mp.weixin.qq.com/s/pacp7JtH7Jal_C8TMQfRZw</t>
-  </si>
-  <si>
     <t>野有蔓草</t>
   </si>
   <si>
@@ -2546,12 +2526,6 @@
     <t>少年游</t>
   </si>
   <si>
-    <t>古从军行</t>
-  </si>
-  <si>
-    <t>李颀《古从军行》:http://mp.weixin.qq.com/s/SsuGpWkrwpoMR1fF3GCxhg</t>
-  </si>
-  <si>
     <t>芙蓉楼送辛渐</t>
   </si>
   <si>
@@ -2562,12 +2536,6 @@
   </si>
   <si>
     <t>王翰《凉州词》:http://mp.weixin.qq.com/s/s_Zv-W0oC0cznN_q5RtTGg</t>
-  </si>
-  <si>
-    <t>次北固山下</t>
-  </si>
-  <si>
-    <t>王湾《次北固山下》:http://mp.weixin.qq.com/s/s3N1QAuPc542CAdW_yAang</t>
   </si>
   <si>
     <t>终南别业</t>
@@ -2658,16 +2626,414 @@
     <t>小学-王维《画》:http://mp.weixin.qq.com/s/gai7USzlYFkL-Riw12_cZg</t>
   </si>
   <si>
-    <t>九月九日忆山东兄弟</t>
-  </si>
-  <si>
-    <t>小学-王维《九月九日忆山东兄弟》:http://mp.weixin.qq.com/s/grLm-r-DhmnfaGI_fKWu0A</t>
-  </si>
-  <si>
     <t>夜雨寄北</t>
   </si>
   <si>
     <t>李商隐《夜雨寄北》:https://mp.weixin.qq.com/s/ArQmqwVU8H-s73Lq32s9hQ</t>
+  </si>
+  <si>
+    <t>夜书所见</t>
+  </si>
+  <si>
+    <t>小学-叶绍翁《夜书所见》:http://mp.weixin.qq.com/s/oNczFWeoQbEMQQj9Z6o9Sw</t>
+  </si>
+  <si>
+    <t>飒飒东风</t>
+  </si>
+  <si>
+    <t>李商隐《无题·飒飒东风》:http://mp.weixin.qq.com/s/C39tiic_m1vbGjLbjUkxyg</t>
+  </si>
+  <si>
+    <t>春晓</t>
+  </si>
+  <si>
+    <t>小学-孟浩然《春晓》:http://mp.weixin.qq.com/s/cINN_kZ94Fvkw2OKSo-KEA</t>
+  </si>
+  <si>
+    <t>八岁偷照镜</t>
+  </si>
+  <si>
+    <t>李商隐《无题·八岁偷照镜》:http://mp.weixin.qq.com/s/K72A8w9J23EUi4mlmxpBbw</t>
+  </si>
+  <si>
+    <t>寻隐者不遇</t>
+  </si>
+  <si>
+    <t>小学-贾岛《寻隐者不遇》:http://mp.weixin.qq.com/s/PheCmoleI98nlEIJl7uPNw</t>
+  </si>
+  <si>
+    <t>锦瑟</t>
+  </si>
+  <si>
+    <t>李商隐《锦瑟》上:http://mp.weixin.qq.com/s/RVkx_IwY2Q8Em5w3MaabhQ
+李商隐《锦瑟》下:http://mp.weixin.qq.com/s/sEG4LXFf_wmiNd02igs6eg</t>
+  </si>
+  <si>
+    <t>鹿柴</t>
+  </si>
+  <si>
+    <t>小学-王维《鹿柴》:http://mp.weixin.qq.com/s/Vv7KxQOGCmHZtCPYoOLPvQ</t>
+  </si>
+  <si>
+    <t>词牌格律</t>
+  </si>
+  <si>
+    <t>词牌格律大全:http://mp.weixin.qq.com/s/pE2pyHkjEt9PXLicvZ5HwQ</t>
+  </si>
+  <si>
+    <t>采葛</t>
+  </si>
+  <si>
+    <t>《诗经·国风·王风·采葛》:https://mp.weixin.qq.com/s/A0tRuXZEWhBLlCeRH8bOzA</t>
+  </si>
+  <si>
+    <t>早发白帝城</t>
+  </si>
+  <si>
+    <t>小学-李白《早发白帝城》:http://mp.weixin.qq.com/s/x4yjjkRauL3kZoi2K6DUHQ</t>
+  </si>
+  <si>
+    <t>静女</t>
+  </si>
+  <si>
+    <t>《诗经·邶风·静女》:http://mp.weixin.qq.com/s/NIwEcKMCri-4FrkIyygGYA</t>
+  </si>
+  <si>
+    <t>秋兴八首</t>
+  </si>
+  <si>
+    <t>杜甫《秋兴八首》其一:http://mp.weixin.qq.com/s/dWZXIajLrruk4tg4v-aM1A</t>
+  </si>
+  <si>
+    <t>风</t>
+  </si>
+  <si>
+    <t>小学-李峤《风》:http://mp.weixin.qq.com/s/upPgfMpltY8m7Z5hvcBZfQ</t>
+  </si>
+  <si>
+    <t>晚妆初了明肌雪</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李煜《玉楼春</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>晚妆初了明肌雪》</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:http://dwz.cn/6h1eWl
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李煜《玉楼春</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>晚妆初了明肌雪》</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:http://mp.weixin.qq.com/s/mGHyBs5T9h1oE5w2IJCcdw</t>
+    </r>
+  </si>
+  <si>
+    <t>挽词</t>
+  </si>
+  <si>
+    <t>李煜《挽词》:http://mp.weixin.qq.com/s/GB_AB-OqJmIbAsh1NkmBzg</t>
+  </si>
+  <si>
+    <t>别董大</t>
+  </si>
+  <si>
+    <t>小学-高适《别董大》:http://mp.weixin.qq.com/s/KJH4lITrvJcYRklsOlmF5w</t>
+  </si>
+  <si>
+    <t>菊花</t>
+  </si>
+  <si>
+    <t>小学-元稹《菊花》:http://mp.weixin.qq.com/s/ZWinYn7ksdFkey6B1WiJvQ</t>
+  </si>
+  <si>
+    <t>滕王阁序</t>
+  </si>
+  <si>
+    <t>高中-王勃《滕王阁序》:http://mp.weixin.qq.com/s/MWBv8IMCDlRucDpzs0SJSA</t>
+  </si>
+  <si>
+    <t>咏鹅</t>
+  </si>
+  <si>
+    <t>小学-骆宾王《咏鹅》:https://mp.weixin.qq.com/s/0t30w-cl8krxxwt_8mWI9A</t>
+  </si>
+  <si>
+    <t>水龙吟</t>
+  </si>
+  <si>
+    <t>辛弃疾《水龙吟·登建康赏心亭》:https://mp.weixin.qq.com/s/V7Uid4kyXb-26p1yLBkJJQ</t>
+  </si>
+  <si>
+    <t>登建康赏心亭</t>
+  </si>
+  <si>
+    <t>鹿鸣</t>
+  </si>
+  <si>
+    <t>《诗经·鹿鸣》:http://mp.weixin.qq.com/s/HT2f5XgXKVgjjc_8riMgNQ</t>
+  </si>
+  <si>
+    <t>游山西村</t>
+  </si>
+  <si>
+    <t>陆游《游山西村》:https://mp.weixin.qq.com/s/F7m5O5OxsA6gtmHkhAnzQA</t>
+  </si>
+  <si>
+    <t>登金陵凤凰台</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李白《登金陵凤凰台》</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:http://mp.weixin.qq.com/s/To8uiABoZCf0BQNfeATE0w
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李白《登金陵凤凰台》</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:http://mp.weixin.qq.com/s/cwOZ60h3qH09lmCtUGxDvw</t>
+    </r>
+  </si>
+  <si>
+    <t>黄鹤楼</t>
+  </si>
+  <si>
+    <t>崔颢《黄鹤楼》:http://mp.weixin.qq.com/s/ksSXwqGdYtFj5p33JQb5ow
+崔颢《黄鹤楼》:http://mp.weixin.qq.com/s/zJpKRsaP_CsZ-gDFU4QsVg</t>
+  </si>
+  <si>
+    <t>白雪歌送武判官归京</t>
+  </si>
+  <si>
+    <t>岑参《白雪歌送武判官归京》（上）:http://mp.weixin.qq.com/s/iUvNybbqseUPVI-6mHB-bQ
+岑参《白雪歌送武判官归京》（下）:https://mp.weixin.qq.com/s/oM5SSVMkhaNJcWkizY_f2g</t>
+  </si>
+  <si>
+    <t>春江花月夜</t>
+  </si>
+  <si>
+    <t>张若虚《春江花月夜》(上):http://mp.weixin.qq.com/s/nK26oDlJFiJ6nvvuGEakhg
+张若虚《春江花月夜》(中):https://mp.weixin.qq.com/s/UCj7iQcG6qFls8alDJOJTA
+张若虚《春江花月夜》(下):http://mp.weixin.qq.com/s/-a9dIL9fkvMFoqCFaOZE_A
+张若虚《春江花月夜》:http://mp.weixin.qq.com/s/Lu4IlJF9cCzKW-PQdaCxUQ</t>
+  </si>
+  <si>
+    <t>南海归赠王定国侍人寓娘</t>
+  </si>
+  <si>
+    <t>苏轼《定风波·南海归赠王定国侍人寓娘》:https://mp.weixin.qq.com/s/52J8iDIkkSkydyY148qEcQ</t>
+  </si>
+  <si>
+    <t>定风波</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>苏轼《定风波》</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:http://mp.weixin.qq.com/s/6fmNTQOYTMVlGFQHg3lWOw
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>苏轼《定风波</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>南海归赠王定国侍人寓娘》</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:https://mp.weixin.qq.com/s/52J8iDIkkSkydyY148qEcQ</t>
+    </r>
+  </si>
+  <si>
+    <t>桃叶渡歌</t>
+  </si>
+  <si>
+    <t>王献之《桃叶渡歌》:http://mp.weixin.qq.com/s/7HIIcJeFKR8Qcn2Sd5MrmQ</t>
+  </si>
+  <si>
+    <t>感怀</t>
+  </si>
+  <si>
+    <t>彭玉麟《感怀》其一:http://mp.weixin.qq.com/s/FrVAiqeQwmJhqGX_dte5wA</t>
+  </si>
+  <si>
+    <t>梅花百韵</t>
+  </si>
+  <si>
+    <t>彭玉麟《梅花百韵》其一:https://mp.weixin.qq.com/s/MR8kBmq4e9_HJI7tEwNb9Q</t>
+  </si>
+  <si>
+    <t>韩愈</t>
+  </si>
+  <si>
+    <t>【唐宋八大家】之韩愈全集:http://mp.weixin.qq.com/s/ehHYkt40H08FnU5V7jiOEQ</t>
+  </si>
+  <si>
+    <t>子夜吴歌</t>
+  </si>
+  <si>
+    <t>李白《子夜吴歌•春歌》:http://mp.weixin.qq.com/s/n6vaSJpDbQ6zznI0NK73mA
+李白《子夜吴歌.夏歌》:http://mp.weixin.qq.com/s/R7sMBo2ttA-Lt-D0o7yf6Q
+李白《子夜吴歌•秋歌》:http://mp.weixin.qq.com/s/Ncw4qmeQQ25jidoi2lgLQQ
+李白《子夜吴歌•冬歌》:http://mp.weixin.qq.com/s/96w2Y44AHgIn7DhMDo36_Q</t>
+  </si>
+  <si>
+    <t>次北固山下</t>
+  </si>
+  <si>
+    <t>王湾《次北固山下》:http://mp.weixin.qq.com/s/s3N1QAuPc542CAdW_yAang
+王湾《次北固山下》:http://mp.weixin.qq.com/s/wioMoK0lqc42Pr-0yjidWg</t>
+  </si>
+  <si>
+    <t>十五夜望月寄杜郎中</t>
+  </si>
+  <si>
+    <t>王建《十五夜望月寄杜郎中》:http://mp.weixin.qq.com/s/8Zh7nIDHYlr7bEYALfjQGA</t>
+  </si>
+  <si>
+    <t>峨眉山月歌</t>
+  </si>
+  <si>
+    <t>小学-李白《峨眉山月歌》:http://mp.weixin.qq.com/s/u9dSdI24lrlgNK6XzhmPwg</t>
+  </si>
+  <si>
+    <t>经邹鲁祭孔子而叹之</t>
+  </si>
+  <si>
+    <t>唐玄宗《经邹鲁祭孔子而叹之》:http://mp.weixin.qq.com/s/E-tTEtGrs2wTwW01AIROSg</t>
+  </si>
+  <si>
+    <t>古从军行</t>
+  </si>
+  <si>
+    <t>李颀《古从军行》:http://mp.weixin.qq.com/s/SsuGpWkrwpoMR1fF3GCxhg
+李颀《古从军行》:http://mp.weixin.qq.com/s/73L1RPsNMyRq2r8QR2bqRw</t>
   </si>
   <si>
     <t>无题</t>
@@ -2678,132 +3044,58 @@
 李商隐《无题·昨夜星辰昨夜风》下:http://mp.weixin.qq.com/s/mVD0ZovIGn0JxlHmZ4Z5lw
 李商隐《无题·重帏深下莫愁堂》:https://mp.weixin.qq.com/s/uMtYsJtLG1_FCwLQY8BKbg
 李商隐《无题·飒飒东风》:http://mp.weixin.qq.com/s/C39tiic_m1vbGjLbjUkxyg
-李商隐《无题·八岁偷照镜》:http://mp.weixin.qq.com/s/K72A8w9J23EUi4mlmxpBbw</t>
+李商隐《无题·八岁偷照镜》:http://mp.weixin.qq.com/s/K72A8w9J23EUi4mlmxpBbw
+李商隐《无题·重帏深下莫愁堂》:http://mp.weixin.qq.com/s/GLUI9edej24mNlhh2ROqfw</t>
   </si>
   <si>
     <t>重帏深下莫愁堂</t>
   </si>
   <si>
-    <t>李商隐《无题·重帏深下莫愁堂》:https://mp.weixin.qq.com/s/uMtYsJtLG1_FCwLQY8BKbg</t>
-  </si>
-  <si>
-    <t>夜书所见</t>
-  </si>
-  <si>
-    <t>小学-叶绍翁《夜书所见》:http://mp.weixin.qq.com/s/oNczFWeoQbEMQQj9Z6o9Sw</t>
-  </si>
-  <si>
-    <t>飒飒东风</t>
-  </si>
-  <si>
-    <t>李商隐《无题·飒飒东风》:http://mp.weixin.qq.com/s/C39tiic_m1vbGjLbjUkxyg</t>
-  </si>
-  <si>
-    <t>春晓</t>
-  </si>
-  <si>
-    <t>小学-孟浩然《春晓》:http://mp.weixin.qq.com/s/cINN_kZ94Fvkw2OKSo-KEA</t>
-  </si>
-  <si>
-    <t>八岁偷照镜</t>
-  </si>
-  <si>
-    <t>李商隐《无题·八岁偷照镜》:http://mp.weixin.qq.com/s/K72A8w9J23EUi4mlmxpBbw</t>
-  </si>
-  <si>
-    <t>寻隐者不遇</t>
-  </si>
-  <si>
-    <t>小学-贾岛《寻隐者不遇》:http://mp.weixin.qq.com/s/PheCmoleI98nlEIJl7uPNw</t>
-  </si>
-  <si>
-    <t>锦瑟</t>
-  </si>
-  <si>
-    <t>李商隐《锦瑟》上:http://mp.weixin.qq.com/s/RVkx_IwY2Q8Em5w3MaabhQ
-李商隐《锦瑟》下:http://mp.weixin.qq.com/s/sEG4LXFf_wmiNd02igs6eg</t>
-  </si>
-  <si>
-    <t>鹿柴</t>
-  </si>
-  <si>
-    <t>小学-王维《鹿柴》:http://mp.weixin.qq.com/s/Vv7KxQOGCmHZtCPYoOLPvQ</t>
-  </si>
-  <si>
-    <t>词牌格律</t>
-  </si>
-  <si>
-    <t>词牌格律大全:http://mp.weixin.qq.com/s/pE2pyHkjEt9PXLicvZ5HwQ</t>
-  </si>
-  <si>
-    <t>采葛</t>
-  </si>
-  <si>
-    <t>《诗经·国风·王风·采葛》:https://mp.weixin.qq.com/s/A0tRuXZEWhBLlCeRH8bOzA</t>
-  </si>
-  <si>
-    <t>早发白帝城</t>
-  </si>
-  <si>
-    <t>小学-李白《早发白帝城》:http://mp.weixin.qq.com/s/x4yjjkRauL3kZoi2K6DUHQ</t>
-  </si>
-  <si>
-    <t>静女</t>
-  </si>
-  <si>
-    <t>《诗经·邶风·静女》:http://mp.weixin.qq.com/s/NIwEcKMCri-4FrkIyygGYA</t>
-  </si>
-  <si>
-    <t>秋兴八首</t>
-  </si>
-  <si>
-    <t>杜甫《秋兴八首》其一:http://mp.weixin.qq.com/s/dWZXIajLrruk4tg4v-aM1A</t>
-  </si>
-  <si>
-    <t>风</t>
-  </si>
-  <si>
-    <t>小学-李峤《风》:http://mp.weixin.qq.com/s/upPgfMpltY8m7Z5hvcBZfQ</t>
-  </si>
-  <si>
-    <t>晚妆初了明肌雪</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF748391"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>李煜《玉楼春</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF748391"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF748391"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>晚妆初了明肌雪》</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF748391"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">:http://dwz.cn/6h1eWl
+    <t>李商隐《无题·重帏深下莫愁堂》:https://mp.weixin.qq.com/s/uMtYsJtLG1_FCwLQY8BKbg
+李商隐《无题·重帏深下莫愁堂》:http://mp.weixin.qq.com/s/GLUI9edej24mNlhh2ROqfw</t>
+  </si>
+  <si>
+    <t>九月九日忆山东兄弟</t>
+  </si>
+  <si>
+    <t>小学-王维《九月九日忆山东兄弟》:http://mp.weixin.qq.com/s/grLm-r-DhmnfaGI_fKWu0A
+王维《九月九日忆山东兄弟》:http://mp.weixin.qq.com/s/S3dTjMWrBXD3lrKKvijoig</t>
+  </si>
+  <si>
+    <t>长干行</t>
+  </si>
+  <si>
+    <t>崔颢《长干行》:http://mp.weixin.qq.com/s/LlRvS7eWMZH2YGAUAbT2zw
+李白《长干行》:http://mp.weixin.qq.com/s/pacp7JtH7Jal_C8TMQfRZw
+李白《长干行》- M:http://mp.weixin.qq.com/s/wS_5tBaStc2XLN1xhvADpw</t>
+  </si>
+  <si>
+    <t>采薇</t>
+  </si>
+  <si>
+    <t>《诗经·小雅·采薇》:http://mp.weixin.qq.com/s/t-YzEVhu0b2XCZ93m2Wxyw</t>
+  </si>
+  <si>
+    <t>奉和贾至舍人早朝大明宫</t>
+  </si>
+  <si>
+    <t>杜甫《奉和贾至舍人早朝大明宫》:http://mp.weixin.qq.com/s/it5aYwj1S84cgj3vBEYnog</t>
+  </si>
+  <si>
+    <t>临江仙</t>
+  </si>
+  <si>
+    <r>
+      <t>晏几道《临江仙》</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:http://mp.weixin.qq.com/s/4HnhhMl8oJax6iaj047FIA
 </t>
     </r>
     <r>
@@ -2813,247 +3105,23 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>李煜《玉楼春</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF748391"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF748391"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>晚妆初了明肌雪》</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF748391"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:http://mp.weixin.qq.com/s/mGHyBs5T9h1oE5w2IJCcdw</t>
-    </r>
-  </si>
-  <si>
-    <t>挽词</t>
-  </si>
-  <si>
-    <t>李煜《挽词》:http://mp.weixin.qq.com/s/GB_AB-OqJmIbAsh1NkmBzg</t>
-  </si>
-  <si>
-    <t>别董大</t>
-  </si>
-  <si>
-    <t>小学-高适《别董大》:http://mp.weixin.qq.com/s/KJH4lITrvJcYRklsOlmF5w</t>
-  </si>
-  <si>
-    <t>菊花</t>
-  </si>
-  <si>
-    <t>小学-元稹《菊花》:http://mp.weixin.qq.com/s/ZWinYn7ksdFkey6B1WiJvQ</t>
-  </si>
-  <si>
-    <t>滕王阁序</t>
-  </si>
-  <si>
-    <t>高中-王勃《滕王阁序》:http://mp.weixin.qq.com/s/MWBv8IMCDlRucDpzs0SJSA</t>
-  </si>
-  <si>
-    <t>咏鹅</t>
-  </si>
-  <si>
-    <t>小学-骆宾王《咏鹅》:https://mp.weixin.qq.com/s/0t30w-cl8krxxwt_8mWI9A</t>
-  </si>
-  <si>
-    <t>水龙吟</t>
-  </si>
-  <si>
-    <t>辛弃疾《水龙吟·登建康赏心亭》:https://mp.weixin.qq.com/s/V7Uid4kyXb-26p1yLBkJJQ</t>
-  </si>
-  <si>
-    <t>登建康赏心亭</t>
-  </si>
-  <si>
-    <t>鹿鸣</t>
-  </si>
-  <si>
-    <t>《诗经·鹿鸣》:http://mp.weixin.qq.com/s/HT2f5XgXKVgjjc_8riMgNQ</t>
-  </si>
-  <si>
-    <t>游山西村</t>
-  </si>
-  <si>
-    <t>陆游《游山西村》:https://mp.weixin.qq.com/s/F7m5O5OxsA6gtmHkhAnzQA</t>
-  </si>
-  <si>
-    <t>登金陵凤凰台</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>李白《登金陵凤凰台》</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF748391"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">:http://mp.weixin.qq.com/s/To8uiABoZCf0BQNfeATE0w
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF748391"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>李白《登金陵凤凰台》</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF748391"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:http://mp.weixin.qq.com/s/cwOZ60h3qH09lmCtUGxDvw</t>
-    </r>
-  </si>
-  <si>
-    <t>黄鹤楼</t>
-  </si>
-  <si>
-    <t>崔颢《黄鹤楼》:http://mp.weixin.qq.com/s/ksSXwqGdYtFj5p33JQb5ow
-崔颢《黄鹤楼》:http://mp.weixin.qq.com/s/zJpKRsaP_CsZ-gDFU4QsVg</t>
-  </si>
-  <si>
-    <t>白雪歌送武判官归京</t>
-  </si>
-  <si>
-    <t>岑参《白雪歌送武判官归京》（上）:http://mp.weixin.qq.com/s/iUvNybbqseUPVI-6mHB-bQ
-岑参《白雪歌送武判官归京》（下）:https://mp.weixin.qq.com/s/oM5SSVMkhaNJcWkizY_f2g</t>
-  </si>
-  <si>
-    <t>春江花月夜</t>
-  </si>
-  <si>
-    <t>张若虚《春江花月夜》(上):http://mp.weixin.qq.com/s/nK26oDlJFiJ6nvvuGEakhg
-张若虚《春江花月夜》(中):https://mp.weixin.qq.com/s/UCj7iQcG6qFls8alDJOJTA
-张若虚《春江花月夜》(下):http://mp.weixin.qq.com/s/-a9dIL9fkvMFoqCFaOZE_A
-张若虚《春江花月夜》:http://mp.weixin.qq.com/s/Lu4IlJF9cCzKW-PQdaCxUQ</t>
-  </si>
-  <si>
-    <t>南海归赠王定国侍人寓娘</t>
-  </si>
-  <si>
-    <t>苏轼《定风波·南海归赠王定国侍人寓娘》:https://mp.weixin.qq.com/s/52J8iDIkkSkydyY148qEcQ</t>
-  </si>
-  <si>
-    <t>定风波</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>苏轼《定风波》</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF748391"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">:http://mp.weixin.qq.com/s/6fmNTQOYTMVlGFQHg3lWOw
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF748391"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>苏轼《定风波</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF748391"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF748391"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>南海归赠王定国侍人寓娘》</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF748391"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:https://mp.weixin.qq.com/s/52J8iDIkkSkydyY148qEcQ</t>
-    </r>
-  </si>
-  <si>
-    <t>桃叶渡歌</t>
-  </si>
-  <si>
-    <t>王献之《桃叶渡歌》:http://mp.weixin.qq.com/s/7HIIcJeFKR8Qcn2Sd5MrmQ</t>
-  </si>
-  <si>
-    <t>感怀</t>
-  </si>
-  <si>
-    <t>彭玉麟《感怀》其一:http://mp.weixin.qq.com/s/FrVAiqeQwmJhqGX_dte5wA</t>
-  </si>
-  <si>
-    <t>梅花百韵</t>
-  </si>
-  <si>
-    <t>彭玉麟《梅花百韵》其一:https://mp.weixin.qq.com/s/MR8kBmq4e9_HJI7tEwNb9Q</t>
-  </si>
-  <si>
-    <t>子夜吴歌</t>
-  </si>
-  <si>
-    <t>李白《子夜吴歌•春歌》:http://mp.weixin.qq.com/s/n6vaSJpDbQ6zznI0NK73mA
-李白《子夜吴歌.夏歌》:http://mp.weixin.qq.com/s/R7sMBo2ttA-Lt-D0o7yf6Q
-李白《子夜吴歌•秋歌》:http://mp.weixin.qq.com/s/Ncw4qmeQQ25jidoi2lgLQQ</t>
-  </si>
-  <si>
-    <t>韩愈</t>
-  </si>
-  <si>
-    <t>【唐宋八大家】之韩愈全集:http://mp.weixin.qq.com/s/ehHYkt40H08FnU5V7jiOEQ</t>
+      <t>晏几道《临江仙》</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF748391"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:http://mp.weixin.qq.com/s/U91iHWooDCz8HTgQS0SjMQ</t>
+    </r>
+  </si>
+  <si>
+    <t>赠卫八处士</t>
+  </si>
+  <si>
+    <t>杜甫《赠卫八处士》:https://mp.weixin.qq.com/s/SiWudGapEYAzzuYK7jIHnA</t>
   </si>
 </sst>
 </file>
@@ -3061,12 +3129,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3094,19 +3162,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3126,9 +3186,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3140,38 +3215,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3194,8 +3238,24 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3204,6 +3264,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3225,10 +3293,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -3264,18 +3338,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3288,13 +3350,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3306,7 +3368,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3324,7 +3386,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3336,103 +3494,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3520,21 +3594,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -3573,6 +3632,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -3589,10 +3663,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3601,137 +3675,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3755,13 +3829,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4110,10 +4187,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C288"/>
+  <dimension ref="A1:C297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A124" sqref="$A124:$XFD124"/>
+    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
+      <selection activeCell="A284" sqref="$A284:$XFD297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -4321,7 +4398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:3">
+    <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
         <v>36</v>
       </c>
@@ -4332,11 +4409,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="1:3">
+    <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C20" t="s">
@@ -4347,18 +4424,18 @@
       <c r="A21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="1:3">
+    <row r="22" ht="40.5" spans="1:3">
       <c r="A22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C22" t="s">
@@ -4376,11 +4453,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" ht="40.5" spans="1:3">
+    <row r="24" ht="14.25" spans="1:3">
       <c r="A24" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C24" t="s">
@@ -4464,7 +4541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" ht="14.25" spans="1:3">
+    <row r="32" ht="27" spans="1:3">
       <c r="A32" s="4" t="s">
         <v>62</v>
       </c>
@@ -4475,55 +4552,55 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" ht="14.25" spans="1:3">
+    <row r="33" ht="27" spans="1:3">
       <c r="A33" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" ht="27.75" spans="1:3">
+      <c r="A34" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" ht="27" spans="1:3">
-      <c r="A34" s="4" t="s">
+      <c r="B34" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25" spans="1:3">
+      <c r="A35" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" ht="27" spans="1:3">
-      <c r="A35" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="C35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" ht="27.75" spans="1:3">
+    <row r="36" ht="14.25" spans="1:3">
       <c r="A36" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>70</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="37" ht="14.25" spans="1:3">
+    <row r="37" ht="27.75" spans="1:3">
       <c r="A37" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C37" t="s">
@@ -4541,11 +4618,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" ht="27.75" spans="1:3">
+    <row r="39" ht="14.25" spans="1:3">
       <c r="A39" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C39" t="s">
@@ -4596,56 +4673,56 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" ht="14.25" spans="1:3">
+    <row r="44" ht="27.75" spans="1:3">
       <c r="A44" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="5" t="s">
         <v>86</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="45" ht="14.25" spans="1:3">
+    <row r="45" ht="27.75" spans="1:3">
       <c r="A45" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="5" t="s">
         <v>88</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="46" ht="27.75" spans="1:3">
+    <row r="46" ht="14.25" spans="1:3">
       <c r="A46" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>90</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="47" ht="27.75" spans="1:3">
+    <row r="47" ht="14.25" spans="1:3">
       <c r="A47" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="48" ht="14.25" spans="1:3">
+    <row r="48" ht="26.25" spans="1:3">
       <c r="A48" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
@@ -4653,21 +4730,21 @@
     </row>
     <row r="49" ht="14.25" spans="1:3">
       <c r="A49" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25" spans="1:3">
+      <c r="A50" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C49" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" ht="26.25" spans="1:3">
-      <c r="A50" s="4" t="s">
+      <c r="B50" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -4695,11 +4772,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" ht="14.25" spans="1:3">
+    <row r="53" ht="27.75" spans="1:3">
       <c r="A53" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="5" t="s">
         <v>103</v>
       </c>
       <c r="C53" t="s">
@@ -4717,22 +4794,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" ht="27.75" spans="1:3">
+    <row r="55" ht="14.25" spans="1:3">
       <c r="A55" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="56" ht="14.25" spans="1:3">
+    <row r="56" ht="27.75" spans="1:3">
       <c r="A56" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="5" t="s">
         <v>109</v>
       </c>
       <c r="C56" t="s">
@@ -4750,7 +4827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" ht="27.75" spans="1:3">
+    <row r="58" ht="40.5" spans="1:3">
       <c r="A58" s="4" t="s">
         <v>112</v>
       </c>
@@ -4772,11 +4849,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" ht="40.5" spans="1:3">
+    <row r="60" ht="14.25" spans="1:3">
       <c r="A60" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C60" t="s">
@@ -4794,11 +4871,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" ht="14.25" spans="1:3">
+    <row r="62" ht="27.75" spans="1:3">
       <c r="A62" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="5" t="s">
         <v>121</v>
       </c>
       <c r="C62" t="s">
@@ -4816,22 +4893,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" ht="27.75" spans="1:3">
+    <row r="64" ht="14.25" spans="1:3">
       <c r="A64" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C64" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="65" ht="14.25" spans="1:3">
+    <row r="65" ht="41.25" spans="1:3">
       <c r="A65" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="5" t="s">
         <v>127</v>
       </c>
       <c r="C65" t="s">
@@ -4849,22 +4926,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" ht="41.25" spans="1:3">
+    <row r="67" ht="14.25" spans="1:3">
       <c r="A67" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C67" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="68" ht="14.25" spans="1:3">
+    <row r="68" ht="27.75" spans="1:3">
       <c r="A68" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="5" t="s">
         <v>133</v>
       </c>
       <c r="C68" t="s">
@@ -4882,7 +4959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" ht="27.75" spans="1:3">
+    <row r="70" ht="39.75" spans="1:3">
       <c r="A70" s="4" t="s">
         <v>136</v>
       </c>
@@ -4904,11 +4981,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" ht="39.75" spans="1:3">
+    <row r="72" ht="14.25" spans="1:3">
       <c r="A72" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="4" t="s">
         <v>141</v>
       </c>
       <c r="C72" t="s">
@@ -4931,18 +5008,18 @@
         <v>144</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" ht="41.25" spans="1:3">
+      <c r="A75" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C74" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" ht="14.25" spans="1:3">
-      <c r="A75" s="4" t="s">
+      <c r="B75" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="C75" t="s">
         <v>2</v>
@@ -4950,20 +5027,20 @@
     </row>
     <row r="76" ht="14.25" spans="1:3">
       <c r="A76" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>147</v>
-      </c>
       <c r="C76" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="77" ht="41.25" spans="1:3">
+    <row r="77" ht="14.25" spans="1:3">
       <c r="A77" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C77" t="s">
@@ -4974,7 +5051,7 @@
       <c r="A78" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="4" t="s">
         <v>152</v>
       </c>
       <c r="C78" t="s">
@@ -5030,7 +5107,7 @@
         <v>161</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C83" t="s">
         <v>2</v>
@@ -5038,10 +5115,10 @@
     </row>
     <row r="84" ht="14.25" spans="1:3">
       <c r="A84" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="C84" t="s">
         <v>2</v>
@@ -5049,10 +5126,10 @@
     </row>
     <row r="85" ht="14.25" spans="1:3">
       <c r="A85" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="C85" t="s">
         <v>2</v>
@@ -5107,7 +5184,7 @@
         <v>174</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C90" t="s">
         <v>2</v>
@@ -5115,10 +5192,10 @@
     </row>
     <row r="91" ht="14.25" spans="1:3">
       <c r="A91" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>177</v>
       </c>
       <c r="C91" t="s">
         <v>2</v>
@@ -5126,10 +5203,10 @@
     </row>
     <row r="92" ht="14.25" spans="1:3">
       <c r="A92" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>177</v>
       </c>
       <c r="C92" t="s">
         <v>2</v>
@@ -5173,7 +5250,7 @@
         <v>185</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C96" t="s">
         <v>2</v>
@@ -5181,10 +5258,10 @@
     </row>
     <row r="97" ht="14.25" spans="1:3">
       <c r="A97" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="C97" t="s">
         <v>2</v>
@@ -5192,10 +5269,10 @@
     </row>
     <row r="98" ht="14.25" spans="1:3">
       <c r="A98" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C98" t="s">
         <v>2</v>
@@ -5203,10 +5280,10 @@
     </row>
     <row r="99" ht="14.25" spans="1:3">
       <c r="A99" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B99" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="C99" t="s">
         <v>2</v>
@@ -5214,10 +5291,10 @@
     </row>
     <row r="100" ht="14.25" spans="1:3">
       <c r="A100" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="C100" t="s">
         <v>2</v>
@@ -5245,7 +5322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" ht="14.25" spans="1:3">
+    <row r="103" spans="1:3">
       <c r="A103" s="4" t="s">
         <v>197</v>
       </c>
@@ -5256,23 +5333,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" ht="14.25" spans="1:3">
-      <c r="A104" s="4" t="s">
+    <row r="105" spans="1:3">
+      <c r="A105" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B105" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="C104" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" ht="14.25" spans="1:3">
-      <c r="A105" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>202</v>
       </c>
       <c r="C105" t="s">
         <v>2</v>
@@ -5280,10 +5346,10 @@
     </row>
     <row r="106" ht="14.25" spans="1:3">
       <c r="A106" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C106" t="s">
         <v>2</v>
@@ -5291,10 +5357,10 @@
     </row>
     <row r="107" ht="14.25" spans="1:3">
       <c r="A107" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C107" t="s">
         <v>2</v>
@@ -5302,10 +5368,10 @@
     </row>
     <row r="108" ht="14.25" spans="1:3">
       <c r="A108" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C108" t="s">
         <v>2</v>
@@ -5313,10 +5379,10 @@
     </row>
     <row r="109" ht="14.25" spans="1:3">
       <c r="A109" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C109" t="s">
         <v>2</v>
@@ -5324,21 +5390,21 @@
     </row>
     <row r="110" ht="14.25" spans="1:3">
       <c r="A110" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" ht="27.75" spans="1:3">
+      <c r="A111" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B111" s="5" t="s">
         <v>212</v>
-      </c>
-      <c r="C110" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" ht="14.25" spans="1:3">
-      <c r="A111" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>214</v>
       </c>
       <c r="C111" t="s">
         <v>2</v>
@@ -5346,21 +5412,21 @@
     </row>
     <row r="112" ht="14.25" spans="1:3">
       <c r="A112" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C112" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" ht="14.25" spans="1:3">
+      <c r="A113" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B112" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C112" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" ht="27.75" spans="1:3">
-      <c r="A113" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>218</v>
+      <c r="B113" s="4" t="s">
+        <v>214</v>
       </c>
       <c r="C113" t="s">
         <v>2</v>
@@ -5368,10 +5434,10 @@
     </row>
     <row r="114" ht="14.25" spans="1:3">
       <c r="A114" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C114" t="s">
         <v>2</v>
@@ -5379,54 +5445,54 @@
     </row>
     <row r="115" ht="14.25" spans="1:3">
       <c r="A115" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" ht="14.25" spans="1:3">
+      <c r="A116" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B116" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="B115" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C115" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" ht="14.25" spans="1:3">
-      <c r="A116" s="4" t="s">
+      <c r="C116" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" ht="14.25" spans="1:3">
+      <c r="A117" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B117" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="C116" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" ht="14.25" spans="1:3">
-      <c r="A117" s="4" t="s">
+      <c r="C117" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
         <v>224</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B118" t="s">
         <v>225</v>
       </c>
-      <c r="C117" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" ht="14.25" spans="1:3">
-      <c r="A118" s="6" t="s">
+      <c r="C118" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
         <v>226</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B119" t="s">
         <v>227</v>
-      </c>
-      <c r="C118" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" ht="14.25" spans="1:3">
-      <c r="A119" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="C119" t="s">
         <v>2</v>
@@ -5434,10 +5500,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B120" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C120" t="s">
         <v>2</v>
@@ -5445,54 +5511,54 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
+        <v>230</v>
+      </c>
+      <c r="B121" t="s">
+        <v>231</v>
+      </c>
+      <c r="C121" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" s="1" customFormat="1" spans="1:3">
+      <c r="A122" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B122" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C121" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" t="s">
-        <v>234</v>
-      </c>
-      <c r="B122" t="s">
-        <v>235</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="C122" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
+        <v>234</v>
+      </c>
+      <c r="B123" t="s">
+        <v>235</v>
+      </c>
+      <c r="C123" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
         <v>236</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B124" t="s">
         <v>237</v>
       </c>
-      <c r="C123" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" s="1" customFormat="1" spans="1:3">
-      <c r="A124" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B125" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C125" t="s">
         <v>2</v>
@@ -5500,10 +5566,10 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B126" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C126" t="s">
         <v>2</v>
@@ -5511,10 +5577,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B127" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C127" t="s">
         <v>2</v>
@@ -5522,10 +5588,10 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B128" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C128" t="s">
         <v>2</v>
@@ -5533,10 +5599,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B129" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C129" t="s">
         <v>2</v>
@@ -5544,10 +5610,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B130" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C130" t="s">
         <v>2</v>
@@ -5555,10 +5621,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B131" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C131" t="s">
         <v>2</v>
@@ -5566,10 +5632,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B132" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C132" t="s">
         <v>2</v>
@@ -5577,10 +5643,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B133" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C133" t="s">
         <v>2</v>
@@ -5588,21 +5654,21 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
+        <v>256</v>
+      </c>
+      <c r="B134" t="s">
+        <v>257</v>
+      </c>
+      <c r="C134" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" ht="27" spans="1:3">
+      <c r="A135" t="s">
         <v>258</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B135" s="8" t="s">
         <v>259</v>
-      </c>
-      <c r="C134" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" t="s">
-        <v>260</v>
-      </c>
-      <c r="B135" t="s">
-        <v>261</v>
       </c>
       <c r="C135" t="s">
         <v>2</v>
@@ -5610,21 +5676,21 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
+        <v>260</v>
+      </c>
+      <c r="B136" t="s">
+        <v>261</v>
+      </c>
+      <c r="C136" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
         <v>262</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B137" t="s">
         <v>263</v>
-      </c>
-      <c r="C136" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" ht="27" spans="1:3">
-      <c r="A137" t="s">
-        <v>264</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>265</v>
       </c>
       <c r="C137" t="s">
         <v>2</v>
@@ -5632,10 +5698,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B138" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C138" t="s">
         <v>2</v>
@@ -5643,10 +5709,10 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B139" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C139" t="s">
         <v>2</v>
@@ -5654,21 +5720,21 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>270</v>
+        <v>46</v>
       </c>
       <c r="B140" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C140" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" ht="27" spans="1:3">
       <c r="A141" t="s">
-        <v>272</v>
-      </c>
-      <c r="B141" t="s">
-        <v>273</v>
+        <v>94</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>269</v>
       </c>
       <c r="C141" t="s">
         <v>2</v>
@@ -5676,21 +5742,21 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>50</v>
+        <v>270</v>
       </c>
       <c r="B142" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C142" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="143" ht="27" spans="1:3">
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>98</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>275</v>
+        <v>272</v>
+      </c>
+      <c r="B143" t="s">
+        <v>273</v>
       </c>
       <c r="C143" t="s">
         <v>2</v>
@@ -5698,10 +5764,10 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B144" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C144" t="s">
         <v>2</v>
@@ -5709,43 +5775,32 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B145" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C145" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" t="s">
-        <v>280</v>
-      </c>
-      <c r="B146" t="s">
-        <v>281</v>
-      </c>
-      <c r="C146" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B147" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C147" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="148" ht="27" spans="1:3">
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>284</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
+      </c>
+      <c r="B148" t="s">
+        <v>281</v>
       </c>
       <c r="C148" t="s">
         <v>2</v>
@@ -5753,43 +5808,43 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B149" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C149" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" t="s">
-        <v>288</v>
-      </c>
-      <c r="B150" t="s">
-        <v>289</v>
-      </c>
-      <c r="C150" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B151" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C151" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>286</v>
+      </c>
+      <c r="B152" t="s">
+        <v>287</v>
+      </c>
+      <c r="C152" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B153" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C153" t="s">
         <v>2</v>
@@ -5797,10 +5852,10 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B154" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C154" t="s">
         <v>2</v>
@@ -5808,10 +5863,10 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B155" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C155" t="s">
         <v>2</v>
@@ -5819,10 +5874,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B156" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C156" t="s">
         <v>2</v>
@@ -5830,10 +5885,10 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B157" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C157" t="s">
         <v>2</v>
@@ -5841,10 +5896,10 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B158" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C158" t="s">
         <v>2</v>
@@ -5852,10 +5907,10 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B159" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C159" t="s">
         <v>2</v>
@@ -5863,10 +5918,10 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B160" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C160" t="s">
         <v>2</v>
@@ -5874,10 +5929,10 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B161" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C161" t="s">
         <v>2</v>
@@ -5885,10 +5940,10 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B162" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C162" t="s">
         <v>2</v>
@@ -5896,10 +5951,10 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B163" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C163" t="s">
         <v>2</v>
@@ -5907,10 +5962,10 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B164" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C164" t="s">
         <v>2</v>
@@ -5918,10 +5973,10 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B165" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C165" t="s">
         <v>2</v>
@@ -5929,10 +5984,10 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B166" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C166" t="s">
         <v>2</v>
@@ -5940,10 +5995,10 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B167" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C167" t="s">
         <v>2</v>
@@ -5951,10 +6006,10 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B168" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C168" t="s">
         <v>2</v>
@@ -5962,10 +6017,10 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B169" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C169" t="s">
         <v>2</v>
@@ -5973,10 +6028,10 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B170" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C170" t="s">
         <v>2</v>
@@ -5984,43 +6039,43 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B171" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C171" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" t="s">
-        <v>330</v>
-      </c>
-      <c r="B172" t="s">
-        <v>331</v>
-      </c>
-      <c r="C172" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B173" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C173" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>328</v>
+      </c>
+      <c r="B174" t="s">
+        <v>327</v>
+      </c>
+      <c r="C174" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B175" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C175" t="s">
         <v>2</v>
@@ -6028,10 +6083,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B176" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C176" t="s">
         <v>2</v>
@@ -6039,10 +6094,10 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B177" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C177" t="s">
         <v>2</v>
@@ -6050,10 +6105,10 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B178" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C178" t="s">
         <v>2</v>
@@ -6061,10 +6116,10 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B179" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C179" t="s">
         <v>2</v>
@@ -6072,10 +6127,10 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B180" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C180" t="s">
         <v>2</v>
@@ -6083,10 +6138,10 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B181" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C181" t="s">
         <v>2</v>
@@ -6094,21 +6149,21 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B182" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C182" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" ht="27" spans="1:3">
       <c r="A183" t="s">
-        <v>349</v>
-      </c>
-      <c r="B183" t="s">
-        <v>350</v>
+        <v>345</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>346</v>
       </c>
       <c r="C183" t="s">
         <v>2</v>
@@ -6116,21 +6171,21 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B184" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C184" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="185" ht="27" spans="1:3">
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>353</v>
-      </c>
-      <c r="B185" s="8" t="s">
-        <v>354</v>
+        <v>349</v>
+      </c>
+      <c r="B185" t="s">
+        <v>350</v>
       </c>
       <c r="C185" t="s">
         <v>2</v>
@@ -6138,10 +6193,10 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B186" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C186" t="s">
         <v>2</v>
@@ -6149,1095 +6204,1164 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
+        <v>353</v>
+      </c>
+      <c r="B187" t="s">
+        <v>354</v>
+      </c>
+      <c r="C187" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="B189" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="B187" t="s">
-        <v>358</v>
-      </c>
-      <c r="C187" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="A188" t="s">
-        <v>359</v>
-      </c>
-      <c r="B188" t="s">
-        <v>360</v>
-      </c>
-      <c r="C188" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189" t="s">
-        <v>361</v>
-      </c>
-      <c r="B189" t="s">
-        <v>362</v>
-      </c>
-      <c r="C189" t="s">
+      <c r="C189" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B192" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="B190" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="C190" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" s="10" t="s">
+      <c r="C192" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="B191" s="10" t="s">
+      <c r="B193" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="C191" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" s="10" t="s">
+      <c r="C193" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B192" s="10" t="s">
+      <c r="B194" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="C192" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" s="10" t="s">
+      <c r="C194" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="B193" s="10" t="s">
+      <c r="B195" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="C193" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="10" t="s">
+      <c r="C195" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="B194" s="10" t="s">
+      <c r="B196" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="C194" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" s="10" t="s">
+      <c r="C196" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="B195" s="10" t="s">
+      <c r="B197" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="C195" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="10" t="s">
+      <c r="C197" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="B196" s="10" t="s">
+      <c r="B198" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="C196" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="10" t="s">
+      <c r="C198" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="B197" s="10" t="s">
+      <c r="B199" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="C197" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" s="10" t="s">
+      <c r="C199" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="B198" s="10" t="s">
+      <c r="B200" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="C198" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199" s="10" t="s">
+      <c r="C200" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="B199" s="10" t="s">
+      <c r="B201" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="C199" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200" s="10" t="s">
+      <c r="C201" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="B200" s="10" t="s">
+      <c r="B202" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="C200" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201" s="10" t="s">
+      <c r="C202" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="B201" s="10" t="s">
+      <c r="B203" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="C201" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202" s="10" t="s">
+      <c r="C203" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="B202" s="10" t="s">
+      <c r="B204" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="C202" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" s="10" t="s">
+      <c r="C204" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="B203" s="10" t="s">
+      <c r="B205" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="C203" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="A204" s="10" t="s">
+      <c r="C205" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="B204" s="10" t="s">
+      <c r="B206" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="C204" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205" s="10" t="s">
+      <c r="C206" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="B205" s="10" t="s">
+      <c r="B207" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="C205" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206" s="10" t="s">
+      <c r="C207" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" ht="27" spans="1:3">
+      <c r="A208" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="B206" s="10" t="s">
+      <c r="B208" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="C206" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="A207" s="10" t="s">
+      <c r="C208" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="B207" s="10" t="s">
+      <c r="B209" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="C207" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
-      <c r="A208" s="10" t="s">
+      <c r="C209" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="B208" s="10" t="s">
+      <c r="B210" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="C208" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209" s="10" t="s">
+      <c r="C210" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="B209" s="10" t="s">
+      <c r="B211" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="C209" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="210" ht="27" spans="1:3">
-      <c r="A210" s="10" t="s">
+      <c r="C211" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="B210" s="11" t="s">
+      <c r="B212" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="C210" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
-      <c r="A211" s="10" t="s">
+      <c r="C212" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="B211" s="10" t="s">
+      <c r="B213" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="C211" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="A212" s="10" t="s">
+      <c r="C213" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="B212" s="10" t="s">
+      <c r="B214" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="C212" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
-      <c r="A213" s="10" t="s">
+      <c r="C214" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="B213" s="10" t="s">
+      <c r="B215" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="C213" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="A214" s="10" t="s">
+      <c r="C215" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" ht="14.25" spans="1:3">
+      <c r="A216" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="B214" s="10" t="s">
+      <c r="B216" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="C214" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
-      <c r="A215" s="10" t="s">
+      <c r="C216" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" ht="27" spans="1:3">
+      <c r="A217" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B217" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="B215" s="10" t="s">
+      <c r="C217" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="C215" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
-      <c r="A216" s="10" t="s">
+      <c r="B218" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="B216" s="10" t="s">
+      <c r="B220" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="C216" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="A217" s="10" t="s">
+      <c r="C220" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B221" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="B217" s="10" t="s">
+      <c r="C221" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="C217" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="218" ht="14.25" spans="1:3">
-      <c r="A218" s="10" t="s">
+      <c r="B222" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="B218" s="10" t="s">
+      <c r="C222" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="C218" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="219" ht="27" spans="1:3">
-      <c r="A219" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B219" s="5" t="s">
+      <c r="B223" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="C219" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
-      <c r="A220" s="10" t="s">
+      <c r="C223" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B220" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="C220" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
-      <c r="A222" s="10" t="s">
+      <c r="B224" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="B222" s="10" t="s">
+      <c r="C224" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="C222" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
-      <c r="A223" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="B223" s="10" t="s">
+      <c r="B225" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="C223" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
-      <c r="A224" s="10" t="s">
+      <c r="B226" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="B224" s="10" t="s">
+      <c r="C226" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="C224" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
-      <c r="A225" s="10" t="s">
+      <c r="B227" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="B225" s="10" t="s">
+      <c r="C227" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="C225" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
-      <c r="A226" s="10" t="s">
+      <c r="B228" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="B226" s="10" t="s">
+      <c r="C228" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="C226" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
-      <c r="A227" s="10" t="s">
+      <c r="B229" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="B227" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="C227" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
-      <c r="A228" s="10" t="s">
+      <c r="C229" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="B228" s="10" t="s">
+      <c r="B230" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="C228" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
-      <c r="A229" s="10" t="s">
+      <c r="C230" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="B229" s="10" t="s">
+      <c r="B231" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="C229" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
-      <c r="A230" s="10" t="s">
+      <c r="C231" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="B230" s="10" t="s">
+      <c r="B232" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="C230" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
-      <c r="A231" s="10" t="s">
+      <c r="C232" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="B231" s="10" t="s">
+      <c r="B233" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="C231" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
-      <c r="A232" s="10" t="s">
+      <c r="C233" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="B232" s="10" t="s">
+      <c r="B234" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="C232" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
-      <c r="A233" s="10" t="s">
+      <c r="C234" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="9"/>
+      <c r="B235" s="9"/>
+      <c r="C235" s="1"/>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B236" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="B233" s="10" t="s">
+      <c r="C236" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="C233" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
-      <c r="A234" s="10" t="s">
+      <c r="B237" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="B234" s="10" t="s">
+      <c r="C237" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="C234" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
-      <c r="A235" s="10" t="s">
+      <c r="B238" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="B235" s="10" t="s">
+      <c r="C238" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="C235" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
-      <c r="A236" s="10" t="s">
+      <c r="B239" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="B236" s="10" t="s">
+      <c r="C239" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" ht="27" spans="1:3">
+      <c r="A241" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="C236" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
-      <c r="A237" s="10" t="s">
+      <c r="B241" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="B237" s="10" t="s">
+      <c r="C241" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" t="s">
         <v>451</v>
       </c>
-      <c r="C237" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
-      <c r="A238" s="10" t="s">
+      <c r="B242" t="s">
         <v>452</v>
       </c>
-      <c r="B238" s="10" t="s">
+      <c r="C242" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" t="s">
         <v>453</v>
       </c>
-      <c r="C238" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
-      <c r="A239" s="10"/>
-      <c r="B239" s="10"/>
-      <c r="C239" s="9"/>
-    </row>
-    <row r="240" spans="1:3">
-      <c r="A240" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="B240" s="10" t="s">
+      <c r="B243" t="s">
         <v>454</v>
       </c>
-      <c r="C240" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
-      <c r="A241" s="10" t="s">
+      <c r="C243" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" t="s">
         <v>455</v>
       </c>
-      <c r="B241" s="10" t="s">
+      <c r="B244" t="s">
         <v>456</v>
       </c>
-      <c r="C241" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
-      <c r="A242" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="B242" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="C242" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3">
-      <c r="A243" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="B243" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="C243" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="245" ht="27" spans="1:3">
-      <c r="A245" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="B245" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="C245" s="9" t="s">
+      <c r="C244" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B246" t="s">
-        <v>464</v>
-      </c>
-      <c r="C246" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3">
-      <c r="A247" t="s">
-        <v>465</v>
-      </c>
-      <c r="B247" t="s">
-        <v>466</v>
-      </c>
-      <c r="C247" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="C246" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="B248" t="s">
-        <v>468</v>
-      </c>
-      <c r="C248" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="C248" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="B249" t="s">
-        <v>470</v>
-      </c>
-      <c r="C249" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="C249" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="B250" t="s">
-        <v>472</v>
-      </c>
-      <c r="C250" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="251" ht="81" spans="1:3">
-      <c r="A251" s="10" t="s">
-        <v>473</v>
-      </c>
-      <c r="B251" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="C251" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
+        <v>465</v>
+      </c>
+      <c r="B251" t="s">
+        <v>466</v>
+      </c>
+      <c r="C251" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="B252" t="s">
-        <v>476</v>
-      </c>
-      <c r="C252" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3">
+        <v>468</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" ht="27" spans="1:3">
       <c r="A253" t="s">
-        <v>477</v>
-      </c>
-      <c r="B253" t="s">
-        <v>478</v>
-      </c>
-      <c r="C253" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="C253" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="B254" t="s">
-        <v>480</v>
-      </c>
-      <c r="C254" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="C254" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="B255" t="s">
-        <v>482</v>
-      </c>
-      <c r="C255" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="C255" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="B256" t="s">
-        <v>484</v>
-      </c>
-      <c r="C256" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="C256" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="B257" t="s">
-        <v>486</v>
-      </c>
-      <c r="C257" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="258" ht="27" spans="1:3">
+        <v>478</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>487</v>
-      </c>
-      <c r="B258" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="C258" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="B258" t="s">
+        <v>480</v>
+      </c>
+      <c r="C258" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="B259" t="s">
-        <v>490</v>
-      </c>
-      <c r="C259" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="C259" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B260" t="s">
-        <v>492</v>
-      </c>
-      <c r="C260" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3">
+        <v>484</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" ht="14.25" spans="1:3">
       <c r="A261" t="s">
-        <v>493</v>
+        <v>443</v>
       </c>
       <c r="B261" t="s">
-        <v>494</v>
-      </c>
-      <c r="C261" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3">
-      <c r="A262" t="s">
-        <v>495</v>
-      </c>
-      <c r="B262" t="s">
-        <v>496</v>
-      </c>
-      <c r="C262" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3">
-      <c r="A263" t="s">
-        <v>497</v>
-      </c>
-      <c r="B263" t="s">
-        <v>498</v>
-      </c>
-      <c r="C263" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" ht="27.75" spans="1:3">
+      <c r="A262" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" ht="27" spans="1:3">
+      <c r="A263" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C263" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:3">
-      <c r="A264" t="s">
-        <v>499</v>
-      </c>
-      <c r="B264" t="s">
-        <v>500</v>
-      </c>
-      <c r="C264" s="9" t="s">
+      <c r="A264" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B264" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="C264" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="B265" t="s">
-        <v>502</v>
-      </c>
-      <c r="C265" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="266" ht="14.25" spans="1:3">
+        <v>490</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>455</v>
+        <v>491</v>
       </c>
       <c r="B266" t="s">
-        <v>456</v>
-      </c>
-      <c r="C266" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="267" ht="27.75" spans="1:3">
-      <c r="A267" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="B267" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="C267" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="268" ht="27" spans="1:3">
-      <c r="A268" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="B268" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="C268" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3">
-      <c r="A269" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="B269" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="C269" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" t="s">
+        <v>493</v>
+      </c>
+      <c r="B267" t="s">
+        <v>494</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" t="s">
+        <v>495</v>
+      </c>
+      <c r="B268" t="s">
+        <v>496</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" customFormat="1" spans="1:3">
+      <c r="A269" t="s">
+        <v>497</v>
+      </c>
+      <c r="B269" t="s">
+        <v>498</v>
+      </c>
+      <c r="C269" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="B270" t="s">
-        <v>508</v>
-      </c>
-      <c r="C270" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="C270" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="B271" t="s">
-        <v>510</v>
-      </c>
-      <c r="C271" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="C271" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
+        <v>502</v>
+      </c>
+      <c r="B272" t="s">
+        <v>503</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" ht="27" spans="1:3">
+      <c r="A273" t="s">
+        <v>504</v>
+      </c>
+      <c r="B273" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" ht="27" spans="1:3">
+      <c r="A274" t="s">
+        <v>506</v>
+      </c>
+      <c r="B274" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" ht="27" spans="1:3">
+      <c r="A275" t="s">
+        <v>508</v>
+      </c>
+      <c r="B275" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" ht="54" spans="1:3">
+      <c r="A276" t="s">
+        <v>510</v>
+      </c>
+      <c r="B276" s="8" t="s">
         <v>511</v>
       </c>
-      <c r="B272" t="s">
+      <c r="C276" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" customFormat="1" spans="1:3">
+      <c r="A277" t="s">
         <v>512</v>
       </c>
-      <c r="C272" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3">
-      <c r="A273" t="s">
+      <c r="B277" t="s">
         <v>513</v>
       </c>
-      <c r="B273" t="s">
+      <c r="C277" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" t="s">
         <v>514</v>
       </c>
-      <c r="C273" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="274" customFormat="1" spans="1:3">
-      <c r="A274" t="s">
+      <c r="B278" t="s">
         <v>515</v>
       </c>
-      <c r="B274" t="s">
+      <c r="C278" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" t="s">
         <v>516</v>
       </c>
-      <c r="C274" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3">
-      <c r="A275" t="s">
+      <c r="B279" t="s">
         <v>517</v>
       </c>
-      <c r="B275" t="s">
-        <v>516</v>
-      </c>
-      <c r="C275" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3">
-      <c r="A276" t="s">
+      <c r="C279" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" t="s">
         <v>518</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B280" t="s">
         <v>519</v>
       </c>
-      <c r="C276" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3">
-      <c r="A277" t="s">
+      <c r="C280" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" t="s">
         <v>520</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B281" t="s">
         <v>521</v>
       </c>
-      <c r="C277" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="278" ht="27" spans="1:3">
-      <c r="A278" t="s">
+      <c r="C281" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" t="s">
         <v>522</v>
       </c>
-      <c r="B278" s="8" t="s">
+      <c r="B282" t="s">
         <v>523</v>
       </c>
-      <c r="C278" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="279" ht="27" spans="1:3">
-      <c r="A279" t="s">
+      <c r="C282" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="3:3">
+      <c r="C283" s="1"/>
+    </row>
+    <row r="284" ht="54" spans="1:3">
+      <c r="A284" t="s">
         <v>524</v>
       </c>
-      <c r="B279" s="8" t="s">
+      <c r="B284" s="8" t="s">
         <v>525</v>
       </c>
-      <c r="C279" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="280" ht="27" spans="1:3">
-      <c r="A280" t="s">
+      <c r="C284" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" ht="27" spans="1:3">
+      <c r="A285" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="B280" s="8" t="s">
+      <c r="B285" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="C280" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="281" ht="54" spans="1:3">
-      <c r="A281" t="s">
-        <v>528</v>
-      </c>
-      <c r="B281" s="8" t="s">
-        <v>529</v>
-      </c>
-      <c r="C281" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="282" customFormat="1" spans="1:3">
-      <c r="A282" t="s">
-        <v>530</v>
-      </c>
-      <c r="B282" t="s">
-        <v>531</v>
-      </c>
-      <c r="C282" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3">
-      <c r="A283" t="s">
-        <v>532</v>
-      </c>
-      <c r="B283" t="s">
-        <v>533</v>
-      </c>
-      <c r="C283" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3">
-      <c r="A284" t="s">
-        <v>534</v>
-      </c>
-      <c r="B284" t="s">
-        <v>535</v>
-      </c>
-      <c r="C284" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3">
-      <c r="A285" t="s">
-        <v>536</v>
-      </c>
-      <c r="B285" t="s">
-        <v>537</v>
-      </c>
-      <c r="C285" s="9" t="s">
+      <c r="C285" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="B286" t="s">
-        <v>539</v>
-      </c>
-      <c r="C286" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="287" ht="40.5" spans="1:3">
+        <v>529</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>540</v>
-      </c>
-      <c r="B287" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="C287" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="B287" t="s">
+        <v>531</v>
+      </c>
+      <c r="C287" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
+        <v>532</v>
+      </c>
+      <c r="B288" t="s">
+        <v>533</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" ht="27" spans="1:3">
+      <c r="A289" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="B289" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" ht="94.5" spans="1:3">
+      <c r="A290" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="B290" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" ht="27" spans="1:3">
+      <c r="A291" t="s">
+        <v>538</v>
+      </c>
+      <c r="B291" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" ht="27" spans="1:3">
+      <c r="A292" t="s">
+        <v>540</v>
+      </c>
+      <c r="B292" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" ht="40.5" spans="1:3">
+      <c r="A293" t="s">
         <v>542</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B293" s="8" t="s">
         <v>543</v>
       </c>
-      <c r="C288" s="9" t="s">
+      <c r="C293" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" t="s">
+        <v>544</v>
+      </c>
+      <c r="B294" t="s">
+        <v>545</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" ht="14.25" spans="1:3">
+      <c r="A295" t="s">
+        <v>546</v>
+      </c>
+      <c r="B295" t="s">
+        <v>547</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" ht="27" spans="1:3">
+      <c r="A296" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="B296" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="C296" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="B297" t="s">
+        <v>551</v>
+      </c>
+      <c r="C297" s="1" t="s">
         <v>2</v>
       </c>
     </row>
